--- a/eval/GPS-Test.xlsx
+++ b/eval/GPS-Test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
   <si>
     <t>Latitude</t>
   </si>
@@ -54,6 +54,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -137,8 +138,8 @@
   </sheetPr>
   <dimension ref="A1:E1005"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1003" activeCellId="0" sqref="E1003"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A990" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H15" activeCellId="0" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -146,7 +147,7 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.95408163265306"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.35204081632653"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.71428571428571"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.4591836734694"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.2959183673469"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.9897959183673"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.5204081632653"/>
   </cols>
@@ -179,7 +180,7 @@
         <v>1.061</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>0</v>
+        <v>1468103888</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>96280</v>
@@ -196,7 +197,7 @@
         <v>0.744</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>0</v>
+        <v>1468103888</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>389</v>
@@ -213,7 +214,7 @@
         <v>0.382</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>0</v>
+        <v>1468103889</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>501</v>
@@ -230,7 +231,7 @@
         <v>0.245</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>0</v>
+        <v>1468103889</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>549</v>
@@ -247,7 +248,7 @@
         <v>0.181</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>0</v>
+        <v>1468103890</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>458</v>
@@ -264,7 +265,7 @@
         <v>0.141</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>0</v>
+        <v>1468103890</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>495</v>
@@ -281,7 +282,7 @@
         <v>0.128</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>0</v>
+        <v>1468103891</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>498</v>
@@ -298,7 +299,7 @@
         <v>0.1</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>0</v>
+        <v>1468103891</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>504</v>
@@ -315,7 +316,7 @@
         <v>0.068</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>0</v>
+        <v>1468103892</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>524</v>
@@ -332,7 +333,7 @@
         <v>0.059</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>0</v>
+        <v>1468103892</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>462</v>
@@ -349,7 +350,7 @@
         <v>0.055</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>0</v>
+        <v>1468103893</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>500</v>
@@ -366,7 +367,7 @@
         <v>0.046</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>0</v>
+        <v>1468103893</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>496</v>
@@ -383,7 +384,7 @@
         <v>0.859</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>0</v>
+        <v>1468103894</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>546</v>
@@ -400,7 +401,7 @@
         <v>0.338</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>0</v>
+        <v>1468103894</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>499</v>
@@ -417,7 +418,7 @@
         <v>0.179</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>0</v>
+        <v>1468103895</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>456</v>
@@ -434,7 +435,7 @@
         <v>0.094</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>0</v>
+        <v>1468103895</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>501</v>
@@ -451,7 +452,7 @@
         <v>0.121</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>0</v>
+        <v>1468103896</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>503</v>
@@ -468,7 +469,7 @@
         <v>0.063</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>0</v>
+        <v>1468103896</v>
       </c>
       <c r="E19" s="0" t="n">
         <v>492</v>
@@ -485,7 +486,7 @@
         <v>0.068</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>0</v>
+        <v>1468103897</v>
       </c>
       <c r="E20" s="0" t="n">
         <v>545</v>
@@ -502,7 +503,7 @@
         <v>0.048</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>0</v>
+        <v>1468103897</v>
       </c>
       <c r="E21" s="0" t="n">
         <v>456</v>
@@ -519,7 +520,7 @@
         <v>0.062</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>0</v>
+        <v>1468103898</v>
       </c>
       <c r="E22" s="0" t="n">
         <v>498</v>
@@ -536,7 +537,7 @@
         <v>0.049</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>0</v>
+        <v>1468103898</v>
       </c>
       <c r="E23" s="0" t="n">
         <v>553</v>
@@ -553,7 +554,7 @@
         <v>0.048</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>0</v>
+        <v>1468103899</v>
       </c>
       <c r="E24" s="0" t="n">
         <v>449</v>
@@ -570,7 +571,7 @@
         <v>0.061</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>0</v>
+        <v>1468103899</v>
       </c>
       <c r="E25" s="0" t="n">
         <v>538</v>
@@ -587,7 +588,7 @@
         <v>0.035</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>0</v>
+        <v>1468103900</v>
       </c>
       <c r="E26" s="0" t="n">
         <v>458</v>
@@ -604,7 +605,7 @@
         <v>0.041</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>0</v>
+        <v>1468103900</v>
       </c>
       <c r="E27" s="0" t="n">
         <v>502</v>
@@ -621,7 +622,7 @@
         <v>0.048</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>0</v>
+        <v>1468103901</v>
       </c>
       <c r="E28" s="0" t="n">
         <v>498</v>
@@ -638,7 +639,7 @@
         <v>0.041</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>0</v>
+        <v>1468103901</v>
       </c>
       <c r="E29" s="0" t="n">
         <v>501</v>
@@ -655,7 +656,7 @@
         <v>0.041</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>0</v>
+        <v>1468103902</v>
       </c>
       <c r="E30" s="0" t="n">
         <v>547</v>
@@ -672,7 +673,7 @@
         <v>0.035</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>0</v>
+        <v>1468103902</v>
       </c>
       <c r="E31" s="0" t="n">
         <v>450</v>
@@ -689,7 +690,7 @@
         <v>0.041</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>0</v>
+        <v>1468103903</v>
       </c>
       <c r="E32" s="0" t="n">
         <v>500</v>
@@ -706,7 +707,7 @@
         <v>0.041</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>0</v>
+        <v>1468103903</v>
       </c>
       <c r="E33" s="0" t="n">
         <v>518</v>
@@ -723,7 +724,7 @@
         <v>0.04</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>0</v>
+        <v>1468103904</v>
       </c>
       <c r="E34" s="0" t="n">
         <v>481</v>
@@ -740,7 +741,7 @@
         <v>0.041</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>0</v>
+        <v>1468103904</v>
       </c>
       <c r="E35" s="0" t="n">
         <v>539</v>
@@ -757,7 +758,7 @@
         <v>0.035</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>0</v>
+        <v>1468103905</v>
       </c>
       <c r="E36" s="0" t="n">
         <v>459</v>
@@ -774,7 +775,7 @@
         <v>0.041</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>0</v>
+        <v>1468103905</v>
       </c>
       <c r="E37" s="0" t="n">
         <v>500</v>
@@ -791,7 +792,7 @@
         <v>0.028</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>0</v>
+        <v>1468103906</v>
       </c>
       <c r="E38" s="0" t="n">
         <v>506</v>
@@ -808,7 +809,7 @@
         <v>0.022</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>0</v>
+        <v>1468103906</v>
       </c>
       <c r="E39" s="0" t="n">
         <v>492</v>
@@ -825,7 +826,7 @@
         <v>0.028</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>0</v>
+        <v>1468103907</v>
       </c>
       <c r="E40" s="0" t="n">
         <v>542</v>
@@ -842,7 +843,7 @@
         <v>0.021</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>0</v>
+        <v>1468103907</v>
       </c>
       <c r="E41" s="0" t="n">
         <v>454</v>
@@ -859,7 +860,7 @@
         <v>0.022</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>0</v>
+        <v>1468103908</v>
       </c>
       <c r="E42" s="0" t="n">
         <v>498</v>
@@ -876,7 +877,7 @@
         <v>0.016</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>0</v>
+        <v>1468103908</v>
       </c>
       <c r="E43" s="0" t="n">
         <v>503</v>
@@ -893,7 +894,7 @@
         <v>0.023</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>0</v>
+        <v>1468103909</v>
       </c>
       <c r="E44" s="0" t="n">
         <v>491</v>
@@ -910,7 +911,7 @@
         <v>0.016</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>0</v>
+        <v>1468103909</v>
       </c>
       <c r="E45" s="0" t="n">
         <v>549</v>
@@ -927,7 +928,7 @@
         <v>0.023</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>0</v>
+        <v>1468103910</v>
       </c>
       <c r="E46" s="0" t="n">
         <v>458</v>
@@ -944,7 +945,7 @@
         <v>0.017</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>0</v>
+        <v>1468103910</v>
       </c>
       <c r="E47" s="0" t="n">
         <v>500</v>
@@ -961,7 +962,7 @@
         <v>0.016</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>0</v>
+        <v>1468103911</v>
       </c>
       <c r="E48" s="0" t="n">
         <v>500</v>
@@ -978,7 +979,7 @@
         <v>0.016</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>0</v>
+        <v>1468103911</v>
       </c>
       <c r="E49" s="0" t="n">
         <v>499</v>
@@ -995,7 +996,7 @@
         <v>0.016</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>0</v>
+        <v>1468103912</v>
       </c>
       <c r="E50" s="0" t="n">
         <v>539</v>
@@ -1012,7 +1013,7 @@
         <v>0.023</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>0</v>
+        <v>1468103912</v>
       </c>
       <c r="E51" s="0" t="n">
         <v>459</v>
@@ -1029,7 +1030,7 @@
         <v>0.017</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>0</v>
+        <v>1468103913</v>
       </c>
       <c r="E52" s="0" t="n">
         <v>500</v>
@@ -1046,7 +1047,7 @@
         <v>0.016</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>0</v>
+        <v>1468103913</v>
       </c>
       <c r="E53" s="0" t="n">
         <v>491</v>
@@ -1063,7 +1064,7 @@
         <v>0.016</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>0</v>
+        <v>1468103914</v>
       </c>
       <c r="E54" s="0" t="n">
         <v>510</v>
@@ -1080,7 +1081,7 @@
         <v>0.016</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>0</v>
+        <v>1468103914</v>
       </c>
       <c r="E55" s="0" t="n">
         <v>539</v>
@@ -1097,7 +1098,7 @@
         <v>0.016</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>0</v>
+        <v>1468103915</v>
       </c>
       <c r="E56" s="0" t="n">
         <v>462</v>
@@ -1114,7 +1115,7 @@
         <v>0.009</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>0</v>
+        <v>1468103915</v>
       </c>
       <c r="E57" s="0" t="n">
         <v>486</v>
@@ -1131,7 +1132,7 @@
         <v>0.009</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>0</v>
+        <v>1468103916</v>
       </c>
       <c r="E58" s="0" t="n">
         <v>507</v>
@@ -1148,7 +1149,7 @@
         <v>0.016</v>
       </c>
       <c r="D59" s="0" t="n">
-        <v>0</v>
+        <v>1468103916</v>
       </c>
       <c r="E59" s="0" t="n">
         <v>501</v>
@@ -1165,7 +1166,7 @@
         <v>0.016</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>0</v>
+        <v>1468103917</v>
       </c>
       <c r="E60" s="0" t="n">
         <v>539</v>
@@ -1182,7 +1183,7 @@
         <v>0.016</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>0</v>
+        <v>1468103917</v>
       </c>
       <c r="E61" s="0" t="n">
         <v>457</v>
@@ -1199,7 +1200,7 @@
         <v>0.016</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>0</v>
+        <v>1468103918</v>
       </c>
       <c r="E62" s="0" t="n">
         <v>502</v>
@@ -1216,7 +1217,7 @@
         <v>0.016</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>0</v>
+        <v>1468103919</v>
       </c>
       <c r="E63" s="0" t="n">
         <v>499</v>
@@ -1233,7 +1234,7 @@
         <v>0.016</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>0</v>
+        <v>1468103919</v>
       </c>
       <c r="E64" s="0" t="n">
         <v>495</v>
@@ -1250,7 +1251,7 @@
         <v>0.016</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>0</v>
+        <v>1468103919</v>
       </c>
       <c r="E65" s="0" t="n">
         <v>546</v>
@@ -1267,7 +1268,7 @@
         <v>0.016</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>0</v>
+        <v>1468103920</v>
       </c>
       <c r="E66" s="0" t="n">
         <v>457</v>
@@ -1284,7 +1285,7 @@
         <v>0.016</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>0</v>
+        <v>1468103920</v>
       </c>
       <c r="E67" s="0" t="n">
         <v>500</v>
@@ -1301,7 +1302,7 @@
         <v>0.022</v>
       </c>
       <c r="D68" s="0" t="n">
-        <v>0</v>
+        <v>1468103921</v>
       </c>
       <c r="E68" s="0" t="n">
         <v>501</v>
@@ -1318,7 +1319,7 @@
         <v>0.029</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>0</v>
+        <v>1468103921</v>
       </c>
       <c r="E69" s="0" t="n">
         <v>496</v>
@@ -1335,7 +1336,7 @@
         <v>0.029</v>
       </c>
       <c r="D70" s="0" t="n">
-        <v>0</v>
+        <v>1468103922</v>
       </c>
       <c r="E70" s="0" t="n">
         <v>542</v>
@@ -1352,7 +1353,7 @@
         <v>0.025</v>
       </c>
       <c r="D71" s="0" t="n">
-        <v>0</v>
+        <v>1468103922</v>
       </c>
       <c r="E71" s="0" t="n">
         <v>458</v>
@@ -1369,7 +1370,7 @@
         <v>0.025</v>
       </c>
       <c r="D72" s="0" t="n">
-        <v>0</v>
+        <v>1468103923</v>
       </c>
       <c r="E72" s="0" t="n">
         <v>499</v>
@@ -1386,7 +1387,7 @@
         <v>0.029</v>
       </c>
       <c r="D73" s="0" t="n">
-        <v>0</v>
+        <v>1468103923</v>
       </c>
       <c r="E73" s="0" t="n">
         <v>498</v>
@@ -1403,7 +1404,7 @@
         <v>0.025</v>
       </c>
       <c r="D74" s="0" t="n">
-        <v>0</v>
+        <v>1468103924</v>
       </c>
       <c r="E74" s="0" t="n">
         <v>549</v>
@@ -1420,7 +1421,7 @@
         <v>0.029</v>
       </c>
       <c r="D75" s="0" t="n">
-        <v>0</v>
+        <v>1468103924</v>
       </c>
       <c r="E75" s="0" t="n">
         <v>463</v>
@@ -1437,7 +1438,7 @@
         <v>0.029</v>
       </c>
       <c r="D76" s="0" t="n">
-        <v>0</v>
+        <v>1468103925</v>
       </c>
       <c r="E76" s="0" t="n">
         <v>484</v>
@@ -1454,7 +1455,7 @@
         <v>0.037</v>
       </c>
       <c r="D77" s="0" t="n">
-        <v>0</v>
+        <v>1468103925</v>
       </c>
       <c r="E77" s="0" t="n">
         <v>503</v>
@@ -1471,7 +1472,7 @@
         <v>0.037</v>
       </c>
       <c r="D78" s="0" t="n">
-        <v>0</v>
+        <v>1468103926</v>
       </c>
       <c r="E78" s="0" t="n">
         <v>491</v>
@@ -1488,7 +1489,7 @@
         <v>0.029</v>
       </c>
       <c r="D79" s="0" t="n">
-        <v>0</v>
+        <v>1468103926</v>
       </c>
       <c r="E79" s="0" t="n">
         <v>508</v>
@@ -1505,7 +1506,7 @@
         <v>0.037</v>
       </c>
       <c r="D80" s="0" t="n">
-        <v>0</v>
+        <v>1468103927</v>
       </c>
       <c r="E80" s="0" t="n">
         <v>534</v>
@@ -1522,7 +1523,7 @@
         <v>0.029</v>
       </c>
       <c r="D81" s="0" t="n">
-        <v>0</v>
+        <v>1468103927</v>
       </c>
       <c r="E81" s="0" t="n">
         <v>465</v>
@@ -1539,7 +1540,7 @@
         <v>0.029</v>
       </c>
       <c r="D82" s="0" t="n">
-        <v>0</v>
+        <v>1468103928</v>
       </c>
       <c r="E82" s="0" t="n">
         <v>499</v>
@@ -1556,7 +1557,7 @@
         <v>0.029</v>
       </c>
       <c r="D83" s="0" t="n">
-        <v>0</v>
+        <v>1468103928</v>
       </c>
       <c r="E83" s="0" t="n">
         <v>496</v>
@@ -1573,7 +1574,7 @@
         <v>0.029</v>
       </c>
       <c r="D84" s="0" t="n">
-        <v>0</v>
+        <v>1468103929</v>
       </c>
       <c r="E84" s="0" t="n">
         <v>522</v>
@@ -1590,7 +1591,7 @@
         <v>0.029</v>
       </c>
       <c r="D85" s="0" t="n">
-        <v>0</v>
+        <v>1468103929</v>
       </c>
       <c r="E85" s="0" t="n">
         <v>523</v>
@@ -1607,7 +1608,7 @@
         <v>0.037</v>
       </c>
       <c r="D86" s="0" t="n">
-        <v>0</v>
+        <v>1468103930</v>
       </c>
       <c r="E86" s="0" t="n">
         <v>452</v>
@@ -1624,7 +1625,7 @@
         <v>0.037</v>
       </c>
       <c r="D87" s="0" t="n">
-        <v>0</v>
+        <v>1468103930</v>
       </c>
       <c r="E87" s="0" t="n">
         <v>505</v>
@@ -1641,7 +1642,7 @@
         <v>0.034</v>
       </c>
       <c r="D88" s="0" t="n">
-        <v>0</v>
+        <v>1468103931</v>
       </c>
       <c r="E88" s="0" t="n">
         <v>499</v>
@@ -1658,7 +1659,7 @@
         <v>0.034</v>
       </c>
       <c r="D89" s="0" t="n">
-        <v>0</v>
+        <v>1468103931</v>
       </c>
       <c r="E89" s="0" t="n">
         <v>500</v>
@@ -1675,7 +1676,7 @@
         <v>0.034</v>
       </c>
       <c r="D90" s="0" t="n">
-        <v>0</v>
+        <v>1468103932</v>
       </c>
       <c r="E90" s="0" t="n">
         <v>531</v>
@@ -1692,7 +1693,7 @@
         <v>0.037</v>
       </c>
       <c r="D91" s="0" t="n">
-        <v>0</v>
+        <v>1468103932</v>
       </c>
       <c r="E91" s="0" t="n">
         <v>467</v>
@@ -1709,7 +1710,7 @@
         <v>0.037</v>
       </c>
       <c r="D92" s="0" t="n">
-        <v>0</v>
+        <v>1468103933</v>
       </c>
       <c r="E92" s="0" t="n">
         <v>500</v>
@@ -1726,7 +1727,7 @@
         <v>0.034</v>
       </c>
       <c r="D93" s="0" t="n">
-        <v>0</v>
+        <v>1468103933</v>
       </c>
       <c r="E93" s="0" t="n">
         <v>496</v>
@@ -1743,7 +1744,7 @@
         <v>0.034</v>
       </c>
       <c r="D94" s="0" t="n">
-        <v>0</v>
+        <v>1468103934</v>
       </c>
       <c r="E94" s="0" t="n">
         <v>501</v>
@@ -1760,7 +1761,7 @@
         <v>0.034</v>
       </c>
       <c r="D95" s="0" t="n">
-        <v>0</v>
+        <v>1468103934</v>
       </c>
       <c r="E95" s="0" t="n">
         <v>538</v>
@@ -1777,7 +1778,7 @@
         <v>0.034</v>
       </c>
       <c r="D96" s="0" t="n">
-        <v>0</v>
+        <v>1468103935</v>
       </c>
       <c r="E96" s="0" t="n">
         <v>462</v>
@@ -1794,7 +1795,7 @@
         <v>0.037</v>
       </c>
       <c r="D97" s="0" t="n">
-        <v>0</v>
+        <v>1468103935</v>
       </c>
       <c r="E97" s="0" t="n">
         <v>495</v>
@@ -1811,7 +1812,7 @@
         <v>0.037</v>
       </c>
       <c r="D98" s="0" t="n">
-        <v>0</v>
+        <v>1468103936</v>
       </c>
       <c r="E98" s="0" t="n">
         <v>486</v>
@@ -1828,7 +1829,7 @@
         <v>0.037</v>
       </c>
       <c r="D99" s="0" t="n">
-        <v>0</v>
+        <v>1468103936</v>
       </c>
       <c r="E99" s="0" t="n">
         <v>500</v>
@@ -1845,7 +1846,7 @@
         <v>0.037</v>
       </c>
       <c r="D100" s="0" t="n">
-        <v>0</v>
+        <v>1468103937</v>
       </c>
       <c r="E100" s="0" t="n">
         <v>549</v>
@@ -1862,7 +1863,7 @@
         <v>0.037</v>
       </c>
       <c r="D101" s="0" t="n">
-        <v>0</v>
+        <v>1468103937</v>
       </c>
       <c r="E101" s="0" t="n">
         <v>453</v>
@@ -1879,7 +1880,7 @@
         <v>0.037</v>
       </c>
       <c r="D102" s="0" t="n">
-        <v>0</v>
+        <v>1468103938</v>
       </c>
       <c r="E102" s="0" t="n">
         <v>492</v>
@@ -1896,7 +1897,7 @@
         <v>0.037</v>
       </c>
       <c r="D103" s="0" t="n">
-        <v>0</v>
+        <v>1468103938</v>
       </c>
       <c r="E103" s="0" t="n">
         <v>499</v>
@@ -1913,7 +1914,7 @@
         <v>0.037</v>
       </c>
       <c r="D104" s="0" t="n">
-        <v>0</v>
+        <v>1468103939</v>
       </c>
       <c r="E104" s="0" t="n">
         <v>500</v>
@@ -1930,7 +1931,7 @@
         <v>0.035</v>
       </c>
       <c r="D105" s="0" t="n">
-        <v>0</v>
+        <v>1468103939</v>
       </c>
       <c r="E105" s="0" t="n">
         <v>571</v>
@@ -1947,7 +1948,7 @@
         <v>0.037</v>
       </c>
       <c r="D106" s="0" t="n">
-        <v>0</v>
+        <v>1468103940</v>
       </c>
       <c r="E106" s="0" t="n">
         <v>425</v>
@@ -1964,7 +1965,7 @@
         <v>0.035</v>
       </c>
       <c r="D107" s="0" t="n">
-        <v>0</v>
+        <v>1468103940</v>
       </c>
       <c r="E107" s="0" t="n">
         <v>503</v>
@@ -1981,7 +1982,7 @@
         <v>0.035</v>
       </c>
       <c r="D108" s="0" t="n">
-        <v>0</v>
+        <v>1468103941</v>
       </c>
       <c r="E108" s="0" t="n">
         <v>480</v>
@@ -1998,7 +1999,7 @@
         <v>0.035</v>
       </c>
       <c r="D109" s="0" t="n">
-        <v>0</v>
+        <v>1468103941</v>
       </c>
       <c r="E109" s="0" t="n">
         <v>495</v>
@@ -2015,7 +2016,7 @@
         <v>0.037</v>
       </c>
       <c r="D110" s="0" t="n">
-        <v>0</v>
+        <v>1468103942</v>
       </c>
       <c r="E110" s="0" t="n">
         <v>545</v>
@@ -2032,7 +2033,7 @@
         <v>0.035</v>
       </c>
       <c r="D111" s="0" t="n">
-        <v>0</v>
+        <v>1468103942</v>
       </c>
       <c r="E111" s="0" t="n">
         <v>455</v>
@@ -2049,7 +2050,7 @@
         <v>0.037</v>
       </c>
       <c r="D112" s="0" t="n">
-        <v>0</v>
+        <v>1468103943</v>
       </c>
       <c r="E112" s="0" t="n">
         <v>499</v>
@@ -2066,7 +2067,7 @@
         <v>0.035</v>
       </c>
       <c r="D113" s="0" t="n">
-        <v>0</v>
+        <v>1468103943</v>
       </c>
       <c r="E113" s="0" t="n">
         <v>500</v>
@@ -2083,7 +2084,7 @@
         <v>0.037</v>
       </c>
       <c r="D114" s="0" t="n">
-        <v>0</v>
+        <v>1468103944</v>
       </c>
       <c r="E114" s="0" t="n">
         <v>503</v>
@@ -2100,7 +2101,7 @@
         <v>0.037</v>
       </c>
       <c r="D115" s="0" t="n">
-        <v>0</v>
+        <v>1468103944</v>
       </c>
       <c r="E115" s="0" t="n">
         <v>554</v>
@@ -2117,7 +2118,7 @@
         <v>0.037</v>
       </c>
       <c r="D116" s="0" t="n">
-        <v>0</v>
+        <v>1468103945</v>
       </c>
       <c r="E116" s="0" t="n">
         <v>440</v>
@@ -2134,7 +2135,7 @@
         <v>0.037</v>
       </c>
       <c r="D117" s="0" t="n">
-        <v>0</v>
+        <v>1468103945</v>
       </c>
       <c r="E117" s="0" t="n">
         <v>482</v>
@@ -2151,7 +2152,7 @@
         <v>0.037</v>
       </c>
       <c r="D118" s="0" t="n">
-        <v>0</v>
+        <v>1468103946</v>
       </c>
       <c r="E118" s="0" t="n">
         <v>516</v>
@@ -2168,7 +2169,7 @@
         <v>0.037</v>
       </c>
       <c r="D119" s="0" t="n">
-        <v>0</v>
+        <v>1468103946</v>
       </c>
       <c r="E119" s="0" t="n">
         <v>507</v>
@@ -2185,7 +2186,7 @@
         <v>0.037</v>
       </c>
       <c r="D120" s="0" t="n">
-        <v>0</v>
+        <v>1468103947</v>
       </c>
       <c r="E120" s="0" t="n">
         <v>545</v>
@@ -2202,7 +2203,7 @@
         <v>0.037</v>
       </c>
       <c r="D121" s="0" t="n">
-        <v>0</v>
+        <v>1468103947</v>
       </c>
       <c r="E121" s="0" t="n">
         <v>446</v>
@@ -2219,7 +2220,7 @@
         <v>0.041</v>
       </c>
       <c r="D122" s="0" t="n">
-        <v>0</v>
+        <v>1468103948</v>
       </c>
       <c r="E122" s="0" t="n">
         <v>506</v>
@@ -2236,7 +2237,7 @@
         <v>0.041</v>
       </c>
       <c r="D123" s="0" t="n">
-        <v>0</v>
+        <v>1468103948</v>
       </c>
       <c r="E123" s="0" t="n">
         <v>492</v>
@@ -2253,7 +2254,7 @@
         <v>0.041</v>
       </c>
       <c r="D124" s="0" t="n">
-        <v>0</v>
+        <v>1468103949</v>
       </c>
       <c r="E124" s="0" t="n">
         <v>500</v>
@@ -2270,7 +2271,7 @@
         <v>0.041</v>
       </c>
       <c r="D125" s="0" t="n">
-        <v>0</v>
+        <v>1468103949</v>
       </c>
       <c r="E125" s="0" t="n">
         <v>539</v>
@@ -2287,7 +2288,7 @@
         <v>0.041</v>
       </c>
       <c r="D126" s="0" t="n">
-        <v>0</v>
+        <v>1468103950</v>
       </c>
       <c r="E126" s="0" t="n">
         <v>448</v>
@@ -2304,7 +2305,7 @@
         <v>0.041</v>
       </c>
       <c r="D127" s="0" t="n">
-        <v>0</v>
+        <v>1468103950</v>
       </c>
       <c r="E127" s="0" t="n">
         <v>503</v>
@@ -2321,7 +2322,7 @@
         <v>0.041</v>
       </c>
       <c r="D128" s="0" t="n">
-        <v>0</v>
+        <v>1468103951</v>
       </c>
       <c r="E128" s="0" t="n">
         <v>482</v>
@@ -2338,7 +2339,7 @@
         <v>0.041</v>
       </c>
       <c r="D129" s="0" t="n">
-        <v>0</v>
+        <v>1468103951</v>
       </c>
       <c r="E129" s="0" t="n">
         <v>518</v>
@@ -2355,7 +2356,7 @@
         <v>0.041</v>
       </c>
       <c r="D130" s="0" t="n">
-        <v>0</v>
+        <v>1468103952</v>
       </c>
       <c r="E130" s="0" t="n">
         <v>540</v>
@@ -2372,7 +2373,7 @@
         <v>0.041</v>
       </c>
       <c r="D131" s="0" t="n">
-        <v>0</v>
+        <v>1468103952</v>
       </c>
       <c r="E131" s="0" t="n">
         <v>459</v>
@@ -2389,7 +2390,7 @@
         <v>0.041</v>
       </c>
       <c r="D132" s="0" t="n">
-        <v>0</v>
+        <v>1468103953</v>
       </c>
       <c r="E132" s="0" t="n">
         <v>500</v>
@@ -2406,7 +2407,7 @@
         <v>0.041</v>
       </c>
       <c r="D133" s="0" t="n">
-        <v>0</v>
+        <v>1468103953</v>
       </c>
       <c r="E133" s="0" t="n">
         <v>500</v>
@@ -2423,7 +2424,7 @@
         <v>0.041</v>
       </c>
       <c r="D134" s="0" t="n">
-        <v>0</v>
+        <v>1468103954</v>
       </c>
       <c r="E134" s="0" t="n">
         <v>499</v>
@@ -2440,7 +2441,7 @@
         <v>0.041</v>
       </c>
       <c r="D135" s="0" t="n">
-        <v>0</v>
+        <v>1468103954</v>
       </c>
       <c r="E135" s="0" t="n">
         <v>545</v>
@@ -2457,7 +2458,7 @@
         <v>0.041</v>
       </c>
       <c r="D136" s="0" t="n">
-        <v>0</v>
+        <v>1468103955</v>
       </c>
       <c r="E136" s="0" t="n">
         <v>457</v>
@@ -2474,7 +2475,7 @@
         <v>0.041</v>
       </c>
       <c r="D137" s="0" t="n">
-        <v>0</v>
+        <v>1468103955</v>
       </c>
       <c r="E137" s="0" t="n">
         <v>500</v>
@@ -2491,7 +2492,7 @@
         <v>0.041</v>
       </c>
       <c r="D138" s="0" t="n">
-        <v>0</v>
+        <v>1468103956</v>
       </c>
       <c r="E138" s="0" t="n">
         <v>494</v>
@@ -2508,7 +2509,7 @@
         <v>0.041</v>
       </c>
       <c r="D139" s="0" t="n">
-        <v>0</v>
+        <v>1468103956</v>
       </c>
       <c r="E139" s="0" t="n">
         <v>500</v>
@@ -2525,7 +2526,7 @@
         <v>0.041</v>
       </c>
       <c r="D140" s="0" t="n">
-        <v>0</v>
+        <v>1468103957</v>
       </c>
       <c r="E140" s="0" t="n">
         <v>520</v>
@@ -2542,7 +2543,7 @@
         <v>0.041</v>
       </c>
       <c r="D141" s="0" t="n">
-        <v>0</v>
+        <v>1468103957</v>
       </c>
       <c r="E141" s="0" t="n">
         <v>478</v>
@@ -2559,7 +2560,7 @@
         <v>0.041</v>
       </c>
       <c r="D142" s="0" t="n">
-        <v>0</v>
+        <v>1468103958</v>
       </c>
       <c r="E142" s="0" t="n">
         <v>499</v>
@@ -2576,7 +2577,7 @@
         <v>0.041</v>
       </c>
       <c r="D143" s="0" t="n">
-        <v>0</v>
+        <v>1468103958</v>
       </c>
       <c r="E143" s="0" t="n">
         <v>482</v>
@@ -2593,7 +2594,7 @@
         <v>0.041</v>
       </c>
       <c r="D144" s="0" t="n">
-        <v>0</v>
+        <v>1468103959</v>
       </c>
       <c r="E144" s="0" t="n">
         <v>517</v>
@@ -2610,7 +2611,7 @@
         <v>0.041</v>
       </c>
       <c r="D145" s="0" t="n">
-        <v>0</v>
+        <v>1468103959</v>
       </c>
       <c r="E145" s="0" t="n">
         <v>538</v>
@@ -2627,7 +2628,7 @@
         <v>0.041</v>
       </c>
       <c r="D146" s="0" t="n">
-        <v>0</v>
+        <v>1468103960</v>
       </c>
       <c r="E146" s="0" t="n">
         <v>472</v>
@@ -2644,7 +2645,7 @@
         <v>0.041</v>
       </c>
       <c r="D147" s="0" t="n">
-        <v>0</v>
+        <v>1468103960</v>
       </c>
       <c r="E147" s="0" t="n">
         <v>489</v>
@@ -2661,7 +2662,7 @@
         <v>0.041</v>
       </c>
       <c r="D148" s="0" t="n">
-        <v>0</v>
+        <v>1468103961</v>
       </c>
       <c r="E148" s="0" t="n">
         <v>502</v>
@@ -2678,7 +2679,7 @@
         <v>0.041</v>
       </c>
       <c r="D149" s="0" t="n">
-        <v>0</v>
+        <v>1468103961</v>
       </c>
       <c r="E149" s="0" t="n">
         <v>493</v>
@@ -2695,7 +2696,7 @@
         <v>0.041</v>
       </c>
       <c r="D150" s="0" t="n">
-        <v>0</v>
+        <v>1468103962</v>
       </c>
       <c r="E150" s="0" t="n">
         <v>530</v>
@@ -2712,7 +2713,7 @@
         <v>0.041</v>
       </c>
       <c r="D151" s="0" t="n">
-        <v>0</v>
+        <v>1468103962</v>
       </c>
       <c r="E151" s="0" t="n">
         <v>470</v>
@@ -2729,7 +2730,7 @@
         <v>0.041</v>
       </c>
       <c r="D152" s="0" t="n">
-        <v>0</v>
+        <v>1468103963</v>
       </c>
       <c r="E152" s="0" t="n">
         <v>500</v>
@@ -2746,7 +2747,7 @@
         <v>0.041</v>
       </c>
       <c r="D153" s="0" t="n">
-        <v>0</v>
+        <v>1468103963</v>
       </c>
       <c r="E153" s="0" t="n">
         <v>483</v>
@@ -2763,7 +2764,7 @@
         <v>0.041</v>
       </c>
       <c r="D154" s="0" t="n">
-        <v>0</v>
+        <v>1468103964</v>
       </c>
       <c r="E154" s="0" t="n">
         <v>517</v>
@@ -2780,7 +2781,7 @@
         <v>0.041</v>
       </c>
       <c r="D155" s="0" t="n">
-        <v>0</v>
+        <v>1468103964</v>
       </c>
       <c r="E155" s="0" t="n">
         <v>558</v>
@@ -2797,7 +2798,7 @@
         <v>0.041</v>
       </c>
       <c r="D156" s="0" t="n">
-        <v>0</v>
+        <v>1468103965</v>
       </c>
       <c r="E156" s="0" t="n">
         <v>440</v>
@@ -2814,7 +2815,7 @@
         <v>0.041</v>
       </c>
       <c r="D157" s="0" t="n">
-        <v>0</v>
+        <v>1468103965</v>
       </c>
       <c r="E157" s="0" t="n">
         <v>491</v>
@@ -2831,7 +2832,7 @@
         <v>0.041</v>
       </c>
       <c r="D158" s="0" t="n">
-        <v>0</v>
+        <v>1468103966</v>
       </c>
       <c r="E158" s="0" t="n">
         <v>503</v>
@@ -2848,7 +2849,7 @@
         <v>0.041</v>
       </c>
       <c r="D159" s="0" t="n">
-        <v>0</v>
+        <v>1468103966</v>
       </c>
       <c r="E159" s="0" t="n">
         <v>495</v>
@@ -2865,7 +2866,7 @@
         <v>0.041</v>
       </c>
       <c r="D160" s="0" t="n">
-        <v>0</v>
+        <v>1468103967</v>
       </c>
       <c r="E160" s="0" t="n">
         <v>552</v>
@@ -2882,7 +2883,7 @@
         <v>0.041</v>
       </c>
       <c r="D161" s="0" t="n">
-        <v>0</v>
+        <v>1468103967</v>
       </c>
       <c r="E161" s="0" t="n">
         <v>449</v>
@@ -2899,7 +2900,7 @@
         <v>0.041</v>
       </c>
       <c r="D162" s="0" t="n">
-        <v>0</v>
+        <v>1468103968</v>
       </c>
       <c r="E162" s="0" t="n">
         <v>505</v>
@@ -2916,7 +2917,7 @@
         <v>0.041</v>
       </c>
       <c r="D163" s="0" t="n">
-        <v>0</v>
+        <v>1468103968</v>
       </c>
       <c r="E163" s="0" t="n">
         <v>485</v>
@@ -2933,7 +2934,7 @@
         <v>0.041</v>
       </c>
       <c r="D164" s="0" t="n">
-        <v>0</v>
+        <v>1468103969</v>
       </c>
       <c r="E164" s="0" t="n">
         <v>518</v>
@@ -2950,7 +2951,7 @@
         <v>0.041</v>
       </c>
       <c r="D165" s="0" t="n">
-        <v>0</v>
+        <v>1468103969</v>
       </c>
       <c r="E165" s="0" t="n">
         <v>540</v>
@@ -2967,7 +2968,7 @@
         <v>0.037</v>
       </c>
       <c r="D166" s="0" t="n">
-        <v>0</v>
+        <v>1468103970</v>
       </c>
       <c r="E166" s="0" t="n">
         <v>458</v>
@@ -2984,7 +2985,7 @@
         <v>0.037</v>
       </c>
       <c r="D167" s="0" t="n">
-        <v>0</v>
+        <v>1468103970</v>
       </c>
       <c r="E167" s="0" t="n">
         <v>483</v>
@@ -3001,7 +3002,7 @@
         <v>0.029</v>
       </c>
       <c r="D168" s="0" t="n">
-        <v>0</v>
+        <v>1468103971</v>
       </c>
       <c r="E168" s="0" t="n">
         <v>518</v>
@@ -3018,7 +3019,7 @@
         <v>0.029</v>
       </c>
       <c r="D169" s="0" t="n">
-        <v>0</v>
+        <v>1468103971</v>
       </c>
       <c r="E169" s="0" t="n">
         <v>489</v>
@@ -3035,7 +3036,7 @@
         <v>0.033</v>
       </c>
       <c r="D170" s="0" t="n">
-        <v>0</v>
+        <v>1468103972</v>
       </c>
       <c r="E170" s="0" t="n">
         <v>539</v>
@@ -3052,7 +3053,7 @@
         <v>0.033</v>
       </c>
       <c r="D171" s="0" t="n">
-        <v>0</v>
+        <v>1468103972</v>
       </c>
       <c r="E171" s="0" t="n">
         <v>451</v>
@@ -3069,7 +3070,7 @@
         <v>0.033</v>
       </c>
       <c r="D172" s="0" t="n">
-        <v>0</v>
+        <v>1468103973</v>
       </c>
       <c r="E172" s="0" t="n">
         <v>507</v>
@@ -3086,7 +3087,7 @@
         <v>0.033</v>
       </c>
       <c r="D173" s="0" t="n">
-        <v>0</v>
+        <v>1468103973</v>
       </c>
       <c r="E173" s="0" t="n">
         <v>501</v>
@@ -3103,7 +3104,7 @@
         <v>0.029</v>
       </c>
       <c r="D174" s="0" t="n">
-        <v>0</v>
+        <v>1468103974</v>
       </c>
       <c r="E174" s="0" t="n">
         <v>498</v>
@@ -3120,7 +3121,7 @@
         <v>0.029</v>
       </c>
       <c r="D175" s="0" t="n">
-        <v>0</v>
+        <v>1468103974</v>
       </c>
       <c r="E175" s="0" t="n">
         <v>520</v>
@@ -3137,7 +3138,7 @@
         <v>0.029</v>
       </c>
       <c r="D176" s="0" t="n">
-        <v>0</v>
+        <v>1468103975</v>
       </c>
       <c r="E176" s="0" t="n">
         <v>488</v>
@@ -3154,7 +3155,7 @@
         <v>0.029</v>
       </c>
       <c r="D177" s="0" t="n">
-        <v>0</v>
+        <v>1468103975</v>
       </c>
       <c r="E177" s="0" t="n">
         <v>496</v>
@@ -3171,7 +3172,7 @@
         <v>0.029</v>
       </c>
       <c r="D178" s="0" t="n">
-        <v>0</v>
+        <v>1468103976</v>
       </c>
       <c r="E178" s="0" t="n">
         <v>493</v>
@@ -3188,7 +3189,7 @@
         <v>0.029</v>
       </c>
       <c r="D179" s="0" t="n">
-        <v>0</v>
+        <v>1468103976</v>
       </c>
       <c r="E179" s="0" t="n">
         <v>506</v>
@@ -3205,7 +3206,7 @@
         <v>0.029</v>
       </c>
       <c r="D180" s="0" t="n">
-        <v>0</v>
+        <v>1468103977</v>
       </c>
       <c r="E180" s="0" t="n">
         <v>524</v>
@@ -3222,7 +3223,7 @@
         <v>0.026</v>
       </c>
       <c r="D181" s="0" t="n">
-        <v>0</v>
+        <v>1468103977</v>
       </c>
       <c r="E181" s="0" t="n">
         <v>469</v>
@@ -3239,7 +3240,7 @@
         <v>0.029</v>
       </c>
       <c r="D182" s="0" t="n">
-        <v>0</v>
+        <v>1468103978</v>
       </c>
       <c r="E182" s="0" t="n">
         <v>507</v>
@@ -3256,7 +3257,7 @@
         <v>0.021</v>
       </c>
       <c r="D183" s="0" t="n">
-        <v>0</v>
+        <v>1468103978</v>
       </c>
       <c r="E183" s="0" t="n">
         <v>492</v>
@@ -3273,7 +3274,7 @@
         <v>0.021</v>
       </c>
       <c r="D184" s="0" t="n">
-        <v>0</v>
+        <v>1468103979</v>
       </c>
       <c r="E184" s="0" t="n">
         <v>490</v>
@@ -3290,7 +3291,7 @@
         <v>0.021</v>
       </c>
       <c r="D185" s="0" t="n">
-        <v>0</v>
+        <v>1468103979</v>
       </c>
       <c r="E185" s="0" t="n">
         <v>527</v>
@@ -3307,7 +3308,7 @@
         <v>0.021</v>
       </c>
       <c r="D186" s="0" t="n">
-        <v>0</v>
+        <v>1468103980</v>
       </c>
       <c r="E186" s="0" t="n">
         <v>478</v>
@@ -3324,7 +3325,7 @@
         <v>0.017</v>
       </c>
       <c r="D187" s="0" t="n">
-        <v>0</v>
+        <v>1468103980</v>
       </c>
       <c r="E187" s="0" t="n">
         <v>511</v>
@@ -3341,7 +3342,7 @@
         <v>0.017</v>
       </c>
       <c r="D188" s="0" t="n">
-        <v>0</v>
+        <v>1468103981</v>
       </c>
       <c r="E188" s="0" t="n">
         <v>489</v>
@@ -3358,7 +3359,7 @@
         <v>0.017</v>
       </c>
       <c r="D189" s="0" t="n">
-        <v>0</v>
+        <v>1468103981</v>
       </c>
       <c r="E189" s="0" t="n">
         <v>499</v>
@@ -3375,7 +3376,7 @@
         <v>0.017</v>
       </c>
       <c r="D190" s="0" t="n">
-        <v>0</v>
+        <v>1468103982</v>
       </c>
       <c r="E190" s="0" t="n">
         <v>540</v>
@@ -3392,7 +3393,7 @@
         <v>0.017</v>
       </c>
       <c r="D191" s="0" t="n">
-        <v>0</v>
+        <v>1468103982</v>
       </c>
       <c r="E191" s="0" t="n">
         <v>460</v>
@@ -3409,7 +3410,7 @@
         <v>0.017</v>
       </c>
       <c r="D192" s="0" t="n">
-        <v>0</v>
+        <v>1468103983</v>
       </c>
       <c r="E192" s="0" t="n">
         <v>510</v>
@@ -3426,7 +3427,7 @@
         <v>0.017</v>
       </c>
       <c r="D193" s="0" t="n">
-        <v>0</v>
+        <v>1468103983</v>
       </c>
       <c r="E193" s="0" t="n">
         <v>487</v>
@@ -3443,7 +3444,7 @@
         <v>0.017</v>
       </c>
       <c r="D194" s="0" t="n">
-        <v>0</v>
+        <v>1468103984</v>
       </c>
       <c r="E194" s="0" t="n">
         <v>482</v>
@@ -3460,7 +3461,7 @@
         <v>0.021</v>
       </c>
       <c r="D195" s="0" t="n">
-        <v>0</v>
+        <v>1468103984</v>
       </c>
       <c r="E195" s="0" t="n">
         <v>554</v>
@@ -3477,7 +3478,7 @@
         <v>0.021</v>
       </c>
       <c r="D196" s="0" t="n">
-        <v>0</v>
+        <v>1468103985</v>
       </c>
       <c r="E196" s="0" t="n">
         <v>462</v>
@@ -3494,7 +3495,7 @@
         <v>0.021</v>
       </c>
       <c r="D197" s="0" t="n">
-        <v>0</v>
+        <v>1468103985</v>
       </c>
       <c r="E197" s="0" t="n">
         <v>516</v>
@@ -3511,7 +3512,7 @@
         <v>0.013</v>
       </c>
       <c r="D198" s="0" t="n">
-        <v>0</v>
+        <v>1468103986</v>
       </c>
       <c r="E198" s="0" t="n">
         <v>480</v>
@@ -3528,7 +3529,7 @@
         <v>0.013</v>
       </c>
       <c r="D199" s="0" t="n">
-        <v>0</v>
+        <v>1468103986</v>
       </c>
       <c r="E199" s="0" t="n">
         <v>507</v>
@@ -3545,7 +3546,7 @@
         <v>0.013</v>
       </c>
       <c r="D200" s="0" t="n">
-        <v>0</v>
+        <v>1468103987</v>
       </c>
       <c r="E200" s="0" t="n">
         <v>534</v>
@@ -3562,7 +3563,7 @@
         <v>0.013</v>
       </c>
       <c r="D201" s="0" t="n">
-        <v>0</v>
+        <v>1468103987</v>
       </c>
       <c r="E201" s="0" t="n">
         <v>456</v>
@@ -3579,7 +3580,7 @@
         <v>0.009</v>
       </c>
       <c r="D202" s="0" t="n">
-        <v>0</v>
+        <v>1468103988</v>
       </c>
       <c r="E202" s="0" t="n">
         <v>499</v>
@@ -3596,7 +3597,7 @@
         <v>0.009</v>
       </c>
       <c r="D203" s="0" t="n">
-        <v>0</v>
+        <v>1468103988</v>
       </c>
       <c r="E203" s="0" t="n">
         <v>499</v>
@@ -3613,7 +3614,7 @@
         <v>0.009</v>
       </c>
       <c r="D204" s="0" t="n">
-        <v>0</v>
+        <v>1468103989</v>
       </c>
       <c r="E204" s="0" t="n">
         <v>500</v>
@@ -3630,7 +3631,7 @@
         <v>0.009</v>
       </c>
       <c r="D205" s="0" t="n">
-        <v>0</v>
+        <v>1468103989</v>
       </c>
       <c r="E205" s="0" t="n">
         <v>544</v>
@@ -3647,7 +3648,7 @@
         <v>0.009</v>
       </c>
       <c r="D206" s="0" t="n">
-        <v>0</v>
+        <v>1468103990</v>
       </c>
       <c r="E206" s="0" t="n">
         <v>465</v>
@@ -3664,7 +3665,7 @@
         <v>0.009</v>
       </c>
       <c r="D207" s="0" t="n">
-        <v>0</v>
+        <v>1468103990</v>
       </c>
       <c r="E207" s="0" t="n">
         <v>497</v>
@@ -3681,7 +3682,7 @@
         <v>0.009</v>
       </c>
       <c r="D208" s="0" t="n">
-        <v>0</v>
+        <v>1468103991</v>
       </c>
       <c r="E208" s="0" t="n">
         <v>498</v>
@@ -3698,7 +3699,7 @@
         <v>0.009</v>
       </c>
       <c r="D209" s="0" t="n">
-        <v>0</v>
+        <v>1468103991</v>
       </c>
       <c r="E209" s="0" t="n">
         <v>493</v>
@@ -3715,7 +3716,7 @@
         <v>0.009</v>
       </c>
       <c r="D210" s="0" t="n">
-        <v>0</v>
+        <v>1468103992</v>
       </c>
       <c r="E210" s="0" t="n">
         <v>541</v>
@@ -3732,7 +3733,7 @@
         <v>0.009</v>
       </c>
       <c r="D211" s="0" t="n">
-        <v>0</v>
+        <v>1468103992</v>
       </c>
       <c r="E211" s="0" t="n">
         <v>456</v>
@@ -3749,7 +3750,7 @@
         <v>0.009</v>
       </c>
       <c r="D212" s="0" t="n">
-        <v>0</v>
+        <v>1468103993</v>
       </c>
       <c r="E212" s="0" t="n">
         <v>499</v>
@@ -3766,7 +3767,7 @@
         <v>0.009</v>
       </c>
       <c r="D213" s="0" t="n">
-        <v>0</v>
+        <v>1468103993</v>
       </c>
       <c r="E213" s="0" t="n">
         <v>500</v>
@@ -3783,7 +3784,7 @@
         <v>0.009</v>
       </c>
       <c r="D214" s="0" t="n">
-        <v>0</v>
+        <v>1468103994</v>
       </c>
       <c r="E214" s="0" t="n">
         <v>506</v>
@@ -3800,7 +3801,7 @@
         <v>0.009</v>
       </c>
       <c r="D215" s="0" t="n">
-        <v>0</v>
+        <v>1468103994</v>
       </c>
       <c r="E215" s="0" t="n">
         <v>534</v>
@@ -3817,7 +3818,7 @@
         <v>0.011</v>
       </c>
       <c r="D216" s="0" t="n">
-        <v>0</v>
+        <v>1468103995</v>
       </c>
       <c r="E216" s="0" t="n">
         <v>469</v>
@@ -3834,7 +3835,7 @@
         <v>0.011</v>
       </c>
       <c r="D217" s="0" t="n">
-        <v>0</v>
+        <v>1468103995</v>
       </c>
       <c r="E217" s="0" t="n">
         <v>488</v>
@@ -3851,7 +3852,7 @@
         <v>0.011</v>
       </c>
       <c r="D218" s="0" t="n">
-        <v>0</v>
+        <v>1468103996</v>
       </c>
       <c r="E218" s="0" t="n">
         <v>502</v>
@@ -3868,7 +3869,7 @@
         <v>0.011</v>
       </c>
       <c r="D219" s="0" t="n">
-        <v>0</v>
+        <v>1468103996</v>
       </c>
       <c r="E219" s="0" t="n">
         <v>501</v>
@@ -3885,7 +3886,7 @@
         <v>0.006</v>
       </c>
       <c r="D220" s="0" t="n">
-        <v>0</v>
+        <v>1468103997</v>
       </c>
       <c r="E220" s="0" t="n">
         <v>514</v>
@@ -3902,7 +3903,7 @@
         <v>0.006</v>
       </c>
       <c r="D221" s="0" t="n">
-        <v>0</v>
+        <v>1468103997</v>
       </c>
       <c r="E221" s="0" t="n">
         <v>479</v>
@@ -3919,7 +3920,7 @@
         <v>0.006</v>
       </c>
       <c r="D222" s="0" t="n">
-        <v>0</v>
+        <v>1468103998</v>
       </c>
       <c r="E222" s="0" t="n">
         <v>500</v>
@@ -3936,7 +3937,7 @@
         <v>0.006</v>
       </c>
       <c r="D223" s="0" t="n">
-        <v>0</v>
+        <v>1468103998</v>
       </c>
       <c r="E223" s="0" t="n">
         <v>491</v>
@@ -3953,7 +3954,7 @@
         <v>0.006</v>
       </c>
       <c r="D224" s="0" t="n">
-        <v>0</v>
+        <v>1468103999</v>
       </c>
       <c r="E224" s="0" t="n">
         <v>512</v>
@@ -3970,7 +3971,7 @@
         <v>0.006</v>
       </c>
       <c r="D225" s="0" t="n">
-        <v>0</v>
+        <v>1468103999</v>
       </c>
       <c r="E225" s="0" t="n">
         <v>539</v>
@@ -3987,7 +3988,7 @@
         <v>0.006</v>
       </c>
       <c r="D226" s="0" t="n">
-        <v>0</v>
+        <v>1468104000</v>
       </c>
       <c r="E226" s="0" t="n">
         <v>463</v>
@@ -4004,7 +4005,7 @@
         <v>0.006</v>
       </c>
       <c r="D227" s="0" t="n">
-        <v>0</v>
+        <v>1468104000</v>
       </c>
       <c r="E227" s="0" t="n">
         <v>491</v>
@@ -4021,7 +4022,7 @@
         <v>0.006</v>
       </c>
       <c r="D228" s="0" t="n">
-        <v>0</v>
+        <v>1468104001</v>
       </c>
       <c r="E228" s="0" t="n">
         <v>519</v>
@@ -4038,7 +4039,7 @@
         <v>0.008</v>
       </c>
       <c r="D229" s="0" t="n">
-        <v>0</v>
+        <v>1468104001</v>
       </c>
       <c r="E229" s="0" t="n">
         <v>480</v>
@@ -4055,7 +4056,7 @@
         <v>0.008</v>
       </c>
       <c r="D230" s="0" t="n">
-        <v>0</v>
+        <v>1468104002</v>
       </c>
       <c r="E230" s="0" t="n">
         <v>531</v>
@@ -4072,7 +4073,7 @@
         <v>0.008</v>
       </c>
       <c r="D231" s="0" t="n">
-        <v>0</v>
+        <v>1468104002</v>
       </c>
       <c r="E231" s="0" t="n">
         <v>479</v>
@@ -4089,7 +4090,7 @@
         <v>0.008</v>
       </c>
       <c r="D232" s="0" t="n">
-        <v>0</v>
+        <v>1468104003</v>
       </c>
       <c r="E232" s="0" t="n">
         <v>488</v>
@@ -4106,7 +4107,7 @@
         <v>0.008</v>
       </c>
       <c r="D233" s="0" t="n">
-        <v>0</v>
+        <v>1468104003</v>
       </c>
       <c r="E233" s="0" t="n">
         <v>506</v>
@@ -4123,7 +4124,7 @@
         <v>0.008</v>
       </c>
       <c r="D234" s="0" t="n">
-        <v>0</v>
+        <v>1468104004</v>
       </c>
       <c r="E234" s="0" t="n">
         <v>490</v>
@@ -4140,7 +4141,7 @@
         <v>0.012</v>
       </c>
       <c r="D235" s="0" t="n">
-        <v>0</v>
+        <v>1468104004</v>
       </c>
       <c r="E235" s="0" t="n">
         <v>522</v>
@@ -4157,7 +4158,7 @@
         <v>0.012</v>
       </c>
       <c r="D236" s="0" t="n">
-        <v>0</v>
+        <v>1468104005</v>
       </c>
       <c r="E236" s="0" t="n">
         <v>475</v>
@@ -4174,7 +4175,7 @@
         <v>0.012</v>
       </c>
       <c r="D237" s="0" t="n">
-        <v>0</v>
+        <v>1468104005</v>
       </c>
       <c r="E237" s="0" t="n">
         <v>502</v>
@@ -4191,7 +4192,7 @@
         <v>0.012</v>
       </c>
       <c r="D238" s="0" t="n">
-        <v>0</v>
+        <v>1468104006</v>
       </c>
       <c r="E238" s="0" t="n">
         <v>501</v>
@@ -4208,7 +4209,7 @@
         <v>0.012</v>
       </c>
       <c r="D239" s="0" t="n">
-        <v>0</v>
+        <v>1468104006</v>
       </c>
       <c r="E239" s="0" t="n">
         <v>503</v>
@@ -4225,7 +4226,7 @@
         <v>0.012</v>
       </c>
       <c r="D240" s="0" t="n">
-        <v>0</v>
+        <v>1468104007</v>
       </c>
       <c r="E240" s="0" t="n">
         <v>514</v>
@@ -4242,7 +4243,7 @@
         <v>0.012</v>
       </c>
       <c r="D241" s="0" t="n">
-        <v>0</v>
+        <v>1468104007</v>
       </c>
       <c r="E241" s="0" t="n">
         <v>486</v>
@@ -4259,7 +4260,7 @@
         <v>0.012</v>
       </c>
       <c r="D242" s="0" t="n">
-        <v>0</v>
+        <v>1468104008</v>
       </c>
       <c r="E242" s="0" t="n">
         <v>502</v>
@@ -4276,7 +4277,7 @@
         <v>0.012</v>
       </c>
       <c r="D243" s="0" t="n">
-        <v>0</v>
+        <v>1468104008</v>
       </c>
       <c r="E243" s="0" t="n">
         <v>490</v>
@@ -4293,7 +4294,7 @@
         <v>0.018</v>
       </c>
       <c r="D244" s="0" t="n">
-        <v>0</v>
+        <v>1468104009</v>
       </c>
       <c r="E244" s="0" t="n">
         <v>498</v>
@@ -4310,7 +4311,7 @@
         <v>0.012</v>
       </c>
       <c r="D245" s="0" t="n">
-        <v>0</v>
+        <v>1468104009</v>
       </c>
       <c r="E245" s="0" t="n">
         <v>550</v>
@@ -4327,7 +4328,7 @@
         <v>0.012</v>
       </c>
       <c r="D246" s="0" t="n">
-        <v>0</v>
+        <v>1468104010</v>
       </c>
       <c r="E246" s="0" t="n">
         <v>440</v>
@@ -4344,7 +4345,7 @@
         <v>0.012</v>
       </c>
       <c r="D247" s="0" t="n">
-        <v>0</v>
+        <v>1468104010</v>
       </c>
       <c r="E247" s="0" t="n">
         <v>519</v>
@@ -4361,7 +4362,7 @@
         <v>0.012</v>
       </c>
       <c r="D248" s="0" t="n">
-        <v>0</v>
+        <v>1468104011</v>
       </c>
       <c r="E248" s="0" t="n">
         <v>493</v>
@@ -4378,7 +4379,7 @@
         <v>0.012</v>
       </c>
       <c r="D249" s="0" t="n">
-        <v>0</v>
+        <v>1468104011</v>
       </c>
       <c r="E249" s="0" t="n">
         <v>494</v>
@@ -4395,7 +4396,7 @@
         <v>0.012</v>
       </c>
       <c r="D250" s="0" t="n">
-        <v>0</v>
+        <v>1468104012</v>
       </c>
       <c r="E250" s="0" t="n">
         <v>501</v>
@@ -4412,7 +4413,7 @@
         <v>0.018</v>
       </c>
       <c r="D251" s="0" t="n">
-        <v>0</v>
+        <v>1468104012</v>
       </c>
       <c r="E251" s="0" t="n">
         <v>490</v>
@@ -4429,7 +4430,7 @@
         <v>0.018</v>
       </c>
       <c r="D252" s="0" t="n">
-        <v>0</v>
+        <v>1468104013</v>
       </c>
       <c r="E252" s="0" t="n">
         <v>508</v>
@@ -4446,7 +4447,7 @@
         <v>0.018</v>
       </c>
       <c r="D253" s="0" t="n">
-        <v>0</v>
+        <v>1468104013</v>
       </c>
       <c r="E253" s="0" t="n">
         <v>499</v>
@@ -4463,7 +4464,7 @@
         <v>0.018</v>
       </c>
       <c r="D254" s="0" t="n">
-        <v>0</v>
+        <v>1468104014</v>
       </c>
       <c r="E254" s="0" t="n">
         <v>500</v>
@@ -4480,7 +4481,7 @@
         <v>0.018</v>
       </c>
       <c r="D255" s="0" t="n">
-        <v>0</v>
+        <v>1468104014</v>
       </c>
       <c r="E255" s="0" t="n">
         <v>491</v>
@@ -4497,7 +4498,7 @@
         <v>0.018</v>
       </c>
       <c r="D256" s="0" t="n">
-        <v>0</v>
+        <v>1468104015</v>
       </c>
       <c r="E256" s="0" t="n">
         <v>516</v>
@@ -4514,7 +4515,7 @@
         <v>0.012</v>
       </c>
       <c r="D257" s="0" t="n">
-        <v>0</v>
+        <v>1468104015</v>
       </c>
       <c r="E257" s="0" t="n">
         <v>500</v>
@@ -4531,7 +4532,7 @@
         <v>0.012</v>
       </c>
       <c r="D258" s="0" t="n">
-        <v>0</v>
+        <v>1468104016</v>
       </c>
       <c r="E258" s="0" t="n">
         <v>498</v>
@@ -4548,7 +4549,7 @@
         <v>0.012</v>
       </c>
       <c r="D259" s="0" t="n">
-        <v>0</v>
+        <v>1468104016</v>
       </c>
       <c r="E259" s="0" t="n">
         <v>553</v>
@@ -4565,7 +4566,7 @@
         <v>0.012</v>
       </c>
       <c r="D260" s="0" t="n">
-        <v>0</v>
+        <v>1468104017</v>
       </c>
       <c r="E260" s="0" t="n">
         <v>468</v>
@@ -4582,7 +4583,7 @@
         <v>0.012</v>
       </c>
       <c r="D261" s="0" t="n">
-        <v>0</v>
+        <v>1468104017</v>
       </c>
       <c r="E261" s="0" t="n">
         <v>461</v>
@@ -4599,7 +4600,7 @@
         <v>0.017</v>
       </c>
       <c r="D262" s="0" t="n">
-        <v>0</v>
+        <v>1468104018</v>
       </c>
       <c r="E262" s="0" t="n">
         <v>514</v>
@@ -4616,7 +4617,7 @@
         <v>0.017</v>
       </c>
       <c r="D263" s="0" t="n">
-        <v>0</v>
+        <v>1468104018</v>
       </c>
       <c r="E263" s="0" t="n">
         <v>493</v>
@@ -4633,7 +4634,7 @@
         <v>0.012</v>
       </c>
       <c r="D264" s="0" t="n">
-        <v>0</v>
+        <v>1468104019</v>
       </c>
       <c r="E264" s="0" t="n">
         <v>498</v>
@@ -4650,7 +4651,7 @@
         <v>0.012</v>
       </c>
       <c r="D265" s="0" t="n">
-        <v>0</v>
+        <v>1468104019</v>
       </c>
       <c r="E265" s="0" t="n">
         <v>548</v>
@@ -4667,7 +4668,7 @@
         <v>0.012</v>
       </c>
       <c r="D266" s="0" t="n">
-        <v>0</v>
+        <v>1468104020</v>
       </c>
       <c r="E266" s="0" t="n">
         <v>460</v>
@@ -4684,7 +4685,7 @@
         <v>0.012</v>
       </c>
       <c r="D267" s="0" t="n">
-        <v>0</v>
+        <v>1468104020</v>
       </c>
       <c r="E267" s="0" t="n">
         <v>502</v>
@@ -4701,7 +4702,7 @@
         <v>0.012</v>
       </c>
       <c r="D268" s="0" t="n">
-        <v>0</v>
+        <v>1468104021</v>
       </c>
       <c r="E268" s="0" t="n">
         <v>495</v>
@@ -4718,7 +4719,7 @@
         <v>0.012</v>
       </c>
       <c r="D269" s="0" t="n">
-        <v>0</v>
+        <v>1468104021</v>
       </c>
       <c r="E269" s="0" t="n">
         <v>494</v>
@@ -4735,7 +4736,7 @@
         <v>0.012</v>
       </c>
       <c r="D270" s="0" t="n">
-        <v>0</v>
+        <v>1468104022</v>
       </c>
       <c r="E270" s="0" t="n">
         <v>541</v>
@@ -4752,7 +4753,7 @@
         <v>0.012</v>
       </c>
       <c r="D271" s="0" t="n">
-        <v>0</v>
+        <v>1468104022</v>
       </c>
       <c r="E271" s="0" t="n">
         <v>463</v>
@@ -4769,7 +4770,7 @@
         <v>0.012</v>
       </c>
       <c r="D272" s="0" t="n">
-        <v>0</v>
+        <v>1468104023</v>
       </c>
       <c r="E272" s="0" t="n">
         <v>491</v>
@@ -4786,7 +4787,7 @@
         <v>0.012</v>
       </c>
       <c r="D273" s="0" t="n">
-        <v>0</v>
+        <v>1468104023</v>
       </c>
       <c r="E273" s="0" t="n">
         <v>506</v>
@@ -4803,7 +4804,7 @@
         <v>0.012</v>
       </c>
       <c r="D274" s="0" t="n">
-        <v>0</v>
+        <v>1468104024</v>
       </c>
       <c r="E274" s="0" t="n">
         <v>499</v>
@@ -4820,7 +4821,7 @@
         <v>0.012</v>
       </c>
       <c r="D275" s="0" t="n">
-        <v>0</v>
+        <v>1468104024</v>
       </c>
       <c r="E275" s="0" t="n">
         <v>523</v>
@@ -4837,7 +4838,7 @@
         <v>0.012</v>
       </c>
       <c r="D276" s="0" t="n">
-        <v>0</v>
+        <v>1468104025</v>
       </c>
       <c r="E276" s="0" t="n">
         <v>479</v>
@@ -4854,7 +4855,7 @@
         <v>0.012</v>
       </c>
       <c r="D277" s="0" t="n">
-        <v>0</v>
+        <v>1468104025</v>
       </c>
       <c r="E277" s="0" t="n">
         <v>481</v>
@@ -4871,7 +4872,7 @@
         <v>0.012</v>
       </c>
       <c r="D278" s="0" t="n">
-        <v>0</v>
+        <v>1468104026</v>
       </c>
       <c r="E278" s="0" t="n">
         <v>515</v>
@@ -4888,7 +4889,7 @@
         <v>0.012</v>
       </c>
       <c r="D279" s="0" t="n">
-        <v>0</v>
+        <v>1468104026</v>
       </c>
       <c r="E279" s="0" t="n">
         <v>483</v>
@@ -4905,7 +4906,7 @@
         <v>0.012</v>
       </c>
       <c r="D280" s="0" t="n">
-        <v>0</v>
+        <v>1468104027</v>
       </c>
       <c r="E280" s="0" t="n">
         <v>562</v>
@@ -4922,7 +4923,7 @@
         <v>0.012</v>
       </c>
       <c r="D281" s="0" t="n">
-        <v>0</v>
+        <v>1468104027</v>
       </c>
       <c r="E281" s="0" t="n">
         <v>447</v>
@@ -4939,7 +4940,7 @@
         <v>0.012</v>
       </c>
       <c r="D282" s="0" t="n">
-        <v>0</v>
+        <v>1468104028</v>
       </c>
       <c r="E282" s="0" t="n">
         <v>498</v>
@@ -4956,7 +4957,7 @@
         <v>0.012</v>
       </c>
       <c r="D283" s="0" t="n">
-        <v>0</v>
+        <v>1468104028</v>
       </c>
       <c r="E283" s="0" t="n">
         <v>500</v>
@@ -4973,7 +4974,7 @@
         <v>0.012</v>
       </c>
       <c r="D284" s="0" t="n">
-        <v>0</v>
+        <v>1468104029</v>
       </c>
       <c r="E284" s="0" t="n">
         <v>489</v>
@@ -4990,7 +4991,7 @@
         <v>0.012</v>
       </c>
       <c r="D285" s="0" t="n">
-        <v>0</v>
+        <v>1468104029</v>
       </c>
       <c r="E285" s="0" t="n">
         <v>537</v>
@@ -5007,7 +5008,7 @@
         <v>0.012</v>
       </c>
       <c r="D286" s="0" t="n">
-        <v>0</v>
+        <v>1468104030</v>
       </c>
       <c r="E286" s="0" t="n">
         <v>477</v>
@@ -5024,7 +5025,7 @@
         <v>0.012</v>
       </c>
       <c r="D287" s="0" t="n">
-        <v>0</v>
+        <v>1468104030</v>
       </c>
       <c r="E287" s="0" t="n">
         <v>503</v>
@@ -5041,7 +5042,7 @@
         <v>0.012</v>
       </c>
       <c r="D288" s="0" t="n">
-        <v>0</v>
+        <v>1468104031</v>
       </c>
       <c r="E288" s="0" t="n">
         <v>481</v>
@@ -5058,7 +5059,7 @@
         <v>0.012</v>
       </c>
       <c r="D289" s="0" t="n">
-        <v>0</v>
+        <v>1468104031</v>
       </c>
       <c r="E289" s="0" t="n">
         <v>511</v>
@@ -5075,7 +5076,7 @@
         <v>0.012</v>
       </c>
       <c r="D290" s="0" t="n">
-        <v>0</v>
+        <v>1468104032</v>
       </c>
       <c r="E290" s="0" t="n">
         <v>543</v>
@@ -5092,7 +5093,7 @@
         <v>0.012</v>
       </c>
       <c r="D291" s="0" t="n">
-        <v>0</v>
+        <v>1468104032</v>
       </c>
       <c r="E291" s="0" t="n">
         <v>461</v>
@@ -5109,7 +5110,7 @@
         <v>0.012</v>
       </c>
       <c r="D292" s="0" t="n">
-        <v>0</v>
+        <v>1468104033</v>
       </c>
       <c r="E292" s="0" t="n">
         <v>498</v>
@@ -5126,7 +5127,7 @@
         <v>0.012</v>
       </c>
       <c r="D293" s="0" t="n">
-        <v>0</v>
+        <v>1468104033</v>
       </c>
       <c r="E293" s="0" t="n">
         <v>497</v>
@@ -5143,7 +5144,7 @@
         <v>0.012</v>
       </c>
       <c r="D294" s="0" t="n">
-        <v>0</v>
+        <v>1468104034</v>
       </c>
       <c r="E294" s="0" t="n">
         <v>494</v>
@@ -5160,7 +5161,7 @@
         <v>0.012</v>
       </c>
       <c r="D295" s="0" t="n">
-        <v>0</v>
+        <v>1468104034</v>
       </c>
       <c r="E295" s="0" t="n">
         <v>544</v>
@@ -5177,7 +5178,7 @@
         <v>0.012</v>
       </c>
       <c r="D296" s="0" t="n">
-        <v>0</v>
+        <v>1468104035</v>
       </c>
       <c r="E296" s="0" t="n">
         <v>462</v>
@@ -5194,7 +5195,7 @@
         <v>0.012</v>
       </c>
       <c r="D297" s="0" t="n">
-        <v>0</v>
+        <v>1468104035</v>
       </c>
       <c r="E297" s="0" t="n">
         <v>498</v>
@@ -5211,7 +5212,7 @@
         <v>0.012</v>
       </c>
       <c r="D298" s="0" t="n">
-        <v>0</v>
+        <v>1468104036</v>
       </c>
       <c r="E298" s="0" t="n">
         <v>501</v>
@@ -5228,7 +5229,7 @@
         <v>0.012</v>
       </c>
       <c r="D299" s="0" t="n">
-        <v>0</v>
+        <v>1468104036</v>
       </c>
       <c r="E299" s="0" t="n">
         <v>501</v>
@@ -5245,7 +5246,7 @@
         <v>0.012</v>
       </c>
       <c r="D300" s="0" t="n">
-        <v>0</v>
+        <v>1468104037</v>
       </c>
       <c r="E300" s="0" t="n">
         <v>529</v>
@@ -5262,7 +5263,7 @@
         <v>0.012</v>
       </c>
       <c r="D301" s="0" t="n">
-        <v>0</v>
+        <v>1468104037</v>
       </c>
       <c r="E301" s="0" t="n">
         <v>469</v>
@@ -5279,7 +5280,7 @@
         <v>0.012</v>
       </c>
       <c r="D302" s="0" t="n">
-        <v>0</v>
+        <v>1468104038</v>
       </c>
       <c r="E302" s="0" t="n">
         <v>496</v>
@@ -5296,7 +5297,7 @@
         <v>0.012</v>
       </c>
       <c r="D303" s="0" t="n">
-        <v>0</v>
+        <v>1468104038</v>
       </c>
       <c r="E303" s="0" t="n">
         <v>496</v>
@@ -5313,7 +5314,7 @@
         <v>0.012</v>
       </c>
       <c r="D304" s="0" t="n">
-        <v>0</v>
+        <v>1468104039</v>
       </c>
       <c r="E304" s="0" t="n">
         <v>505</v>
@@ -5330,7 +5331,7 @@
         <v>0.012</v>
       </c>
       <c r="D305" s="0" t="n">
-        <v>0</v>
+        <v>1468104039</v>
       </c>
       <c r="E305" s="0" t="n">
         <v>543</v>
@@ -5347,7 +5348,7 @@
         <v>0.012</v>
       </c>
       <c r="D306" s="0" t="n">
-        <v>0</v>
+        <v>1468104040</v>
       </c>
       <c r="E306" s="0" t="n">
         <v>457</v>
@@ -5364,7 +5365,7 @@
         <v>0.012</v>
       </c>
       <c r="D307" s="0" t="n">
-        <v>0</v>
+        <v>1468104040</v>
       </c>
       <c r="E307" s="0" t="n">
         <v>483</v>
@@ -5381,7 +5382,7 @@
         <v>0.012</v>
       </c>
       <c r="D308" s="0" t="n">
-        <v>0</v>
+        <v>1468104041</v>
       </c>
       <c r="E308" s="0" t="n">
         <v>509</v>
@@ -5398,7 +5399,7 @@
         <v>0.012</v>
       </c>
       <c r="D309" s="0" t="n">
-        <v>0</v>
+        <v>1468104041</v>
       </c>
       <c r="E309" s="0" t="n">
         <v>500</v>
@@ -5415,7 +5416,7 @@
         <v>0.012</v>
       </c>
       <c r="D310" s="0" t="n">
-        <v>0</v>
+        <v>1468104042</v>
       </c>
       <c r="E310" s="0" t="n">
         <v>555</v>
@@ -5432,7 +5433,7 @@
         <v>0.012</v>
       </c>
       <c r="D311" s="0" t="n">
-        <v>0</v>
+        <v>1468104042</v>
       </c>
       <c r="E311" s="0" t="n">
         <v>452</v>
@@ -5449,7 +5450,7 @@
         <v>0.012</v>
       </c>
       <c r="D312" s="0" t="n">
-        <v>0</v>
+        <v>1468104043</v>
       </c>
       <c r="E312" s="0" t="n">
         <v>498</v>
@@ -5466,7 +5467,7 @@
         <v>0.012</v>
       </c>
       <c r="D313" s="0" t="n">
-        <v>0</v>
+        <v>1468104043</v>
       </c>
       <c r="E313" s="0" t="n">
         <v>500</v>
@@ -5483,7 +5484,7 @@
         <v>0.012</v>
       </c>
       <c r="D314" s="0" t="n">
-        <v>0</v>
+        <v>1468104044</v>
       </c>
       <c r="E314" s="0" t="n">
         <v>499</v>
@@ -5500,7 +5501,7 @@
         <v>0.022</v>
       </c>
       <c r="D315" s="0" t="n">
-        <v>0</v>
+        <v>1468104044</v>
       </c>
       <c r="E315" s="0" t="n">
         <v>548</v>
@@ -5517,7 +5518,7 @@
         <v>0.022</v>
       </c>
       <c r="D316" s="0" t="n">
-        <v>0</v>
+        <v>1468104045</v>
       </c>
       <c r="E316" s="0" t="n">
         <v>450</v>
@@ -5534,7 +5535,7 @@
         <v>0.022</v>
       </c>
       <c r="D317" s="0" t="n">
-        <v>0</v>
+        <v>1468104045</v>
       </c>
       <c r="E317" s="0" t="n">
         <v>494</v>
@@ -5551,7 +5552,7 @@
         <v>0.022</v>
       </c>
       <c r="D318" s="0" t="n">
-        <v>0</v>
+        <v>1468104046</v>
       </c>
       <c r="E318" s="0" t="n">
         <v>507</v>
@@ -5568,7 +5569,7 @@
         <v>0.022</v>
       </c>
       <c r="D319" s="0" t="n">
-        <v>0</v>
+        <v>1468104046</v>
       </c>
       <c r="E319" s="0" t="n">
         <v>499</v>
@@ -5585,7 +5586,7 @@
         <v>0.022</v>
       </c>
       <c r="D320" s="0" t="n">
-        <v>0</v>
+        <v>1468104047</v>
       </c>
       <c r="E320" s="0" t="n">
         <v>541</v>
@@ -5602,7 +5603,7 @@
         <v>0.022</v>
       </c>
       <c r="D321" s="0" t="n">
-        <v>0</v>
+        <v>1468104047</v>
       </c>
       <c r="E321" s="0" t="n">
         <v>441</v>
@@ -5619,7 +5620,7 @@
         <v>0.022</v>
       </c>
       <c r="D322" s="0" t="n">
-        <v>0</v>
+        <v>1468104048</v>
       </c>
       <c r="E322" s="0" t="n">
         <v>514</v>
@@ -5636,7 +5637,7 @@
         <v>0.022</v>
       </c>
       <c r="D323" s="0" t="n">
-        <v>0</v>
+        <v>1468104048</v>
       </c>
       <c r="E323" s="0" t="n">
         <v>494</v>
@@ -5653,7 +5654,7 @@
         <v>0.022</v>
       </c>
       <c r="D324" s="0" t="n">
-        <v>0</v>
+        <v>1468104049</v>
       </c>
       <c r="E324" s="0" t="n">
         <v>499</v>
@@ -5670,7 +5671,7 @@
         <v>0.022</v>
       </c>
       <c r="D325" s="0" t="n">
-        <v>0</v>
+        <v>1468104049</v>
       </c>
       <c r="E325" s="0" t="n">
         <v>548</v>
@@ -5687,7 +5688,7 @@
         <v>0.022</v>
       </c>
       <c r="D326" s="0" t="n">
-        <v>0</v>
+        <v>1468104050</v>
       </c>
       <c r="E326" s="0" t="n">
         <v>460</v>
@@ -5704,7 +5705,7 @@
         <v>0.022</v>
       </c>
       <c r="D327" s="0" t="n">
-        <v>0</v>
+        <v>1468104050</v>
       </c>
       <c r="E327" s="0" t="n">
         <v>492</v>
@@ -5721,7 +5722,7 @@
         <v>0.022</v>
       </c>
       <c r="D328" s="0" t="n">
-        <v>0</v>
+        <v>1468104051</v>
       </c>
       <c r="E328" s="0" t="n">
         <v>506</v>
@@ -5738,7 +5739,7 @@
         <v>0.02</v>
       </c>
       <c r="D329" s="0" t="n">
-        <v>0</v>
+        <v>1468104051</v>
       </c>
       <c r="E329" s="0" t="n">
         <v>500</v>
@@ -5755,7 +5756,7 @@
         <v>0.02</v>
       </c>
       <c r="D330" s="0" t="n">
-        <v>0</v>
+        <v>1468104052</v>
       </c>
       <c r="E330" s="0" t="n">
         <v>542</v>
@@ -5772,7 +5773,7 @@
         <v>0.02</v>
       </c>
       <c r="D331" s="0" t="n">
-        <v>0</v>
+        <v>1468104052</v>
       </c>
       <c r="E331" s="0" t="n">
         <v>450</v>
@@ -5789,7 +5790,7 @@
         <v>0.021</v>
       </c>
       <c r="D332" s="0" t="n">
-        <v>0</v>
+        <v>1468104053</v>
       </c>
       <c r="E332" s="0" t="n">
         <v>508</v>
@@ -5806,7 +5807,7 @@
         <v>0.021</v>
       </c>
       <c r="D333" s="0" t="n">
-        <v>0</v>
+        <v>1468104053</v>
       </c>
       <c r="E333" s="0" t="n">
         <v>491</v>
@@ -5823,7 +5824,7 @@
         <v>0.021</v>
       </c>
       <c r="D334" s="0" t="n">
-        <v>0</v>
+        <v>1468104054</v>
       </c>
       <c r="E334" s="0" t="n">
         <v>499</v>
@@ -5840,7 +5841,7 @@
         <v>0.021</v>
       </c>
       <c r="D335" s="0" t="n">
-        <v>0</v>
+        <v>1468104054</v>
       </c>
       <c r="E335" s="0" t="n">
         <v>500</v>
@@ -5857,7 +5858,7 @@
         <v>0.021</v>
       </c>
       <c r="D336" s="0" t="n">
-        <v>0</v>
+        <v>1468104055</v>
       </c>
       <c r="E336" s="0" t="n">
         <v>504</v>
@@ -5874,7 +5875,7 @@
         <v>0.021</v>
       </c>
       <c r="D337" s="0" t="n">
-        <v>0</v>
+        <v>1468104055</v>
       </c>
       <c r="E337" s="0" t="n">
         <v>494</v>
@@ -5891,7 +5892,7 @@
         <v>0.021</v>
       </c>
       <c r="D338" s="0" t="n">
-        <v>0</v>
+        <v>1468104056</v>
       </c>
       <c r="E338" s="0" t="n">
         <v>507</v>
@@ -5908,7 +5909,7 @@
         <v>0.03</v>
       </c>
       <c r="D339" s="0" t="n">
-        <v>0</v>
+        <v>1468104056</v>
       </c>
       <c r="E339" s="0" t="n">
         <v>500</v>
@@ -5925,7 +5926,7 @@
         <v>0.03</v>
       </c>
       <c r="D340" s="0" t="n">
-        <v>0</v>
+        <v>1468104057</v>
       </c>
       <c r="E340" s="0" t="n">
         <v>558</v>
@@ -5942,7 +5943,7 @@
         <v>0.033</v>
       </c>
       <c r="D341" s="0" t="n">
-        <v>0</v>
+        <v>1468104057</v>
       </c>
       <c r="E341" s="0" t="n">
         <v>437</v>
@@ -5959,7 +5960,7 @@
         <v>0.033</v>
       </c>
       <c r="D342" s="0" t="n">
-        <v>0</v>
+        <v>1468104058</v>
       </c>
       <c r="E342" s="0" t="n">
         <v>503</v>
@@ -5976,7 +5977,7 @@
         <v>0.033</v>
       </c>
       <c r="D343" s="0" t="n">
-        <v>0</v>
+        <v>1468104058</v>
       </c>
       <c r="E343" s="0" t="n">
         <v>498</v>
@@ -5993,7 +5994,7 @@
         <v>0.033</v>
       </c>
       <c r="D344" s="0" t="n">
-        <v>0</v>
+        <v>1468104059</v>
       </c>
       <c r="E344" s="0" t="n">
         <v>499</v>
@@ -6010,7 +6011,7 @@
         <v>0.033</v>
       </c>
       <c r="D345" s="0" t="n">
-        <v>0</v>
+        <v>1468104059</v>
       </c>
       <c r="E345" s="0" t="n">
         <v>541</v>
@@ -6027,7 +6028,7 @@
         <v>0.033</v>
       </c>
       <c r="D346" s="0" t="n">
-        <v>0</v>
+        <v>1468104060</v>
       </c>
       <c r="E346" s="0" t="n">
         <v>460</v>
@@ -6044,7 +6045,7 @@
         <v>0.033</v>
       </c>
       <c r="D347" s="0" t="n">
-        <v>0</v>
+        <v>1468104060</v>
       </c>
       <c r="E347" s="0" t="n">
         <v>496</v>
@@ -6061,7 +6062,7 @@
         <v>0.033</v>
       </c>
       <c r="D348" s="0" t="n">
-        <v>0</v>
+        <v>1468104061</v>
       </c>
       <c r="E348" s="0" t="n">
         <v>493</v>
@@ -6078,7 +6079,7 @@
         <v>0.033</v>
       </c>
       <c r="D349" s="0" t="n">
-        <v>0</v>
+        <v>1468104061</v>
       </c>
       <c r="E349" s="0" t="n">
         <v>500</v>
@@ -6095,7 +6096,7 @@
         <v>0.03</v>
       </c>
       <c r="D350" s="0" t="n">
-        <v>0</v>
+        <v>1468104062</v>
       </c>
       <c r="E350" s="0" t="n">
         <v>556</v>
@@ -6112,7 +6113,7 @@
         <v>0.03</v>
       </c>
       <c r="D351" s="0" t="n">
-        <v>0</v>
+        <v>1468104062</v>
       </c>
       <c r="E351" s="0" t="n">
         <v>455</v>
@@ -6129,7 +6130,7 @@
         <v>0.03</v>
       </c>
       <c r="D352" s="0" t="n">
-        <v>0</v>
+        <v>1468104063</v>
       </c>
       <c r="E352" s="0" t="n">
         <v>487</v>
@@ -6146,7 +6147,7 @@
         <v>0.03</v>
       </c>
       <c r="D353" s="0" t="n">
-        <v>0</v>
+        <v>1468104063</v>
       </c>
       <c r="E353" s="0" t="n">
         <v>503</v>
@@ -6163,7 +6164,7 @@
         <v>0.03</v>
       </c>
       <c r="D354" s="0" t="n">
-        <v>0</v>
+        <v>1468104064</v>
       </c>
       <c r="E354" s="0" t="n">
         <v>504</v>
@@ -6180,7 +6181,7 @@
         <v>0.03</v>
       </c>
       <c r="D355" s="0" t="n">
-        <v>0</v>
+        <v>1468104064</v>
       </c>
       <c r="E355" s="0" t="n">
         <v>534</v>
@@ -6197,7 +6198,7 @@
         <v>0.03</v>
       </c>
       <c r="D356" s="0" t="n">
-        <v>0</v>
+        <v>1468104065</v>
       </c>
       <c r="E356" s="0" t="n">
         <v>464</v>
@@ -6214,7 +6215,7 @@
         <v>0.03</v>
       </c>
       <c r="D357" s="0" t="n">
-        <v>0</v>
+        <v>1468104065</v>
       </c>
       <c r="E357" s="0" t="n">
         <v>501</v>
@@ -6231,7 +6232,7 @@
         <v>0.03</v>
       </c>
       <c r="D358" s="0" t="n">
-        <v>0</v>
+        <v>1468104066</v>
       </c>
       <c r="E358" s="0" t="n">
         <v>498</v>
@@ -6248,7 +6249,7 @@
         <v>0.03</v>
       </c>
       <c r="D359" s="0" t="n">
-        <v>0</v>
+        <v>1468104066</v>
       </c>
       <c r="E359" s="0" t="n">
         <v>499</v>
@@ -6265,7 +6266,7 @@
         <v>0.03</v>
       </c>
       <c r="D360" s="0" t="n">
-        <v>0</v>
+        <v>1468104067</v>
       </c>
       <c r="E360" s="0" t="n">
         <v>541</v>
@@ -6282,7 +6283,7 @@
         <v>0.03</v>
       </c>
       <c r="D361" s="0" t="n">
-        <v>0</v>
+        <v>1468104067</v>
       </c>
       <c r="E361" s="0" t="n">
         <v>486</v>
@@ -6299,7 +6300,7 @@
         <v>0.03</v>
       </c>
       <c r="D362" s="0" t="n">
-        <v>0</v>
+        <v>1468104068</v>
       </c>
       <c r="E362" s="0" t="n">
         <v>471</v>
@@ -6316,7 +6317,7 @@
         <v>0.033</v>
       </c>
       <c r="D363" s="0" t="n">
-        <v>0</v>
+        <v>1468104068</v>
       </c>
       <c r="E363" s="0" t="n">
         <v>491</v>
@@ -6333,7 +6334,7 @@
         <v>0.033</v>
       </c>
       <c r="D364" s="0" t="n">
-        <v>0</v>
+        <v>1468104069</v>
       </c>
       <c r="E364" s="0" t="n">
         <v>506</v>
@@ -6350,7 +6351,7 @@
         <v>0.033</v>
       </c>
       <c r="D365" s="0" t="n">
-        <v>0</v>
+        <v>1468104069</v>
       </c>
       <c r="E365" s="0" t="n">
         <v>545</v>
@@ -6367,7 +6368,7 @@
         <v>0.033</v>
       </c>
       <c r="D366" s="0" t="n">
-        <v>0</v>
+        <v>1468104070</v>
       </c>
       <c r="E366" s="0" t="n">
         <v>455</v>
@@ -6384,7 +6385,7 @@
         <v>0.033</v>
       </c>
       <c r="D367" s="0" t="n">
-        <v>0</v>
+        <v>1468104070</v>
       </c>
       <c r="E367" s="0" t="n">
         <v>491</v>
@@ -6401,7 +6402,7 @@
         <v>0.033</v>
       </c>
       <c r="D368" s="0" t="n">
-        <v>0</v>
+        <v>1468104071</v>
       </c>
       <c r="E368" s="0" t="n">
         <v>507</v>
@@ -6418,7 +6419,7 @@
         <v>0.033</v>
       </c>
       <c r="D369" s="0" t="n">
-        <v>0</v>
+        <v>1468104071</v>
       </c>
       <c r="E369" s="0" t="n">
         <v>492</v>
@@ -6435,7 +6436,7 @@
         <v>0.033</v>
       </c>
       <c r="D370" s="0" t="n">
-        <v>0</v>
+        <v>1468104072</v>
       </c>
       <c r="E370" s="0" t="n">
         <v>545</v>
@@ -6452,7 +6453,7 @@
         <v>0.033</v>
       </c>
       <c r="D371" s="0" t="n">
-        <v>0</v>
+        <v>1468104072</v>
       </c>
       <c r="E371" s="0" t="n">
         <v>444</v>
@@ -6469,7 +6470,7 @@
         <v>0.033</v>
       </c>
       <c r="D372" s="0" t="n">
-        <v>0</v>
+        <v>1468104073</v>
       </c>
       <c r="E372" s="0" t="n">
         <v>499</v>
@@ -6486,7 +6487,7 @@
         <v>0.033</v>
       </c>
       <c r="D373" s="0" t="n">
-        <v>0</v>
+        <v>1468104073</v>
       </c>
       <c r="E373" s="0" t="n">
         <v>509</v>
@@ -6503,7 +6504,7 @@
         <v>0.033</v>
       </c>
       <c r="D374" s="0" t="n">
-        <v>0</v>
+        <v>1468104074</v>
       </c>
       <c r="E374" s="0" t="n">
         <v>490</v>
@@ -6520,7 +6521,7 @@
         <v>0.033</v>
       </c>
       <c r="D375" s="0" t="n">
-        <v>0</v>
+        <v>1468104074</v>
       </c>
       <c r="E375" s="0" t="n">
         <v>557</v>
@@ -6537,7 +6538,7 @@
         <v>0.03</v>
       </c>
       <c r="D376" s="0" t="n">
-        <v>0</v>
+        <v>1468104075</v>
       </c>
       <c r="E376" s="0" t="n">
         <v>462</v>
@@ -6554,7 +6555,7 @@
         <v>0.03</v>
       </c>
       <c r="D377" s="0" t="n">
-        <v>0</v>
+        <v>1468104075</v>
       </c>
       <c r="E377" s="0" t="n">
         <v>495</v>
@@ -6571,7 +6572,7 @@
         <v>0.03</v>
       </c>
       <c r="D378" s="0" t="n">
-        <v>0</v>
+        <v>1468104076</v>
       </c>
       <c r="E378" s="0" t="n">
         <v>501</v>
@@ -6588,7 +6589,7 @@
         <v>0.03</v>
       </c>
       <c r="D379" s="0" t="n">
-        <v>0</v>
+        <v>1468104076</v>
       </c>
       <c r="E379" s="0" t="n">
         <v>494</v>
@@ -6605,7 +6606,7 @@
         <v>0.03</v>
       </c>
       <c r="D380" s="0" t="n">
-        <v>0</v>
+        <v>1468104077</v>
       </c>
       <c r="E380" s="0" t="n">
         <v>525</v>
@@ -6622,7 +6623,7 @@
         <v>0.03</v>
       </c>
       <c r="D381" s="0" t="n">
-        <v>0</v>
+        <v>1468104077</v>
       </c>
       <c r="E381" s="0" t="n">
         <v>475</v>
@@ -6639,7 +6640,7 @@
         <v>0.03</v>
       </c>
       <c r="D382" s="0" t="n">
-        <v>0</v>
+        <v>1468104078</v>
       </c>
       <c r="E382" s="0" t="n">
         <v>498</v>
@@ -6656,7 +6657,7 @@
         <v>0.03</v>
       </c>
       <c r="D383" s="0" t="n">
-        <v>0</v>
+        <v>1468104078</v>
       </c>
       <c r="E383" s="0" t="n">
         <v>491</v>
@@ -6673,7 +6674,7 @@
         <v>0.03</v>
       </c>
       <c r="D384" s="0" t="n">
-        <v>0</v>
+        <v>1468104079</v>
       </c>
       <c r="E384" s="0" t="n">
         <v>499</v>
@@ -6690,7 +6691,7 @@
         <v>0.03</v>
       </c>
       <c r="D385" s="0" t="n">
-        <v>0</v>
+        <v>1468104079</v>
       </c>
       <c r="E385" s="0" t="n">
         <v>551</v>
@@ -6707,7 +6708,7 @@
         <v>0.028</v>
       </c>
       <c r="D386" s="0" t="n">
-        <v>0</v>
+        <v>1468104080</v>
       </c>
       <c r="E386" s="0" t="n">
         <v>456</v>
@@ -6724,7 +6725,7 @@
         <v>0.018</v>
       </c>
       <c r="D387" s="0" t="n">
-        <v>0</v>
+        <v>1468104080</v>
       </c>
       <c r="E387" s="0" t="n">
         <v>491</v>
@@ -6741,7 +6742,7 @@
         <v>0.018</v>
       </c>
       <c r="D388" s="0" t="n">
-        <v>0</v>
+        <v>1468104081</v>
       </c>
       <c r="E388" s="0" t="n">
         <v>507</v>
@@ -6758,7 +6759,7 @@
         <v>0.021</v>
       </c>
       <c r="D389" s="0" t="n">
-        <v>0</v>
+        <v>1468104081</v>
       </c>
       <c r="E389" s="0" t="n">
         <v>492</v>
@@ -6775,7 +6776,7 @@
         <v>0.021</v>
       </c>
       <c r="D390" s="0" t="n">
-        <v>0</v>
+        <v>1468104082</v>
       </c>
       <c r="E390" s="0" t="n">
         <v>546</v>
@@ -6792,7 +6793,7 @@
         <v>0.021</v>
       </c>
       <c r="D391" s="0" t="n">
-        <v>0</v>
+        <v>1468104082</v>
       </c>
       <c r="E391" s="0" t="n">
         <v>463</v>
@@ -6809,7 +6810,7 @@
         <v>0.021</v>
       </c>
       <c r="D392" s="0" t="n">
-        <v>0</v>
+        <v>1468104083</v>
       </c>
       <c r="E392" s="0" t="n">
         <v>495</v>
@@ -6826,7 +6827,7 @@
         <v>0.021</v>
       </c>
       <c r="D393" s="0" t="n">
-        <v>0</v>
+        <v>1468104083</v>
       </c>
       <c r="E393" s="0" t="n">
         <v>501</v>
@@ -6843,7 +6844,7 @@
         <v>0.021</v>
       </c>
       <c r="D394" s="0" t="n">
-        <v>0</v>
+        <v>1468104084</v>
       </c>
       <c r="E394" s="0" t="n">
         <v>494</v>
@@ -6860,7 +6861,7 @@
         <v>0.021</v>
       </c>
       <c r="D395" s="0" t="n">
-        <v>0</v>
+        <v>1468104084</v>
       </c>
       <c r="E395" s="0" t="n">
         <v>542</v>
@@ -6877,7 +6878,7 @@
         <v>0.021</v>
       </c>
       <c r="D396" s="0" t="n">
-        <v>0</v>
+        <v>1468104085</v>
       </c>
       <c r="E396" s="0" t="n">
         <v>459</v>
@@ -6894,7 +6895,7 @@
         <v>0.021</v>
       </c>
       <c r="D397" s="0" t="n">
-        <v>0</v>
+        <v>1468104085</v>
       </c>
       <c r="E397" s="0" t="n">
         <v>500</v>
@@ -6911,7 +6912,7 @@
         <v>0.021</v>
       </c>
       <c r="D398" s="0" t="n">
-        <v>0</v>
+        <v>1468104086</v>
       </c>
       <c r="E398" s="0" t="n">
         <v>502</v>
@@ -6928,7 +6929,7 @@
         <v>0.021</v>
       </c>
       <c r="D399" s="0" t="n">
-        <v>0</v>
+        <v>1468104086</v>
       </c>
       <c r="E399" s="0" t="n">
         <v>499</v>
@@ -6945,7 +6946,7 @@
         <v>0.021</v>
       </c>
       <c r="D400" s="0" t="n">
-        <v>0</v>
+        <v>1468104087</v>
       </c>
       <c r="E400" s="0" t="n">
         <v>521</v>
@@ -6962,7 +6963,7 @@
         <v>0.021</v>
       </c>
       <c r="D401" s="0" t="n">
-        <v>0</v>
+        <v>1468104087</v>
       </c>
       <c r="E401" s="0" t="n">
         <v>468</v>
@@ -6979,7 +6980,7 @@
         <v>0.021</v>
       </c>
       <c r="D402" s="0" t="n">
-        <v>0</v>
+        <v>1468104088</v>
       </c>
       <c r="E402" s="0" t="n">
         <v>494</v>
@@ -6996,7 +6997,7 @@
         <v>0.021</v>
       </c>
       <c r="D403" s="0" t="n">
-        <v>0</v>
+        <v>1468104088</v>
       </c>
       <c r="E403" s="0" t="n">
         <v>500</v>
@@ -7013,7 +7014,7 @@
         <v>0.021</v>
       </c>
       <c r="D404" s="0" t="n">
-        <v>0</v>
+        <v>1468104089</v>
       </c>
       <c r="E404" s="0" t="n">
         <v>499</v>
@@ -7030,7 +7031,7 @@
         <v>0.021</v>
       </c>
       <c r="D405" s="0" t="n">
-        <v>0</v>
+        <v>1468104089</v>
       </c>
       <c r="E405" s="0" t="n">
         <v>502</v>
@@ -7047,7 +7048,7 @@
         <v>0.02</v>
       </c>
       <c r="D406" s="0" t="n">
-        <v>0</v>
+        <v>1468104090</v>
       </c>
       <c r="E406" s="0" t="n">
         <v>497</v>
@@ -7064,7 +7065,7 @@
         <v>0.02</v>
       </c>
       <c r="D407" s="0" t="n">
-        <v>0</v>
+        <v>1468104090</v>
       </c>
       <c r="E407" s="0" t="n">
         <v>491</v>
@@ -7081,7 +7082,7 @@
         <v>0.02</v>
       </c>
       <c r="D408" s="0" t="n">
-        <v>0</v>
+        <v>1468104091</v>
       </c>
       <c r="E408" s="0" t="n">
         <v>499</v>
@@ -7098,7 +7099,7 @@
         <v>0.02</v>
       </c>
       <c r="D409" s="0" t="n">
-        <v>0</v>
+        <v>1468104091</v>
       </c>
       <c r="E409" s="0" t="n">
         <v>509</v>
@@ -7115,7 +7116,7 @@
         <v>0.02</v>
       </c>
       <c r="D410" s="0" t="n">
-        <v>0</v>
+        <v>1468104092</v>
       </c>
       <c r="E410" s="0" t="n">
         <v>549</v>
@@ -7132,7 +7133,7 @@
         <v>0.02</v>
       </c>
       <c r="D411" s="0" t="n">
-        <v>0</v>
+        <v>1468104092</v>
       </c>
       <c r="E411" s="0" t="n">
         <v>447</v>
@@ -7149,7 +7150,7 @@
         <v>0.01</v>
       </c>
       <c r="D412" s="0" t="n">
-        <v>0</v>
+        <v>1468104093</v>
       </c>
       <c r="E412" s="0" t="n">
         <v>497</v>
@@ -7166,7 +7167,7 @@
         <v>0.01</v>
       </c>
       <c r="D413" s="0" t="n">
-        <v>0</v>
+        <v>1468104093</v>
       </c>
       <c r="E413" s="0" t="n">
         <v>501</v>
@@ -7183,7 +7184,7 @@
         <v>0.01</v>
       </c>
       <c r="D414" s="0" t="n">
-        <v>0</v>
+        <v>1468104094</v>
       </c>
       <c r="E414" s="0" t="n">
         <v>501</v>
@@ -7200,7 +7201,7 @@
         <v>0.01</v>
       </c>
       <c r="D415" s="0" t="n">
-        <v>0</v>
+        <v>1468104094</v>
       </c>
       <c r="E415" s="0" t="n">
         <v>540</v>
@@ -7217,7 +7218,7 @@
         <v>0.01</v>
       </c>
       <c r="D416" s="0" t="n">
-        <v>0</v>
+        <v>1468104095</v>
       </c>
       <c r="E416" s="0" t="n">
         <v>460</v>
@@ -7234,7 +7235,7 @@
         <v>0.01</v>
       </c>
       <c r="D417" s="0" t="n">
-        <v>0</v>
+        <v>1468104095</v>
       </c>
       <c r="E417" s="0" t="n">
         <v>499</v>
@@ -7251,7 +7252,7 @@
         <v>0.013</v>
       </c>
       <c r="D418" s="0" t="n">
-        <v>0</v>
+        <v>1468104096</v>
       </c>
       <c r="E418" s="0" t="n">
         <v>504</v>
@@ -7268,7 +7269,7 @@
         <v>0.013</v>
       </c>
       <c r="D419" s="0" t="n">
-        <v>0</v>
+        <v>1468104096</v>
       </c>
       <c r="E419" s="0" t="n">
         <v>495</v>
@@ -7285,7 +7286,7 @@
         <v>0.013</v>
       </c>
       <c r="D420" s="0" t="n">
-        <v>0</v>
+        <v>1468104097</v>
       </c>
       <c r="E420" s="0" t="n">
         <v>532</v>
@@ -7302,7 +7303,7 @@
         <v>0.013</v>
       </c>
       <c r="D421" s="0" t="n">
-        <v>0</v>
+        <v>1468104097</v>
       </c>
       <c r="E421" s="0" t="n">
         <v>461</v>
@@ -7319,7 +7320,7 @@
         <v>0.013</v>
       </c>
       <c r="D422" s="0" t="n">
-        <v>0</v>
+        <v>1468104098</v>
       </c>
       <c r="E422" s="0" t="n">
         <v>517</v>
@@ -7336,7 +7337,7 @@
         <v>0.012</v>
       </c>
       <c r="D423" s="0" t="n">
-        <v>0</v>
+        <v>1468104098</v>
       </c>
       <c r="E423" s="0" t="n">
         <v>478</v>
@@ -7353,7 +7354,7 @@
         <v>0.012</v>
       </c>
       <c r="D424" s="0" t="n">
-        <v>0</v>
+        <v>1468104099</v>
       </c>
       <c r="E424" s="0" t="n">
         <v>504</v>
@@ -7370,7 +7371,7 @@
         <v>0.012</v>
       </c>
       <c r="D425" s="0" t="n">
-        <v>0</v>
+        <v>1468104099</v>
       </c>
       <c r="E425" s="0" t="n">
         <v>542</v>
@@ -7387,7 +7388,7 @@
         <v>0.012</v>
       </c>
       <c r="D426" s="0" t="n">
-        <v>0</v>
+        <v>1468104100</v>
       </c>
       <c r="E426" s="0" t="n">
         <v>453</v>
@@ -7404,7 +7405,7 @@
         <v>0.012</v>
       </c>
       <c r="D427" s="0" t="n">
-        <v>0</v>
+        <v>1468104100</v>
       </c>
       <c r="E427" s="0" t="n">
         <v>502</v>
@@ -7421,7 +7422,7 @@
         <v>0.016</v>
       </c>
       <c r="D428" s="0" t="n">
-        <v>0</v>
+        <v>1468104101</v>
       </c>
       <c r="E428" s="0" t="n">
         <v>496</v>
@@ -7438,7 +7439,7 @@
         <v>0.011</v>
       </c>
       <c r="D429" s="0" t="n">
-        <v>0</v>
+        <v>1468104101</v>
       </c>
       <c r="E429" s="0" t="n">
         <v>499</v>
@@ -7455,7 +7456,7 @@
         <v>0.011</v>
       </c>
       <c r="D430" s="0" t="n">
-        <v>0</v>
+        <v>1468104102</v>
       </c>
       <c r="E430" s="0" t="n">
         <v>540</v>
@@ -7472,7 +7473,7 @@
         <v>0.011</v>
       </c>
       <c r="D431" s="0" t="n">
-        <v>0</v>
+        <v>1468104102</v>
       </c>
       <c r="E431" s="0" t="n">
         <v>454</v>
@@ -7489,7 +7490,7 @@
         <v>0.011</v>
       </c>
       <c r="D432" s="0" t="n">
-        <v>0</v>
+        <v>1468104103</v>
       </c>
       <c r="E432" s="0" t="n">
         <v>502</v>
@@ -7506,7 +7507,7 @@
         <v>0.011</v>
       </c>
       <c r="D433" s="0" t="n">
-        <v>0</v>
+        <v>1468104103</v>
       </c>
       <c r="E433" s="0" t="n">
         <v>504</v>
@@ -7523,7 +7524,7 @@
         <v>0.011</v>
       </c>
       <c r="D434" s="0" t="n">
-        <v>0</v>
+        <v>1468104104</v>
       </c>
       <c r="E434" s="0" t="n">
         <v>494</v>
@@ -7540,7 +7541,7 @@
         <v>0.011</v>
       </c>
       <c r="D435" s="0" t="n">
-        <v>0</v>
+        <v>1468104104</v>
       </c>
       <c r="E435" s="0" t="n">
         <v>546</v>
@@ -7557,7 +7558,7 @@
         <v>0.011</v>
       </c>
       <c r="D436" s="0" t="n">
-        <v>0</v>
+        <v>1468104105</v>
       </c>
       <c r="E436" s="0" t="n">
         <v>453</v>
@@ -7574,7 +7575,7 @@
         <v>0.011</v>
       </c>
       <c r="D437" s="0" t="n">
-        <v>0</v>
+        <v>1468104105</v>
       </c>
       <c r="E437" s="0" t="n">
         <v>500</v>
@@ -7591,7 +7592,7 @@
         <v>0.011</v>
       </c>
       <c r="D438" s="0" t="n">
-        <v>0</v>
+        <v>1468104106</v>
       </c>
       <c r="E438" s="0" t="n">
         <v>500</v>
@@ -7608,7 +7609,7 @@
         <v>0.019</v>
       </c>
       <c r="D439" s="0" t="n">
-        <v>0</v>
+        <v>1468104106</v>
       </c>
       <c r="E439" s="0" t="n">
         <v>498</v>
@@ -7625,7 +7626,7 @@
         <v>0.019</v>
       </c>
       <c r="D440" s="0" t="n">
-        <v>0</v>
+        <v>1468104107</v>
       </c>
       <c r="E440" s="0" t="n">
         <v>520</v>
@@ -7642,7 +7643,7 @@
         <v>0.013</v>
       </c>
       <c r="D441" s="0" t="n">
-        <v>0</v>
+        <v>1468104107</v>
       </c>
       <c r="E441" s="0" t="n">
         <v>480</v>
@@ -7659,7 +7660,7 @@
         <v>0.013</v>
       </c>
       <c r="D442" s="0" t="n">
-        <v>0</v>
+        <v>1468104108</v>
       </c>
       <c r="E442" s="0" t="n">
         <v>499</v>
@@ -7676,7 +7677,7 @@
         <v>0.013</v>
       </c>
       <c r="D443" s="0" t="n">
-        <v>0</v>
+        <v>1468104108</v>
       </c>
       <c r="E443" s="0" t="n">
         <v>543</v>
@@ -7693,7 +7694,7 @@
         <v>0.013</v>
       </c>
       <c r="D444" s="0" t="n">
-        <v>0</v>
+        <v>1468104109</v>
       </c>
       <c r="E444" s="0" t="n">
         <v>449</v>
@@ -7710,7 +7711,7 @@
         <v>0.013</v>
       </c>
       <c r="D445" s="0" t="n">
-        <v>0</v>
+        <v>1468104109</v>
       </c>
       <c r="E445" s="0" t="n">
         <v>526</v>
@@ -7727,7 +7728,7 @@
         <v>0.013</v>
       </c>
       <c r="D446" s="0" t="n">
-        <v>0</v>
+        <v>1468104110</v>
       </c>
       <c r="E446" s="0" t="n">
         <v>476</v>
@@ -7744,7 +7745,7 @@
         <v>0.013</v>
       </c>
       <c r="D447" s="0" t="n">
-        <v>0</v>
+        <v>1468104110</v>
       </c>
       <c r="E447" s="0" t="n">
         <v>497</v>
@@ -7761,7 +7762,7 @@
         <v>0.014</v>
       </c>
       <c r="D448" s="0" t="n">
-        <v>0</v>
+        <v>1468104111</v>
       </c>
       <c r="E448" s="0" t="n">
         <v>498</v>
@@ -7778,7 +7779,7 @@
         <v>0.014</v>
       </c>
       <c r="D449" s="0" t="n">
-        <v>0</v>
+        <v>1468104111</v>
       </c>
       <c r="E449" s="0" t="n">
         <v>503</v>
@@ -7795,7 +7796,7 @@
         <v>0.014</v>
       </c>
       <c r="D450" s="0" t="n">
-        <v>0</v>
+        <v>1468104112</v>
       </c>
       <c r="E450" s="0" t="n">
         <v>544</v>
@@ -7812,7 +7813,7 @@
         <v>0.014</v>
       </c>
       <c r="D451" s="0" t="n">
-        <v>0</v>
+        <v>1468104112</v>
       </c>
       <c r="E451" s="0" t="n">
         <v>457</v>
@@ -7829,7 +7830,7 @@
         <v>0.014</v>
       </c>
       <c r="D452" s="0" t="n">
-        <v>0</v>
+        <v>1468104113</v>
       </c>
       <c r="E452" s="0" t="n">
         <v>500</v>
@@ -7846,7 +7847,7 @@
         <v>0.014</v>
       </c>
       <c r="D453" s="0" t="n">
-        <v>0</v>
+        <v>1468104113</v>
       </c>
       <c r="E453" s="0" t="n">
         <v>510</v>
@@ -7863,7 +7864,7 @@
         <v>0.022</v>
       </c>
       <c r="D454" s="0" t="n">
-        <v>0</v>
+        <v>1468104114</v>
       </c>
       <c r="E454" s="0" t="n">
         <v>483</v>
@@ -7880,7 +7881,7 @@
         <v>0.022</v>
       </c>
       <c r="D455" s="0" t="n">
-        <v>0</v>
+        <v>1468104114</v>
       </c>
       <c r="E455" s="0" t="n">
         <v>496</v>
@@ -7897,7 +7898,7 @@
         <v>0.022</v>
       </c>
       <c r="D456" s="0" t="n">
-        <v>0</v>
+        <v>1468104115</v>
       </c>
       <c r="E456" s="0" t="n">
         <v>504</v>
@@ -7914,7 +7915,7 @@
         <v>0.022</v>
       </c>
       <c r="D457" s="0" t="n">
-        <v>0</v>
+        <v>1468104115</v>
       </c>
       <c r="E457" s="0" t="n">
         <v>503</v>
@@ -7931,7 +7932,7 @@
         <v>0.022</v>
       </c>
       <c r="D458" s="0" t="n">
-        <v>0</v>
+        <v>1468104116</v>
       </c>
       <c r="E458" s="0" t="n">
         <v>506</v>
@@ -7948,7 +7949,7 @@
         <v>0.022</v>
       </c>
       <c r="D459" s="0" t="n">
-        <v>0</v>
+        <v>1468104116</v>
       </c>
       <c r="E459" s="0" t="n">
         <v>493</v>
@@ -7965,7 +7966,7 @@
         <v>0.022</v>
       </c>
       <c r="D460" s="0" t="n">
-        <v>0</v>
+        <v>1468104117</v>
       </c>
       <c r="E460" s="0" t="n">
         <v>510</v>
@@ -7982,7 +7983,7 @@
         <v>0.022</v>
       </c>
       <c r="D461" s="0" t="n">
-        <v>0</v>
+        <v>1468104117</v>
       </c>
       <c r="E461" s="0" t="n">
         <v>489</v>
@@ -7999,7 +8000,7 @@
         <v>0.029</v>
       </c>
       <c r="D462" s="0" t="n">
-        <v>0</v>
+        <v>1468104118</v>
       </c>
       <c r="E462" s="0" t="n">
         <v>497</v>
@@ -8016,7 +8017,7 @@
         <v>0.023</v>
       </c>
       <c r="D463" s="0" t="n">
-        <v>0</v>
+        <v>1468104118</v>
       </c>
       <c r="E463" s="0" t="n">
         <v>500</v>
@@ -8033,7 +8034,7 @@
         <v>0.023</v>
       </c>
       <c r="D464" s="0" t="n">
-        <v>0</v>
+        <v>1468104119</v>
       </c>
       <c r="E464" s="0" t="n">
         <v>492</v>
@@ -8050,7 +8051,7 @@
         <v>0.023</v>
       </c>
       <c r="D465" s="0" t="n">
-        <v>0</v>
+        <v>1468104119</v>
       </c>
       <c r="E465" s="0" t="n">
         <v>531</v>
@@ -8067,7 +8068,7 @@
         <v>0.023</v>
       </c>
       <c r="D466" s="0" t="n">
-        <v>0</v>
+        <v>1468104120</v>
       </c>
       <c r="E466" s="0" t="n">
         <v>465</v>
@@ -8084,7 +8085,7 @@
         <v>0.023</v>
       </c>
       <c r="D467" s="0" t="n">
-        <v>0</v>
+        <v>1468104120</v>
       </c>
       <c r="E467" s="0" t="n">
         <v>498</v>
@@ -8101,7 +8102,7 @@
         <v>0.023</v>
       </c>
       <c r="D468" s="0" t="n">
-        <v>0</v>
+        <v>1468104121</v>
       </c>
       <c r="E468" s="0" t="n">
         <v>491</v>
@@ -8118,7 +8119,7 @@
         <v>0.023</v>
       </c>
       <c r="D469" s="0" t="n">
-        <v>0</v>
+        <v>1468104121</v>
       </c>
       <c r="E469" s="0" t="n">
         <v>508</v>
@@ -8135,7 +8136,7 @@
         <v>0.023</v>
       </c>
       <c r="D470" s="0" t="n">
-        <v>0</v>
+        <v>1468104122</v>
       </c>
       <c r="E470" s="0" t="n">
         <v>519</v>
@@ -8152,7 +8153,7 @@
         <v>0.023</v>
       </c>
       <c r="D471" s="0" t="n">
-        <v>0</v>
+        <v>1468104122</v>
       </c>
       <c r="E471" s="0" t="n">
         <v>475</v>
@@ -8169,7 +8170,7 @@
         <v>0.023</v>
       </c>
       <c r="D472" s="0" t="n">
-        <v>0</v>
+        <v>1468104123</v>
       </c>
       <c r="E472" s="0" t="n">
         <v>502</v>
@@ -8186,7 +8187,7 @@
         <v>0.023</v>
       </c>
       <c r="D473" s="0" t="n">
-        <v>0</v>
+        <v>1468104123</v>
       </c>
       <c r="E473" s="0" t="n">
         <v>502</v>
@@ -8203,7 +8204,7 @@
         <v>0.023</v>
       </c>
       <c r="D474" s="0" t="n">
-        <v>0</v>
+        <v>1468104124</v>
       </c>
       <c r="E474" s="0" t="n">
         <v>503</v>
@@ -8220,7 +8221,7 @@
         <v>0.023</v>
       </c>
       <c r="D475" s="0" t="n">
-        <v>0</v>
+        <v>1468104124</v>
       </c>
       <c r="E475" s="0" t="n">
         <v>547</v>
@@ -8237,7 +8238,7 @@
         <v>0.034</v>
       </c>
       <c r="D476" s="0" t="n">
-        <v>0</v>
+        <v>1468104125</v>
       </c>
       <c r="E476" s="0" t="n">
         <v>449</v>
@@ -8254,7 +8255,7 @@
         <v>0.034</v>
       </c>
       <c r="D477" s="0" t="n">
-        <v>0</v>
+        <v>1468104125</v>
       </c>
       <c r="E477" s="0" t="n">
         <v>509</v>
@@ -8271,7 +8272,7 @@
         <v>0.034</v>
       </c>
       <c r="D478" s="0" t="n">
-        <v>0</v>
+        <v>1468104126</v>
       </c>
       <c r="E478" s="0" t="n">
         <v>489</v>
@@ -8288,7 +8289,7 @@
         <v>0.034</v>
       </c>
       <c r="D479" s="0" t="n">
-        <v>0</v>
+        <v>1468104126</v>
       </c>
       <c r="E479" s="0" t="n">
         <v>498</v>
@@ -8305,7 +8306,7 @@
         <v>0.034</v>
       </c>
       <c r="D480" s="0" t="n">
-        <v>0</v>
+        <v>1468104127</v>
       </c>
       <c r="E480" s="0" t="n">
         <v>550</v>
@@ -8322,7 +8323,7 @@
         <v>0.034</v>
       </c>
       <c r="D481" s="0" t="n">
-        <v>0</v>
+        <v>1468104127</v>
       </c>
       <c r="E481" s="0" t="n">
         <v>450</v>
@@ -8339,7 +8340,7 @@
         <v>0.034</v>
       </c>
       <c r="D482" s="0" t="n">
-        <v>0</v>
+        <v>1468104128</v>
       </c>
       <c r="E482" s="0" t="n">
         <v>499</v>
@@ -8356,7 +8357,7 @@
         <v>0.034</v>
       </c>
       <c r="D483" s="0" t="n">
-        <v>0</v>
+        <v>1468104128</v>
       </c>
       <c r="E483" s="0" t="n">
         <v>503</v>
@@ -8373,7 +8374,7 @@
         <v>0.035</v>
       </c>
       <c r="D484" s="0" t="n">
-        <v>0</v>
+        <v>1468104129</v>
       </c>
       <c r="E484" s="0" t="n">
         <v>496</v>
@@ -8390,7 +8391,7 @@
         <v>0.035</v>
       </c>
       <c r="D485" s="0" t="n">
-        <v>0</v>
+        <v>1468104129</v>
       </c>
       <c r="E485" s="0" t="n">
         <v>550</v>
@@ -8407,7 +8408,7 @@
         <v>0.035</v>
       </c>
       <c r="D486" s="0" t="n">
-        <v>0</v>
+        <v>1468104130</v>
       </c>
       <c r="E486" s="0" t="n">
         <v>449</v>
@@ -8424,7 +8425,7 @@
         <v>0.035</v>
       </c>
       <c r="D487" s="0" t="n">
-        <v>0</v>
+        <v>1468104130</v>
       </c>
       <c r="E487" s="0" t="n">
         <v>498</v>
@@ -8441,7 +8442,7 @@
         <v>0.035</v>
       </c>
       <c r="D488" s="0" t="n">
-        <v>0</v>
+        <v>1468104131</v>
       </c>
       <c r="E488" s="0" t="n">
         <v>500</v>
@@ -8458,7 +8459,7 @@
         <v>0.035</v>
       </c>
       <c r="D489" s="0" t="n">
-        <v>0</v>
+        <v>1468104131</v>
       </c>
       <c r="E489" s="0" t="n">
         <v>500</v>
@@ -8475,7 +8476,7 @@
         <v>0.035</v>
       </c>
       <c r="D490" s="0" t="n">
-        <v>0</v>
+        <v>1468104132</v>
       </c>
       <c r="E490" s="0" t="n">
         <v>546</v>
@@ -8492,7 +8493,7 @@
         <v>0.04</v>
       </c>
       <c r="D491" s="0" t="n">
-        <v>0</v>
+        <v>1468104132</v>
       </c>
       <c r="E491" s="0" t="n">
         <v>452</v>
@@ -8509,7 +8510,7 @@
         <v>0.04</v>
       </c>
       <c r="D492" s="0" t="n">
-        <v>0</v>
+        <v>1468104133</v>
       </c>
       <c r="E492" s="0" t="n">
         <v>499</v>
@@ -8526,7 +8527,7 @@
         <v>0.04</v>
       </c>
       <c r="D493" s="0" t="n">
-        <v>0</v>
+        <v>1468104133</v>
       </c>
       <c r="E493" s="0" t="n">
         <v>501</v>
@@ -8543,7 +8544,7 @@
         <v>0.04</v>
       </c>
       <c r="D494" s="0" t="n">
-        <v>0</v>
+        <v>1468104134</v>
       </c>
       <c r="E494" s="0" t="n">
         <v>503</v>
@@ -8560,7 +8561,7 @@
         <v>0.04</v>
       </c>
       <c r="D495" s="0" t="n">
-        <v>0</v>
+        <v>1468104134</v>
       </c>
       <c r="E495" s="0" t="n">
         <v>544</v>
@@ -8577,7 +8578,7 @@
         <v>0.04</v>
       </c>
       <c r="D496" s="0" t="n">
-        <v>0</v>
+        <v>1468104135</v>
       </c>
       <c r="E496" s="0" t="n">
         <v>448</v>
@@ -8594,7 +8595,7 @@
         <v>0.04</v>
       </c>
       <c r="D497" s="0" t="n">
-        <v>0</v>
+        <v>1468104135</v>
       </c>
       <c r="E497" s="0" t="n">
         <v>507</v>
@@ -8611,7 +8612,7 @@
         <v>0.04</v>
       </c>
       <c r="D498" s="0" t="n">
-        <v>0</v>
+        <v>1468104136</v>
       </c>
       <c r="E498" s="0" t="n">
         <v>490</v>
@@ -8628,7 +8629,7 @@
         <v>0.04</v>
       </c>
       <c r="D499" s="0" t="n">
-        <v>0</v>
+        <v>1468104136</v>
       </c>
       <c r="E499" s="0" t="n">
         <v>510</v>
@@ -8645,7 +8646,7 @@
         <v>0.04</v>
       </c>
       <c r="D500" s="0" t="n">
-        <v>0</v>
+        <v>1468104137</v>
       </c>
       <c r="E500" s="0" t="n">
         <v>542</v>
@@ -8662,7 +8663,7 @@
         <v>0.04</v>
       </c>
       <c r="D501" s="0" t="n">
-        <v>0</v>
+        <v>1468104137</v>
       </c>
       <c r="E501" s="0" t="n">
         <v>458</v>
@@ -8679,7 +8680,7 @@
         <v>0.04</v>
       </c>
       <c r="D502" s="0" t="n">
-        <v>0</v>
+        <v>1468104138</v>
       </c>
       <c r="E502" s="0" t="n">
         <v>495</v>
@@ -8696,7 +8697,7 @@
         <v>0.04</v>
       </c>
       <c r="D503" s="0" t="n">
-        <v>0</v>
+        <v>1468104138</v>
       </c>
       <c r="E503" s="0" t="n">
         <v>494</v>
@@ -8713,7 +8714,7 @@
         <v>0.04</v>
       </c>
       <c r="D504" s="0" t="n">
-        <v>0</v>
+        <v>1468104139</v>
       </c>
       <c r="E504" s="0" t="n">
         <v>497</v>
@@ -8730,7 +8731,7 @@
         <v>0.04</v>
       </c>
       <c r="D505" s="0" t="n">
-        <v>0</v>
+        <v>1468104139</v>
       </c>
       <c r="E505" s="0" t="n">
         <v>520</v>
@@ -8747,7 +8748,7 @@
         <v>0.04</v>
       </c>
       <c r="D506" s="0" t="n">
-        <v>0</v>
+        <v>1468104140</v>
       </c>
       <c r="E506" s="0" t="n">
         <v>490</v>
@@ -8764,7 +8765,7 @@
         <v>0.04</v>
       </c>
       <c r="D507" s="0" t="n">
-        <v>0</v>
+        <v>1468104140</v>
       </c>
       <c r="E507" s="0" t="n">
         <v>489</v>
@@ -8781,7 +8782,7 @@
         <v>0.04</v>
       </c>
       <c r="D508" s="0" t="n">
-        <v>0</v>
+        <v>1468104141</v>
       </c>
       <c r="E508" s="0" t="n">
         <v>507</v>
@@ -8798,7 +8799,7 @@
         <v>0.04</v>
       </c>
       <c r="D509" s="0" t="n">
-        <v>0</v>
+        <v>1468104141</v>
       </c>
       <c r="E509" s="0" t="n">
         <v>484</v>
@@ -8815,7 +8816,7 @@
         <v>0.04</v>
       </c>
       <c r="D510" s="0" t="n">
-        <v>0</v>
+        <v>1468104142</v>
       </c>
       <c r="E510" s="0" t="n">
         <v>556</v>
@@ -8832,7 +8833,7 @@
         <v>0.04</v>
       </c>
       <c r="D511" s="0" t="n">
-        <v>0</v>
+        <v>1468104142</v>
       </c>
       <c r="E511" s="0" t="n">
         <v>443</v>
@@ -8849,7 +8850,7 @@
         <v>0.04</v>
       </c>
       <c r="D512" s="0" t="n">
-        <v>0</v>
+        <v>1468104143</v>
       </c>
       <c r="E512" s="0" t="n">
         <v>508</v>
@@ -8866,7 +8867,7 @@
         <v>0.04</v>
       </c>
       <c r="D513" s="0" t="n">
-        <v>0</v>
+        <v>1468104143</v>
       </c>
       <c r="E513" s="0" t="n">
         <v>500</v>
@@ -8883,7 +8884,7 @@
         <v>0.04</v>
       </c>
       <c r="D514" s="0" t="n">
-        <v>0</v>
+        <v>1468104144</v>
       </c>
       <c r="E514" s="0" t="n">
         <v>503</v>
@@ -8900,7 +8901,7 @@
         <v>0.04</v>
       </c>
       <c r="D515" s="0" t="n">
-        <v>0</v>
+        <v>1468104144</v>
       </c>
       <c r="E515" s="0" t="n">
         <v>474</v>
@@ -8917,7 +8918,7 @@
         <v>0.04</v>
       </c>
       <c r="D516" s="0" t="n">
-        <v>0</v>
+        <v>1468104145</v>
       </c>
       <c r="E516" s="0" t="n">
         <v>454</v>
@@ -8934,7 +8935,7 @@
         <v>0.04</v>
       </c>
       <c r="D517" s="0" t="n">
-        <v>0</v>
+        <v>1468104145</v>
       </c>
       <c r="E517" s="0" t="n">
         <v>510</v>
@@ -8951,7 +8952,7 @@
         <v>0.045</v>
       </c>
       <c r="D518" s="0" t="n">
-        <v>0</v>
+        <v>1468104146</v>
       </c>
       <c r="E518" s="0" t="n">
         <v>498</v>
@@ -8968,7 +8969,7 @@
         <v>0.045</v>
       </c>
       <c r="D519" s="0" t="n">
-        <v>0</v>
+        <v>1468104146</v>
       </c>
       <c r="E519" s="0" t="n">
         <v>491</v>
@@ -8985,7 +8986,7 @@
         <v>0.045</v>
       </c>
       <c r="D520" s="0" t="n">
-        <v>0</v>
+        <v>1468104147</v>
       </c>
       <c r="E520" s="0" t="n">
         <v>550</v>
@@ -9002,7 +9003,7 @@
         <v>0.045</v>
       </c>
       <c r="D521" s="0" t="n">
-        <v>0</v>
+        <v>1468104147</v>
       </c>
       <c r="E521" s="0" t="n">
         <v>456</v>
@@ -9019,7 +9020,7 @@
         <v>0.045</v>
       </c>
       <c r="D522" s="0" t="n">
-        <v>0</v>
+        <v>1468104148</v>
       </c>
       <c r="E522" s="0" t="n">
         <v>497</v>
@@ -9036,7 +9037,7 @@
         <v>0.045</v>
       </c>
       <c r="D523" s="0" t="n">
-        <v>0</v>
+        <v>1468104148</v>
       </c>
       <c r="E523" s="0" t="n">
         <v>501</v>
@@ -9053,7 +9054,7 @@
         <v>0.045</v>
       </c>
       <c r="D524" s="0" t="n">
-        <v>0</v>
+        <v>1468104149</v>
       </c>
       <c r="E524" s="0" t="n">
         <v>501</v>
@@ -9070,7 +9071,7 @@
         <v>0.045</v>
       </c>
       <c r="D525" s="0" t="n">
-        <v>0</v>
+        <v>1468104149</v>
       </c>
       <c r="E525" s="0" t="n">
         <v>490</v>
@@ -9087,7 +9088,7 @@
         <v>0.045</v>
       </c>
       <c r="D526" s="0" t="n">
-        <v>0</v>
+        <v>1468104150</v>
       </c>
       <c r="E526" s="0" t="n">
         <v>507</v>
@@ -9104,7 +9105,7 @@
         <v>0.045</v>
       </c>
       <c r="D527" s="0" t="n">
-        <v>0</v>
+        <v>1468104150</v>
       </c>
       <c r="E527" s="0" t="n">
         <v>502</v>
@@ -9121,7 +9122,7 @@
         <v>0.045</v>
       </c>
       <c r="D528" s="0" t="n">
-        <v>0</v>
+        <v>1468104151</v>
       </c>
       <c r="E528" s="0" t="n">
         <v>496</v>
@@ -9138,7 +9139,7 @@
         <v>0.045</v>
       </c>
       <c r="D529" s="0" t="n">
-        <v>0</v>
+        <v>1468104151</v>
       </c>
       <c r="E529" s="0" t="n">
         <v>500</v>
@@ -9155,7 +9156,7 @@
         <v>0.045</v>
       </c>
       <c r="D530" s="0" t="n">
-        <v>0</v>
+        <v>1468104152</v>
       </c>
       <c r="E530" s="0" t="n">
         <v>518</v>
@@ -9172,7 +9173,7 @@
         <v>0.045</v>
       </c>
       <c r="D531" s="0" t="n">
-        <v>0</v>
+        <v>1468104152</v>
       </c>
       <c r="E531" s="0" t="n">
         <v>480</v>
@@ -9189,7 +9190,7 @@
         <v>0.045</v>
       </c>
       <c r="D532" s="0" t="n">
-        <v>0</v>
+        <v>1468104153</v>
       </c>
       <c r="E532" s="0" t="n">
         <v>500</v>
@@ -9206,7 +9207,7 @@
         <v>0.045</v>
       </c>
       <c r="D533" s="0" t="n">
-        <v>0</v>
+        <v>1468104153</v>
       </c>
       <c r="E533" s="0" t="n">
         <v>501</v>
@@ -9223,7 +9224,7 @@
         <v>0.045</v>
       </c>
       <c r="D534" s="0" t="n">
-        <v>0</v>
+        <v>1468104154</v>
       </c>
       <c r="E534" s="0" t="n">
         <v>496</v>
@@ -9240,7 +9241,7 @@
         <v>0.045</v>
       </c>
       <c r="D535" s="0" t="n">
-        <v>0</v>
+        <v>1468104154</v>
       </c>
       <c r="E535" s="0" t="n">
         <v>548</v>
@@ -9257,7 +9258,7 @@
         <v>0.045</v>
       </c>
       <c r="D536" s="0" t="n">
-        <v>0</v>
+        <v>1468104155</v>
       </c>
       <c r="E536" s="0" t="n">
         <v>449</v>
@@ -9274,7 +9275,7 @@
         <v>0.045</v>
       </c>
       <c r="D537" s="0" t="n">
-        <v>0</v>
+        <v>1468104155</v>
       </c>
       <c r="E537" s="0" t="n">
         <v>502</v>
@@ -9291,7 +9292,7 @@
         <v>0.039</v>
       </c>
       <c r="D538" s="0" t="n">
-        <v>0</v>
+        <v>1468104156</v>
       </c>
       <c r="E538" s="0" t="n">
         <v>495</v>
@@ -9308,7 +9309,7 @@
         <v>0.039</v>
       </c>
       <c r="D539" s="0" t="n">
-        <v>0</v>
+        <v>1468104156</v>
       </c>
       <c r="E539" s="0" t="n">
         <v>502</v>
@@ -9325,7 +9326,7 @@
         <v>0.034</v>
       </c>
       <c r="D540" s="0" t="n">
-        <v>0</v>
+        <v>1468104157</v>
       </c>
       <c r="E540" s="0" t="n">
         <v>542</v>
@@ -9342,7 +9343,7 @@
         <v>0.034</v>
       </c>
       <c r="D541" s="0" t="n">
-        <v>0</v>
+        <v>1468104157</v>
       </c>
       <c r="E541" s="0" t="n">
         <v>460</v>
@@ -9359,7 +9360,7 @@
         <v>0.034</v>
       </c>
       <c r="D542" s="0" t="n">
-        <v>0</v>
+        <v>1468104158</v>
       </c>
       <c r="E542" s="0" t="n">
         <v>489</v>
@@ -9376,7 +9377,7 @@
         <v>0.034</v>
       </c>
       <c r="D543" s="0" t="n">
-        <v>0</v>
+        <v>1468104158</v>
       </c>
       <c r="E543" s="0" t="n">
         <v>500</v>
@@ -9393,7 +9394,7 @@
         <v>0.034</v>
       </c>
       <c r="D544" s="0" t="n">
-        <v>0</v>
+        <v>1468104159</v>
       </c>
       <c r="E544" s="0" t="n">
         <v>509</v>
@@ -9410,7 +9411,7 @@
         <v>0.034</v>
       </c>
       <c r="D545" s="0" t="n">
-        <v>0</v>
+        <v>1468104159</v>
       </c>
       <c r="E545" s="0" t="n">
         <v>555</v>
@@ -9427,7 +9428,7 @@
         <v>0.034</v>
       </c>
       <c r="D546" s="0" t="n">
-        <v>0</v>
+        <v>1468104160</v>
       </c>
       <c r="E546" s="0" t="n">
         <v>429</v>
@@ -9444,7 +9445,7 @@
         <v>0.034</v>
       </c>
       <c r="D547" s="0" t="n">
-        <v>0</v>
+        <v>1468104160</v>
       </c>
       <c r="E547" s="0" t="n">
         <v>495</v>
@@ -9461,7 +9462,7 @@
         <v>0.034</v>
       </c>
       <c r="D548" s="0" t="n">
-        <v>0</v>
+        <v>1468104161</v>
       </c>
       <c r="E548" s="0" t="n">
         <v>499</v>
@@ -9478,7 +9479,7 @@
         <v>0.034</v>
       </c>
       <c r="D549" s="0" t="n">
-        <v>0</v>
+        <v>1468104161</v>
       </c>
       <c r="E549" s="0" t="n">
         <v>513</v>
@@ -9495,7 +9496,7 @@
         <v>0.034</v>
       </c>
       <c r="D550" s="0" t="n">
-        <v>0</v>
+        <v>1468104162</v>
       </c>
       <c r="E550" s="0" t="n">
         <v>486</v>
@@ -9512,7 +9513,7 @@
         <v>0.034</v>
       </c>
       <c r="D551" s="0" t="n">
-        <v>0</v>
+        <v>1468104162</v>
       </c>
       <c r="E551" s="0" t="n">
         <v>508</v>
@@ -9529,7 +9530,7 @@
         <v>0.034</v>
       </c>
       <c r="D552" s="0" t="n">
-        <v>0</v>
+        <v>1468104163</v>
       </c>
       <c r="E552" s="0" t="n">
         <v>498</v>
@@ -9546,7 +9547,7 @@
         <v>0.034</v>
       </c>
       <c r="D553" s="0" t="n">
-        <v>0</v>
+        <v>1468104163</v>
       </c>
       <c r="E553" s="0" t="n">
         <v>500</v>
@@ -9563,7 +9564,7 @@
         <v>0.027</v>
       </c>
       <c r="D554" s="0" t="n">
-        <v>0</v>
+        <v>1468104164</v>
       </c>
       <c r="E554" s="0" t="n">
         <v>496</v>
@@ -9580,7 +9581,7 @@
         <v>0.027</v>
       </c>
       <c r="D555" s="0" t="n">
-        <v>0</v>
+        <v>1468104164</v>
       </c>
       <c r="E555" s="0" t="n">
         <v>536</v>
@@ -9597,7 +9598,7 @@
         <v>0.027</v>
       </c>
       <c r="D556" s="0" t="n">
-        <v>0</v>
+        <v>1468104165</v>
       </c>
       <c r="E556" s="0" t="n">
         <v>462</v>
@@ -9614,7 +9615,7 @@
         <v>0.027</v>
       </c>
       <c r="D557" s="0" t="n">
-        <v>0</v>
+        <v>1468104165</v>
       </c>
       <c r="E557" s="0" t="n">
         <v>499</v>
@@ -9631,7 +9632,7 @@
         <v>0.033</v>
       </c>
       <c r="D558" s="0" t="n">
-        <v>0</v>
+        <v>1468104166</v>
       </c>
       <c r="E558" s="0" t="n">
         <v>499</v>
@@ -9648,7 +9649,7 @@
         <v>0.033</v>
       </c>
       <c r="D559" s="0" t="n">
-        <v>0</v>
+        <v>1468104166</v>
       </c>
       <c r="E559" s="0" t="n">
         <v>491</v>
@@ -9665,7 +9666,7 @@
         <v>0.033</v>
       </c>
       <c r="D560" s="0" t="n">
-        <v>0</v>
+        <v>1468104167</v>
       </c>
       <c r="E560" s="0" t="n">
         <v>555</v>
@@ -9682,7 +9683,7 @@
         <v>0.033</v>
       </c>
       <c r="D561" s="0" t="n">
-        <v>0</v>
+        <v>1468104167</v>
       </c>
       <c r="E561" s="0" t="n">
         <v>444</v>
@@ -9699,7 +9700,7 @@
         <v>0.033</v>
       </c>
       <c r="D562" s="0" t="n">
-        <v>0</v>
+        <v>1468104168</v>
       </c>
       <c r="E562" s="0" t="n">
         <v>507</v>
@@ -9716,7 +9717,7 @@
         <v>0.033</v>
       </c>
       <c r="D563" s="0" t="n">
-        <v>0</v>
+        <v>1468104168</v>
       </c>
       <c r="E563" s="0" t="n">
         <v>499</v>
@@ -9733,7 +9734,7 @@
         <v>0.033</v>
       </c>
       <c r="D564" s="0" t="n">
-        <v>0</v>
+        <v>1468104169</v>
       </c>
       <c r="E564" s="0" t="n">
         <v>499</v>
@@ -9750,7 +9751,7 @@
         <v>0.033</v>
       </c>
       <c r="D565" s="0" t="n">
-        <v>0</v>
+        <v>1468104169</v>
       </c>
       <c r="E565" s="0" t="n">
         <v>530</v>
@@ -9767,7 +9768,7 @@
         <v>0.033</v>
       </c>
       <c r="D566" s="0" t="n">
-        <v>0</v>
+        <v>1468104170</v>
       </c>
       <c r="E566" s="0" t="n">
         <v>474</v>
@@ -9784,7 +9785,7 @@
         <v>0.033</v>
       </c>
       <c r="D567" s="0" t="n">
-        <v>0</v>
+        <v>1468104170</v>
       </c>
       <c r="E567" s="0" t="n">
         <v>496</v>
@@ -9801,7 +9802,7 @@
         <v>0.033</v>
       </c>
       <c r="D568" s="0" t="n">
-        <v>0</v>
+        <v>1468104171</v>
       </c>
       <c r="E568" s="0" t="n">
         <v>498</v>
@@ -9818,7 +9819,7 @@
         <v>0.033</v>
       </c>
       <c r="D569" s="0" t="n">
-        <v>0</v>
+        <v>1468104171</v>
       </c>
       <c r="E569" s="0" t="n">
         <v>499</v>
@@ -9835,7 +9836,7 @@
         <v>0.033</v>
       </c>
       <c r="D570" s="0" t="n">
-        <v>0</v>
+        <v>1468104172</v>
       </c>
       <c r="E570" s="0" t="n">
         <v>529</v>
@@ -9852,7 +9853,7 @@
         <v>0.026</v>
       </c>
       <c r="D571" s="0" t="n">
-        <v>0</v>
+        <v>1468104172</v>
       </c>
       <c r="E571" s="0" t="n">
         <v>469</v>
@@ -9869,7 +9870,7 @@
         <v>0.026</v>
       </c>
       <c r="D572" s="0" t="n">
-        <v>0</v>
+        <v>1468104173</v>
       </c>
       <c r="E572" s="0" t="n">
         <v>497</v>
@@ -9886,7 +9887,7 @@
         <v>0.026</v>
       </c>
       <c r="D573" s="0" t="n">
-        <v>0</v>
+        <v>1468104173</v>
       </c>
       <c r="E573" s="0" t="n">
         <v>503</v>
@@ -9903,7 +9904,7 @@
         <v>0.026</v>
       </c>
       <c r="D574" s="0" t="n">
-        <v>0</v>
+        <v>1468104174</v>
       </c>
       <c r="E574" s="0" t="n">
         <v>497</v>
@@ -9920,7 +9921,7 @@
         <v>0.026</v>
       </c>
       <c r="D575" s="0" t="n">
-        <v>0</v>
+        <v>1468104174</v>
       </c>
       <c r="E575" s="0" t="n">
         <v>536</v>
@@ -9937,7 +9938,7 @@
         <v>0.026</v>
       </c>
       <c r="D576" s="0" t="n">
-        <v>0</v>
+        <v>1468104175</v>
       </c>
       <c r="E576" s="0" t="n">
         <v>527</v>
@@ -9954,7 +9955,7 @@
         <v>0.026</v>
       </c>
       <c r="D577" s="0" t="n">
-        <v>0</v>
+        <v>1468104175</v>
       </c>
       <c r="E577" s="0" t="n">
         <v>438</v>
@@ -9971,7 +9972,7 @@
         <v>0.026</v>
       </c>
       <c r="D578" s="0" t="n">
-        <v>0</v>
+        <v>1468104176</v>
       </c>
       <c r="E578" s="0" t="n">
         <v>502</v>
@@ -9988,7 +9989,7 @@
         <v>0.026</v>
       </c>
       <c r="D579" s="0" t="n">
-        <v>0</v>
+        <v>1468104176</v>
       </c>
       <c r="E579" s="0" t="n">
         <v>487</v>
@@ -10005,7 +10006,7 @@
         <v>0.026</v>
       </c>
       <c r="D580" s="0" t="n">
-        <v>0</v>
+        <v>1468104177</v>
       </c>
       <c r="E580" s="0" t="n">
         <v>527</v>
@@ -10022,7 +10023,7 @@
         <v>0.026</v>
       </c>
       <c r="D581" s="0" t="n">
-        <v>0</v>
+        <v>1468104177</v>
       </c>
       <c r="E581" s="0" t="n">
         <v>481</v>
@@ -10039,7 +10040,7 @@
         <v>0.026</v>
       </c>
       <c r="D582" s="0" t="n">
-        <v>0</v>
+        <v>1468104178</v>
       </c>
       <c r="E582" s="0" t="n">
         <v>498</v>
@@ -10056,7 +10057,7 @@
         <v>0.026</v>
       </c>
       <c r="D583" s="0" t="n">
-        <v>0</v>
+        <v>1468104178</v>
       </c>
       <c r="E583" s="0" t="n">
         <v>499</v>
@@ -10073,7 +10074,7 @@
         <v>0.026</v>
       </c>
       <c r="D584" s="0" t="n">
-        <v>0</v>
+        <v>1468104179</v>
       </c>
       <c r="E584" s="0" t="n">
         <v>498</v>
@@ -10090,7 +10091,7 @@
         <v>0.026</v>
       </c>
       <c r="D585" s="0" t="n">
-        <v>0</v>
+        <v>1468104179</v>
       </c>
       <c r="E585" s="0" t="n">
         <v>525</v>
@@ -10107,7 +10108,7 @@
         <v>0.026</v>
       </c>
       <c r="D586" s="0" t="n">
-        <v>0</v>
+        <v>1468104180</v>
       </c>
       <c r="E586" s="0" t="n">
         <v>475</v>
@@ -10124,7 +10125,7 @@
         <v>0.026</v>
       </c>
       <c r="D587" s="0" t="n">
-        <v>0</v>
+        <v>1468104180</v>
       </c>
       <c r="E587" s="0" t="n">
         <v>447</v>
@@ -10141,7 +10142,7 @@
         <v>0.026</v>
       </c>
       <c r="D588" s="0" t="n">
-        <v>0</v>
+        <v>1468104181</v>
       </c>
       <c r="E588" s="0" t="n">
         <v>504</v>
@@ -10158,7 +10159,7 @@
         <v>0.026</v>
       </c>
       <c r="D589" s="0" t="n">
-        <v>0</v>
+        <v>1468104181</v>
       </c>
       <c r="E589" s="0" t="n">
         <v>496</v>
@@ -10175,7 +10176,7 @@
         <v>0.026</v>
       </c>
       <c r="D590" s="0" t="n">
-        <v>0</v>
+        <v>1468104182</v>
       </c>
       <c r="E590" s="0" t="n">
         <v>529</v>
@@ -10192,7 +10193,7 @@
         <v>0.026</v>
       </c>
       <c r="D591" s="0" t="n">
-        <v>0</v>
+        <v>1468104182</v>
       </c>
       <c r="E591" s="0" t="n">
         <v>477</v>
@@ -10209,7 +10210,7 @@
         <v>0.026</v>
       </c>
       <c r="D592" s="0" t="n">
-        <v>0</v>
+        <v>1468104183</v>
       </c>
       <c r="E592" s="0" t="n">
         <v>496</v>
@@ -10226,7 +10227,7 @@
         <v>0.026</v>
       </c>
       <c r="D593" s="0" t="n">
-        <v>0</v>
+        <v>1468104183</v>
       </c>
       <c r="E593" s="0" t="n">
         <v>502</v>
@@ -10243,7 +10244,7 @@
         <v>0.026</v>
       </c>
       <c r="D594" s="0" t="n">
-        <v>0</v>
+        <v>1468104184</v>
       </c>
       <c r="E594" s="0" t="n">
         <v>500</v>
@@ -10260,7 +10261,7 @@
         <v>0.026</v>
       </c>
       <c r="D595" s="0" t="n">
-        <v>0</v>
+        <v>1468104184</v>
       </c>
       <c r="E595" s="0" t="n">
         <v>541</v>
@@ -10277,7 +10278,7 @@
         <v>0.026</v>
       </c>
       <c r="D596" s="0" t="n">
-        <v>0</v>
+        <v>1468104185</v>
       </c>
       <c r="E596" s="0" t="n">
         <v>461</v>
@@ -10294,7 +10295,7 @@
         <v>0.026</v>
       </c>
       <c r="D597" s="0" t="n">
-        <v>0</v>
+        <v>1468104185</v>
       </c>
       <c r="E597" s="0" t="n">
         <v>491</v>
@@ -10311,7 +10312,7 @@
         <v>0.026</v>
       </c>
       <c r="D598" s="0" t="n">
-        <v>0</v>
+        <v>1468104186</v>
       </c>
       <c r="E598" s="0" t="n">
         <v>503</v>
@@ -10328,7 +10329,7 @@
         <v>0.026</v>
       </c>
       <c r="D599" s="0" t="n">
-        <v>0</v>
+        <v>1468104186</v>
       </c>
       <c r="E599" s="0" t="n">
         <v>499</v>
@@ -10345,7 +10346,7 @@
         <v>0.026</v>
       </c>
       <c r="D600" s="0" t="n">
-        <v>0</v>
+        <v>1468104187</v>
       </c>
       <c r="E600" s="0" t="n">
         <v>535</v>
@@ -10362,7 +10363,7 @@
         <v>0.026</v>
       </c>
       <c r="D601" s="0" t="n">
-        <v>0</v>
+        <v>1468104187</v>
       </c>
       <c r="E601" s="0" t="n">
         <v>456</v>
@@ -10379,7 +10380,7 @@
         <v>0.026</v>
       </c>
       <c r="D602" s="0" t="n">
-        <v>0</v>
+        <v>1468104188</v>
       </c>
       <c r="E602" s="0" t="n">
         <v>499</v>
@@ -10396,7 +10397,7 @@
         <v>0.026</v>
       </c>
       <c r="D603" s="0" t="n">
-        <v>0</v>
+        <v>1468104188</v>
       </c>
       <c r="E603" s="0" t="n">
         <v>500</v>
@@ -10413,7 +10414,7 @@
         <v>0.026</v>
       </c>
       <c r="D604" s="0" t="n">
-        <v>0</v>
+        <v>1468104189</v>
       </c>
       <c r="E604" s="0" t="n">
         <v>504</v>
@@ -10430,7 +10431,7 @@
         <v>0.026</v>
       </c>
       <c r="D605" s="0" t="n">
-        <v>0</v>
+        <v>1468104189</v>
       </c>
       <c r="E605" s="0" t="n">
         <v>538</v>
@@ -10447,7 +10448,7 @@
         <v>0.026</v>
       </c>
       <c r="D606" s="0" t="n">
-        <v>0</v>
+        <v>1468104190</v>
       </c>
       <c r="E606" s="0" t="n">
         <v>455</v>
@@ -10464,7 +10465,7 @@
         <v>0.026</v>
       </c>
       <c r="D607" s="0" t="n">
-        <v>0</v>
+        <v>1468104190</v>
       </c>
       <c r="E607" s="0" t="n">
         <v>522</v>
@@ -10481,7 +10482,7 @@
         <v>0.026</v>
       </c>
       <c r="D608" s="0" t="n">
-        <v>0</v>
+        <v>1468104191</v>
       </c>
       <c r="E608" s="0" t="n">
         <v>486</v>
@@ -10498,7 +10499,7 @@
         <v>0.026</v>
       </c>
       <c r="D609" s="0" t="n">
-        <v>0</v>
+        <v>1468104191</v>
       </c>
       <c r="E609" s="0" t="n">
         <v>491</v>
@@ -10515,7 +10516,7 @@
         <v>0.026</v>
       </c>
       <c r="D610" s="0" t="n">
-        <v>0</v>
+        <v>1468104192</v>
       </c>
       <c r="E610" s="0" t="n">
         <v>548</v>
@@ -10532,7 +10533,7 @@
         <v>0.026</v>
       </c>
       <c r="D611" s="0" t="n">
-        <v>0</v>
+        <v>1468104192</v>
       </c>
       <c r="E611" s="0" t="n">
         <v>459</v>
@@ -10549,7 +10550,7 @@
         <v>0.026</v>
       </c>
       <c r="D612" s="0" t="n">
-        <v>0</v>
+        <v>1468104193</v>
       </c>
       <c r="E612" s="0" t="n">
         <v>501</v>
@@ -10566,7 +10567,7 @@
         <v>0.026</v>
       </c>
       <c r="D613" s="0" t="n">
-        <v>0</v>
+        <v>1468104193</v>
       </c>
       <c r="E613" s="0" t="n">
         <v>496</v>
@@ -10583,7 +10584,7 @@
         <v>0.026</v>
       </c>
       <c r="D614" s="0" t="n">
-        <v>0</v>
+        <v>1468104194</v>
       </c>
       <c r="E614" s="0" t="n">
         <v>499</v>
@@ -10600,7 +10601,7 @@
         <v>0.026</v>
       </c>
       <c r="D615" s="0" t="n">
-        <v>0</v>
+        <v>1468104194</v>
       </c>
       <c r="E615" s="0" t="n">
         <v>536</v>
@@ -10617,7 +10618,7 @@
         <v>0.026</v>
       </c>
       <c r="D616" s="0" t="n">
-        <v>0</v>
+        <v>1468104195</v>
       </c>
       <c r="E616" s="0" t="n">
         <v>456</v>
@@ -10634,7 +10635,7 @@
         <v>0.026</v>
       </c>
       <c r="D617" s="0" t="n">
-        <v>0</v>
+        <v>1468104195</v>
       </c>
       <c r="E617" s="0" t="n">
         <v>511</v>
@@ -10651,7 +10652,7 @@
         <v>0.026</v>
       </c>
       <c r="D618" s="0" t="n">
-        <v>0</v>
+        <v>1468104196</v>
       </c>
       <c r="E618" s="0" t="n">
         <v>446</v>
@@ -10668,7 +10669,7 @@
         <v>0.026</v>
       </c>
       <c r="D619" s="0" t="n">
-        <v>0</v>
+        <v>1468104196</v>
       </c>
       <c r="E619" s="0" t="n">
         <v>490</v>
@@ -10685,7 +10686,7 @@
         <v>0.026</v>
       </c>
       <c r="D620" s="0" t="n">
-        <v>0</v>
+        <v>1468104197</v>
       </c>
       <c r="E620" s="0" t="n">
         <v>547</v>
@@ -10702,7 +10703,7 @@
         <v>0.026</v>
       </c>
       <c r="D621" s="0" t="n">
-        <v>0</v>
+        <v>1468104197</v>
       </c>
       <c r="E621" s="0" t="n">
         <v>456</v>
@@ -10719,7 +10720,7 @@
         <v>0.026</v>
       </c>
       <c r="D622" s="0" t="n">
-        <v>0</v>
+        <v>1468104198</v>
       </c>
       <c r="E622" s="0" t="n">
         <v>504</v>
@@ -10736,7 +10737,7 @@
         <v>0.026</v>
       </c>
       <c r="D623" s="0" t="n">
-        <v>0</v>
+        <v>1468104198</v>
       </c>
       <c r="E623" s="0" t="n">
         <v>500</v>
@@ -10753,7 +10754,7 @@
         <v>0.026</v>
       </c>
       <c r="D624" s="0" t="n">
-        <v>0</v>
+        <v>1468104199</v>
       </c>
       <c r="E624" s="0" t="n">
         <v>498</v>
@@ -10770,7 +10771,7 @@
         <v>0.026</v>
       </c>
       <c r="D625" s="0" t="n">
-        <v>0</v>
+        <v>1468104199</v>
       </c>
       <c r="E625" s="0" t="n">
         <v>539</v>
@@ -10787,7 +10788,7 @@
         <v>0.026</v>
       </c>
       <c r="D626" s="0" t="n">
-        <v>0</v>
+        <v>1468104200</v>
       </c>
       <c r="E626" s="0" t="n">
         <v>459</v>
@@ -10804,7 +10805,7 @@
         <v>0.026</v>
       </c>
       <c r="D627" s="0" t="n">
-        <v>0</v>
+        <v>1468104200</v>
       </c>
       <c r="E627" s="0" t="n">
         <v>490</v>
@@ -10821,7 +10822,7 @@
         <v>0.026</v>
       </c>
       <c r="D628" s="0" t="n">
-        <v>0</v>
+        <v>1468104201</v>
       </c>
       <c r="E628" s="0" t="n">
         <v>514</v>
@@ -10838,7 +10839,7 @@
         <v>0.026</v>
       </c>
       <c r="D629" s="0" t="n">
-        <v>0</v>
+        <v>1468104201</v>
       </c>
       <c r="E629" s="0" t="n">
         <v>494</v>
@@ -10855,7 +10856,7 @@
         <v>0.026</v>
       </c>
       <c r="D630" s="0" t="n">
-        <v>0</v>
+        <v>1468104202</v>
       </c>
       <c r="E630" s="0" t="n">
         <v>539</v>
@@ -10872,7 +10873,7 @@
         <v>0.026</v>
       </c>
       <c r="D631" s="0" t="n">
-        <v>0</v>
+        <v>1468104202</v>
       </c>
       <c r="E631" s="0" t="n">
         <v>450</v>
@@ -10889,7 +10890,7 @@
         <v>0.026</v>
       </c>
       <c r="D632" s="0" t="n">
-        <v>0</v>
+        <v>1468104203</v>
       </c>
       <c r="E632" s="0" t="n">
         <v>513</v>
@@ -10906,7 +10907,7 @@
         <v>0.026</v>
       </c>
       <c r="D633" s="0" t="n">
-        <v>0</v>
+        <v>1468104203</v>
       </c>
       <c r="E633" s="0" t="n">
         <v>485</v>
@@ -10923,7 +10924,7 @@
         <v>0.026</v>
       </c>
       <c r="D634" s="0" t="n">
-        <v>0</v>
+        <v>1468104204</v>
       </c>
       <c r="E634" s="0" t="n">
         <v>508</v>
@@ -10940,7 +10941,7 @@
         <v>0.026</v>
       </c>
       <c r="D635" s="0" t="n">
-        <v>0</v>
+        <v>1468104204</v>
       </c>
       <c r="E635" s="0" t="n">
         <v>542</v>
@@ -10957,7 +10958,7 @@
         <v>0.026</v>
       </c>
       <c r="D636" s="0" t="n">
-        <v>0</v>
+        <v>1468104205</v>
       </c>
       <c r="E636" s="0" t="n">
         <v>447</v>
@@ -10974,7 +10975,7 @@
         <v>0.026</v>
       </c>
       <c r="D637" s="0" t="n">
-        <v>0</v>
+        <v>1468104205</v>
       </c>
       <c r="E637" s="0" t="n">
         <v>500</v>
@@ -10991,7 +10992,7 @@
         <v>0.026</v>
       </c>
       <c r="D638" s="0" t="n">
-        <v>0</v>
+        <v>1468104206</v>
       </c>
       <c r="E638" s="0" t="n">
         <v>522</v>
@@ -11008,7 +11009,7 @@
         <v>0.026</v>
       </c>
       <c r="D639" s="0" t="n">
-        <v>0</v>
+        <v>1468104206</v>
       </c>
       <c r="E639" s="0" t="n">
         <v>491</v>
@@ -11025,7 +11026,7 @@
         <v>0.026</v>
       </c>
       <c r="D640" s="0" t="n">
-        <v>0</v>
+        <v>1468104207</v>
       </c>
       <c r="E640" s="0" t="n">
         <v>557</v>
@@ -11042,7 +11043,7 @@
         <v>0.026</v>
       </c>
       <c r="D641" s="0" t="n">
-        <v>0</v>
+        <v>1468104207</v>
       </c>
       <c r="E641" s="0" t="n">
         <v>443</v>
@@ -11059,7 +11060,7 @@
         <v>0.026</v>
       </c>
       <c r="D642" s="0" t="n">
-        <v>0</v>
+        <v>1468104208</v>
       </c>
       <c r="E642" s="0" t="n">
         <v>501</v>
@@ -11076,7 +11077,7 @@
         <v>0.026</v>
       </c>
       <c r="D643" s="0" t="n">
-        <v>0</v>
+        <v>1468104208</v>
       </c>
       <c r="E643" s="0" t="n">
         <v>492</v>
@@ -11093,7 +11094,7 @@
         <v>0.026</v>
       </c>
       <c r="D644" s="0" t="n">
-        <v>0</v>
+        <v>1468104209</v>
       </c>
       <c r="E644" s="0" t="n">
         <v>507</v>
@@ -11110,7 +11111,7 @@
         <v>0.026</v>
       </c>
       <c r="D645" s="0" t="n">
-        <v>0</v>
+        <v>1468104209</v>
       </c>
       <c r="E645" s="0" t="n">
         <v>541</v>
@@ -11127,7 +11128,7 @@
         <v>0.026</v>
       </c>
       <c r="D646" s="0" t="n">
-        <v>0</v>
+        <v>1468104210</v>
       </c>
       <c r="E646" s="0" t="n">
         <v>458</v>
@@ -11144,7 +11145,7 @@
         <v>0.026</v>
       </c>
       <c r="D647" s="0" t="n">
-        <v>0</v>
+        <v>1468104210</v>
       </c>
       <c r="E647" s="0" t="n">
         <v>499</v>
@@ -11161,7 +11162,7 @@
         <v>0.026</v>
       </c>
       <c r="D648" s="0" t="n">
-        <v>0</v>
+        <v>1468104211</v>
       </c>
       <c r="E648" s="0" t="n">
         <v>494</v>
@@ -11178,7 +11179,7 @@
         <v>0.026</v>
       </c>
       <c r="D649" s="0" t="n">
-        <v>0</v>
+        <v>1468104211</v>
       </c>
       <c r="E649" s="0" t="n">
         <v>500</v>
@@ -11195,7 +11196,7 @@
         <v>0.026</v>
       </c>
       <c r="D650" s="0" t="n">
-        <v>0</v>
+        <v>1468104212</v>
       </c>
       <c r="E650" s="0" t="n">
         <v>545</v>
@@ -11212,7 +11213,7 @@
         <v>0.026</v>
       </c>
       <c r="D651" s="0" t="n">
-        <v>0</v>
+        <v>1468104212</v>
       </c>
       <c r="E651" s="0" t="n">
         <v>450</v>
@@ -11229,7 +11230,7 @@
         <v>0.026</v>
       </c>
       <c r="D652" s="0" t="n">
-        <v>0</v>
+        <v>1468104213</v>
       </c>
       <c r="E652" s="0" t="n">
         <v>503</v>
@@ -11246,7 +11247,7 @@
         <v>0.026</v>
       </c>
       <c r="D653" s="0" t="n">
-        <v>0</v>
+        <v>1468104213</v>
       </c>
       <c r="E653" s="0" t="n">
         <v>496</v>
@@ -11263,7 +11264,7 @@
         <v>0.026</v>
       </c>
       <c r="D654" s="0" t="n">
-        <v>0</v>
+        <v>1468104214</v>
       </c>
       <c r="E654" s="0" t="n">
         <v>501</v>
@@ -11280,7 +11281,7 @@
         <v>0.026</v>
       </c>
       <c r="D655" s="0" t="n">
-        <v>0</v>
+        <v>1468104214</v>
       </c>
       <c r="E655" s="0" t="n">
         <v>543</v>
@@ -11297,7 +11298,7 @@
         <v>0.026</v>
       </c>
       <c r="D656" s="0" t="n">
-        <v>0</v>
+        <v>1468104215</v>
       </c>
       <c r="E656" s="0" t="n">
         <v>454</v>
@@ -11314,7 +11315,7 @@
         <v>0.026</v>
       </c>
       <c r="D657" s="0" t="n">
-        <v>0</v>
+        <v>1468104215</v>
       </c>
       <c r="E657" s="0" t="n">
         <v>500</v>
@@ -11331,7 +11332,7 @@
         <v>0.026</v>
       </c>
       <c r="D658" s="0" t="n">
-        <v>0</v>
+        <v>1468104216</v>
       </c>
       <c r="E658" s="0" t="n">
         <v>498</v>
@@ -11348,7 +11349,7 @@
         <v>0.026</v>
       </c>
       <c r="D659" s="0" t="n">
-        <v>0</v>
+        <v>1468104216</v>
       </c>
       <c r="E659" s="0" t="n">
         <v>500</v>
@@ -11365,7 +11366,7 @@
         <v>0.026</v>
       </c>
       <c r="D660" s="0" t="n">
-        <v>0</v>
+        <v>1468104217</v>
       </c>
       <c r="E660" s="0" t="n">
         <v>519</v>
@@ -11382,7 +11383,7 @@
         <v>0.026</v>
       </c>
       <c r="D661" s="0" t="n">
-        <v>0</v>
+        <v>1468104217</v>
       </c>
       <c r="E661" s="0" t="n">
         <v>480</v>
@@ -11399,7 +11400,7 @@
         <v>0.026</v>
       </c>
       <c r="D662" s="0" t="n">
-        <v>0</v>
+        <v>1468104218</v>
       </c>
       <c r="E662" s="0" t="n">
         <v>502</v>
@@ -11416,7 +11417,7 @@
         <v>0.026</v>
       </c>
       <c r="D663" s="0" t="n">
-        <v>0</v>
+        <v>1468104218</v>
       </c>
       <c r="E663" s="0" t="n">
         <v>487</v>
@@ -11433,7 +11434,7 @@
         <v>0.026</v>
       </c>
       <c r="D664" s="0" t="n">
-        <v>0</v>
+        <v>1468104219</v>
       </c>
       <c r="E664" s="0" t="n">
         <v>517</v>
@@ -11450,7 +11451,7 @@
         <v>0.026</v>
       </c>
       <c r="D665" s="0" t="n">
-        <v>0</v>
+        <v>1468104219</v>
       </c>
       <c r="E665" s="0" t="n">
         <v>540</v>
@@ -11467,7 +11468,7 @@
         <v>0.021</v>
       </c>
       <c r="D666" s="0" t="n">
-        <v>0</v>
+        <v>1468104220</v>
       </c>
       <c r="E666" s="0" t="n">
         <v>455</v>
@@ -11484,7 +11485,7 @@
         <v>0.021</v>
       </c>
       <c r="D667" s="0" t="n">
-        <v>0</v>
+        <v>1468104220</v>
       </c>
       <c r="E667" s="0" t="n">
         <v>502</v>
@@ -11501,7 +11502,7 @@
         <v>0.021</v>
       </c>
       <c r="D668" s="0" t="n">
-        <v>0</v>
+        <v>1468104221</v>
       </c>
       <c r="E668" s="0" t="n">
         <v>513</v>
@@ -11518,7 +11519,7 @@
         <v>0.021</v>
       </c>
       <c r="D669" s="0" t="n">
-        <v>0</v>
+        <v>1468104221</v>
       </c>
       <c r="E669" s="0" t="n">
         <v>480</v>
@@ -11535,7 +11536,7 @@
         <v>0.021</v>
       </c>
       <c r="D670" s="0" t="n">
-        <v>0</v>
+        <v>1468104222</v>
       </c>
       <c r="E670" s="0" t="n">
         <v>543</v>
@@ -11552,7 +11553,7 @@
         <v>0.021</v>
       </c>
       <c r="D671" s="0" t="n">
-        <v>0</v>
+        <v>1468104222</v>
       </c>
       <c r="E671" s="0" t="n">
         <v>451</v>
@@ -11569,7 +11570,7 @@
         <v>0.021</v>
       </c>
       <c r="D672" s="0" t="n">
-        <v>0</v>
+        <v>1468104223</v>
       </c>
       <c r="E672" s="0" t="n">
         <v>498</v>
@@ -11586,7 +11587,7 @@
         <v>0.021</v>
       </c>
       <c r="D673" s="0" t="n">
-        <v>0</v>
+        <v>1468104223</v>
       </c>
       <c r="E673" s="0" t="n">
         <v>501</v>
@@ -11603,7 +11604,7 @@
         <v>0.021</v>
       </c>
       <c r="D674" s="0" t="n">
-        <v>0</v>
+        <v>1468104224</v>
       </c>
       <c r="E674" s="0" t="n">
         <v>498</v>
@@ -11620,7 +11621,7 @@
         <v>0.021</v>
       </c>
       <c r="D675" s="0" t="n">
-        <v>0</v>
+        <v>1468104224</v>
       </c>
       <c r="E675" s="0" t="n">
         <v>548</v>
@@ -11637,7 +11638,7 @@
         <v>0.013</v>
       </c>
       <c r="D676" s="0" t="n">
-        <v>0</v>
+        <v>1468104225</v>
       </c>
       <c r="E676" s="0" t="n">
         <v>451</v>
@@ -11654,7 +11655,7 @@
         <v>0.009</v>
       </c>
       <c r="D677" s="0" t="n">
-        <v>0</v>
+        <v>1468104225</v>
       </c>
       <c r="E677" s="0" t="n">
         <v>500</v>
@@ -11671,7 +11672,7 @@
         <v>0.011</v>
       </c>
       <c r="D678" s="0" t="n">
-        <v>0</v>
+        <v>1468104226</v>
       </c>
       <c r="E678" s="0" t="n">
         <v>489</v>
@@ -11688,7 +11689,7 @@
         <v>0.011</v>
       </c>
       <c r="D679" s="0" t="n">
-        <v>0</v>
+        <v>1468104226</v>
       </c>
       <c r="E679" s="0" t="n">
         <v>511</v>
@@ -11705,7 +11706,7 @@
         <v>0.01</v>
       </c>
       <c r="D680" s="0" t="n">
-        <v>0</v>
+        <v>1468104227</v>
       </c>
       <c r="E680" s="0" t="n">
         <v>548</v>
@@ -11722,7 +11723,7 @@
         <v>0.01</v>
       </c>
       <c r="D681" s="0" t="n">
-        <v>0</v>
+        <v>1468104227</v>
       </c>
       <c r="E681" s="0" t="n">
         <v>439</v>
@@ -11739,7 +11740,7 @@
         <v>0.01</v>
       </c>
       <c r="D682" s="0" t="n">
-        <v>0</v>
+        <v>1468104228</v>
       </c>
       <c r="E682" s="0" t="n">
         <v>514</v>
@@ -11756,7 +11757,7 @@
         <v>0.01</v>
       </c>
       <c r="D683" s="0" t="n">
-        <v>0</v>
+        <v>1468104228</v>
       </c>
       <c r="E683" s="0" t="n">
         <v>498</v>
@@ -11773,7 +11774,7 @@
         <v>0.01</v>
       </c>
       <c r="D684" s="0" t="n">
-        <v>0</v>
+        <v>1468104229</v>
       </c>
       <c r="E684" s="0" t="n">
         <v>486</v>
@@ -11790,7 +11791,7 @@
         <v>0.01</v>
       </c>
       <c r="D685" s="0" t="n">
-        <v>0</v>
+        <v>1468104229</v>
       </c>
       <c r="E685" s="0" t="n">
         <v>551</v>
@@ -11807,7 +11808,7 @@
         <v>0.01</v>
       </c>
       <c r="D686" s="0" t="n">
-        <v>0</v>
+        <v>1468104230</v>
       </c>
       <c r="E686" s="0" t="n">
         <v>456</v>
@@ -11824,7 +11825,7 @@
         <v>0.01</v>
       </c>
       <c r="D687" s="0" t="n">
-        <v>0</v>
+        <v>1468104230</v>
       </c>
       <c r="E687" s="0" t="n">
         <v>500</v>
@@ -11841,7 +11842,7 @@
         <v>0.01</v>
       </c>
       <c r="D688" s="0" t="n">
-        <v>0</v>
+        <v>1468104231</v>
       </c>
       <c r="E688" s="0" t="n">
         <v>502</v>
@@ -11858,7 +11859,7 @@
         <v>0.01</v>
       </c>
       <c r="D689" s="0" t="n">
-        <v>0</v>
+        <v>1468104231</v>
       </c>
       <c r="E689" s="0" t="n">
         <v>501</v>
@@ -11875,7 +11876,7 @@
         <v>0.01</v>
       </c>
       <c r="D690" s="0" t="n">
-        <v>0</v>
+        <v>1468104232</v>
       </c>
       <c r="E690" s="0" t="n">
         <v>525</v>
@@ -11892,7 +11893,7 @@
         <v>0.01</v>
       </c>
       <c r="D691" s="0" t="n">
-        <v>0</v>
+        <v>1468104232</v>
       </c>
       <c r="E691" s="0" t="n">
         <v>476</v>
@@ -11909,7 +11910,7 @@
         <v>0.01</v>
       </c>
       <c r="D692" s="0" t="n">
-        <v>0</v>
+        <v>1468104233</v>
       </c>
       <c r="E692" s="0" t="n">
         <v>493</v>
@@ -11926,7 +11927,7 @@
         <v>0.01</v>
       </c>
       <c r="D693" s="0" t="n">
-        <v>0</v>
+        <v>1468104233</v>
       </c>
       <c r="E693" s="0" t="n">
         <v>497</v>
@@ -11943,7 +11944,7 @@
         <v>0.01</v>
       </c>
       <c r="D694" s="0" t="n">
-        <v>0</v>
+        <v>1468104234</v>
       </c>
       <c r="E694" s="0" t="n">
         <v>497</v>
@@ -11960,7 +11961,7 @@
         <v>0.01</v>
       </c>
       <c r="D695" s="0" t="n">
-        <v>0</v>
+        <v>1468104234</v>
       </c>
       <c r="E695" s="0" t="n">
         <v>533</v>
@@ -11977,7 +11978,7 @@
         <v>0.01</v>
       </c>
       <c r="D696" s="0" t="n">
-        <v>0</v>
+        <v>1468104235</v>
       </c>
       <c r="E696" s="0" t="n">
         <v>470</v>
@@ -11994,7 +11995,7 @@
         <v>0.01</v>
       </c>
       <c r="D697" s="0" t="n">
-        <v>0</v>
+        <v>1468104235</v>
       </c>
       <c r="E697" s="0" t="n">
         <v>497</v>
@@ -12011,7 +12012,7 @@
         <v>0.01</v>
       </c>
       <c r="D698" s="0" t="n">
-        <v>0</v>
+        <v>1468104236</v>
       </c>
       <c r="E698" s="0" t="n">
         <v>502</v>
@@ -12028,7 +12029,7 @@
         <v>0.01</v>
       </c>
       <c r="D699" s="0" t="n">
-        <v>0</v>
+        <v>1468104236</v>
       </c>
       <c r="E699" s="0" t="n">
         <v>495</v>
@@ -12045,7 +12046,7 @@
         <v>0.01</v>
       </c>
       <c r="D700" s="0" t="n">
-        <v>0</v>
+        <v>1468104237</v>
       </c>
       <c r="E700" s="0" t="n">
         <v>538</v>
@@ -12062,7 +12063,7 @@
         <v>0.01</v>
       </c>
       <c r="D701" s="0" t="n">
-        <v>0</v>
+        <v>1468104237</v>
       </c>
       <c r="E701" s="0" t="n">
         <v>465</v>
@@ -12079,7 +12080,7 @@
         <v>0.01</v>
       </c>
       <c r="D702" s="0" t="n">
-        <v>0</v>
+        <v>1468104238</v>
       </c>
       <c r="E702" s="0" t="n">
         <v>497</v>
@@ -12096,7 +12097,7 @@
         <v>0.01</v>
       </c>
       <c r="D703" s="0" t="n">
-        <v>0</v>
+        <v>1468104238</v>
       </c>
       <c r="E703" s="0" t="n">
         <v>499</v>
@@ -12113,7 +12114,7 @@
         <v>0.01</v>
       </c>
       <c r="D704" s="0" t="n">
-        <v>0</v>
+        <v>1468104239</v>
       </c>
       <c r="E704" s="0" t="n">
         <v>503</v>
@@ -12130,7 +12131,7 @@
         <v>0.01</v>
       </c>
       <c r="D705" s="0" t="n">
-        <v>0</v>
+        <v>1468104239</v>
       </c>
       <c r="E705" s="0" t="n">
         <v>490</v>
@@ -12147,7 +12148,7 @@
         <v>0.01</v>
       </c>
       <c r="D706" s="0" t="n">
-        <v>0</v>
+        <v>1468104240</v>
       </c>
       <c r="E706" s="0" t="n">
         <v>510</v>
@@ -12164,7 +12165,7 @@
         <v>0.01</v>
       </c>
       <c r="D707" s="0" t="n">
-        <v>0</v>
+        <v>1468104240</v>
       </c>
       <c r="E707" s="0" t="n">
         <v>497</v>
@@ -12181,7 +12182,7 @@
         <v>0.01</v>
       </c>
       <c r="D708" s="0" t="n">
-        <v>0</v>
+        <v>1468104241</v>
       </c>
       <c r="E708" s="0" t="n">
         <v>499</v>
@@ -12198,7 +12199,7 @@
         <v>0.01</v>
       </c>
       <c r="D709" s="0" t="n">
-        <v>0</v>
+        <v>1468104241</v>
       </c>
       <c r="E709" s="0" t="n">
         <v>495</v>
@@ -12215,7 +12216,7 @@
         <v>0.01</v>
       </c>
       <c r="D710" s="0" t="n">
-        <v>0</v>
+        <v>1468104242</v>
       </c>
       <c r="E710" s="0" t="n">
         <v>502</v>
@@ -12232,7 +12233,7 @@
         <v>0.01</v>
       </c>
       <c r="D711" s="0" t="n">
-        <v>0</v>
+        <v>1468104242</v>
       </c>
       <c r="E711" s="0" t="n">
         <v>468</v>
@@ -12249,7 +12250,7 @@
         <v>0.01</v>
       </c>
       <c r="D712" s="0" t="n">
-        <v>0</v>
+        <v>1468104243</v>
       </c>
       <c r="E712" s="0" t="n">
         <v>512</v>
@@ -12266,7 +12267,7 @@
         <v>0.01</v>
       </c>
       <c r="D713" s="0" t="n">
-        <v>0</v>
+        <v>1468104243</v>
       </c>
       <c r="E713" s="0" t="n">
         <v>499</v>
@@ -12283,7 +12284,7 @@
         <v>0.01</v>
       </c>
       <c r="D714" s="0" t="n">
-        <v>0</v>
+        <v>1468104244</v>
       </c>
       <c r="E714" s="0" t="n">
         <v>492</v>
@@ -12300,7 +12301,7 @@
         <v>0.01</v>
       </c>
       <c r="D715" s="0" t="n">
-        <v>0</v>
+        <v>1468104244</v>
       </c>
       <c r="E715" s="0" t="n">
         <v>541</v>
@@ -12317,7 +12318,7 @@
         <v>0.01</v>
       </c>
       <c r="D716" s="0" t="n">
-        <v>0</v>
+        <v>1468104245</v>
       </c>
       <c r="E716" s="0" t="n">
         <v>456</v>
@@ -12334,7 +12335,7 @@
         <v>0.01</v>
       </c>
       <c r="D717" s="0" t="n">
-        <v>0</v>
+        <v>1468104245</v>
       </c>
       <c r="E717" s="0" t="n">
         <v>490</v>
@@ -12351,7 +12352,7 @@
         <v>0.01</v>
       </c>
       <c r="D718" s="0" t="n">
-        <v>0</v>
+        <v>1468104246</v>
       </c>
       <c r="E718" s="0" t="n">
         <v>508</v>
@@ -12368,7 +12369,7 @@
         <v>0.01</v>
       </c>
       <c r="D719" s="0" t="n">
-        <v>0</v>
+        <v>1468104246</v>
       </c>
       <c r="E719" s="0" t="n">
         <v>490</v>
@@ -12385,7 +12386,7 @@
         <v>0.013</v>
       </c>
       <c r="D720" s="0" t="n">
-        <v>0</v>
+        <v>1468104247</v>
       </c>
       <c r="E720" s="0" t="n">
         <v>547</v>
@@ -12402,7 +12403,7 @@
         <v>0.013</v>
       </c>
       <c r="D721" s="0" t="n">
-        <v>0</v>
+        <v>1468104247</v>
       </c>
       <c r="E721" s="0" t="n">
         <v>462</v>
@@ -12419,7 +12420,7 @@
         <v>0.013</v>
       </c>
       <c r="D722" s="0" t="n">
-        <v>0</v>
+        <v>1468104248</v>
       </c>
       <c r="E722" s="0" t="n">
         <v>497</v>
@@ -12436,7 +12437,7 @@
         <v>0.013</v>
       </c>
       <c r="D723" s="0" t="n">
-        <v>0</v>
+        <v>1468104248</v>
       </c>
       <c r="E723" s="0" t="n">
         <v>491</v>
@@ -12453,7 +12454,7 @@
         <v>0.013</v>
       </c>
       <c r="D724" s="0" t="n">
-        <v>0</v>
+        <v>1468104249</v>
       </c>
       <c r="E724" s="0" t="n">
         <v>499</v>
@@ -12470,7 +12471,7 @@
         <v>0.013</v>
       </c>
       <c r="D725" s="0" t="n">
-        <v>0</v>
+        <v>1468104249</v>
       </c>
       <c r="E725" s="0" t="n">
         <v>547</v>
@@ -12487,7 +12488,7 @@
         <v>0.013</v>
       </c>
       <c r="D726" s="0" t="n">
-        <v>0</v>
+        <v>1468104250</v>
       </c>
       <c r="E726" s="0" t="n">
         <v>459</v>
@@ -12504,7 +12505,7 @@
         <v>0.013</v>
       </c>
       <c r="D727" s="0" t="n">
-        <v>0</v>
+        <v>1468104250</v>
       </c>
       <c r="E727" s="0" t="n">
         <v>492</v>
@@ -12521,7 +12522,7 @@
         <v>0.013</v>
       </c>
       <c r="D728" s="0" t="n">
-        <v>0</v>
+        <v>1468104251</v>
       </c>
       <c r="E728" s="0" t="n">
         <v>515</v>
@@ -12538,7 +12539,7 @@
         <v>0.013</v>
       </c>
       <c r="D729" s="0" t="n">
-        <v>0</v>
+        <v>1468104251</v>
       </c>
       <c r="E729" s="0" t="n">
         <v>498</v>
@@ -12555,7 +12556,7 @@
         <v>0.013</v>
       </c>
       <c r="D730" s="0" t="n">
-        <v>0</v>
+        <v>1468104252</v>
       </c>
       <c r="E730" s="0" t="n">
         <v>534</v>
@@ -12572,7 +12573,7 @@
         <v>0.013</v>
       </c>
       <c r="D731" s="0" t="n">
-        <v>0</v>
+        <v>1468104252</v>
       </c>
       <c r="E731" s="0" t="n">
         <v>461</v>
@@ -12589,7 +12590,7 @@
         <v>0.013</v>
       </c>
       <c r="D732" s="0" t="n">
-        <v>0</v>
+        <v>1468104253</v>
       </c>
       <c r="E732" s="0" t="n">
         <v>489</v>
@@ -12606,7 +12607,7 @@
         <v>0.008</v>
       </c>
       <c r="D733" s="0" t="n">
-        <v>0</v>
+        <v>1468104253</v>
       </c>
       <c r="E733" s="0" t="n">
         <v>510</v>
@@ -12623,7 +12624,7 @@
         <v>0.008</v>
       </c>
       <c r="D734" s="0" t="n">
-        <v>0</v>
+        <v>1468104254</v>
       </c>
       <c r="E734" s="0" t="n">
         <v>497</v>
@@ -12640,7 +12641,7 @@
         <v>0.008</v>
       </c>
       <c r="D735" s="0" t="n">
-        <v>0</v>
+        <v>1468104254</v>
       </c>
       <c r="E735" s="0" t="n">
         <v>542</v>
@@ -12657,7 +12658,7 @@
         <v>0.008</v>
       </c>
       <c r="D736" s="0" t="n">
-        <v>0</v>
+        <v>1468104255</v>
       </c>
       <c r="E736" s="0" t="n">
         <v>462</v>
@@ -12674,7 +12675,7 @@
         <v>0.008</v>
       </c>
       <c r="D737" s="0" t="n">
-        <v>0</v>
+        <v>1468104255</v>
       </c>
       <c r="E737" s="0" t="n">
         <v>497</v>
@@ -12691,7 +12692,7 @@
         <v>0.008</v>
       </c>
       <c r="D738" s="0" t="n">
-        <v>0</v>
+        <v>1468104256</v>
       </c>
       <c r="E738" s="0" t="n">
         <v>504</v>
@@ -12708,7 +12709,7 @@
         <v>0.008</v>
       </c>
       <c r="D739" s="0" t="n">
-        <v>0</v>
+        <v>1468104256</v>
       </c>
       <c r="E739" s="0" t="n">
         <v>493</v>
@@ -12725,7 +12726,7 @@
         <v>0.008</v>
       </c>
       <c r="D740" s="0" t="n">
-        <v>0</v>
+        <v>1468104257</v>
       </c>
       <c r="E740" s="0" t="n">
         <v>491</v>
@@ -12742,7 +12743,7 @@
         <v>0.008</v>
       </c>
       <c r="D741" s="0" t="n">
-        <v>0</v>
+        <v>1468104257</v>
       </c>
       <c r="E741" s="0" t="n">
         <v>508</v>
@@ -12759,7 +12760,7 @@
         <v>0.008</v>
       </c>
       <c r="D742" s="0" t="n">
-        <v>0</v>
+        <v>1468104258</v>
       </c>
       <c r="E742" s="0" t="n">
         <v>490</v>
@@ -12776,7 +12777,7 @@
         <v>0.008</v>
       </c>
       <c r="D743" s="0" t="n">
-        <v>0</v>
+        <v>1468104258</v>
       </c>
       <c r="E743" s="0" t="n">
         <v>500</v>
@@ -12793,7 +12794,7 @@
         <v>0.008</v>
       </c>
       <c r="D744" s="0" t="n">
-        <v>0</v>
+        <v>1468104259</v>
       </c>
       <c r="E744" s="0" t="n">
         <v>508</v>
@@ -12810,7 +12811,7 @@
         <v>0.008</v>
       </c>
       <c r="D745" s="0" t="n">
-        <v>0</v>
+        <v>1468104259</v>
       </c>
       <c r="E745" s="0" t="n">
         <v>539</v>
@@ -12827,7 +12828,7 @@
         <v>0.008</v>
       </c>
       <c r="D746" s="0" t="n">
-        <v>0</v>
+        <v>1468104260</v>
       </c>
       <c r="E746" s="0" t="n">
         <v>450</v>
@@ -12844,7 +12845,7 @@
         <v>0.008</v>
       </c>
       <c r="D747" s="0" t="n">
-        <v>0</v>
+        <v>1468104260</v>
       </c>
       <c r="E747" s="0" t="n">
         <v>500</v>
@@ -12861,7 +12862,7 @@
         <v>0.008</v>
       </c>
       <c r="D748" s="0" t="n">
-        <v>0</v>
+        <v>1468104261</v>
       </c>
       <c r="E748" s="0" t="n">
         <v>509</v>
@@ -12878,7 +12879,7 @@
         <v>0.008</v>
       </c>
       <c r="D749" s="0" t="n">
-        <v>0</v>
+        <v>1468104261</v>
       </c>
       <c r="E749" s="0" t="n">
         <v>490</v>
@@ -12895,7 +12896,7 @@
         <v>0.008</v>
       </c>
       <c r="D750" s="0" t="n">
-        <v>0</v>
+        <v>1468104262</v>
       </c>
       <c r="E750" s="0" t="n">
         <v>547</v>
@@ -12912,7 +12913,7 @@
         <v>0.008</v>
       </c>
       <c r="D751" s="0" t="n">
-        <v>0</v>
+        <v>1468104262</v>
       </c>
       <c r="E751" s="0" t="n">
         <v>461</v>
@@ -12929,7 +12930,7 @@
         <v>0.008</v>
       </c>
       <c r="D752" s="0" t="n">
-        <v>0</v>
+        <v>1468104263</v>
       </c>
       <c r="E752" s="0" t="n">
         <v>505</v>
@@ -12946,7 +12947,7 @@
         <v>0.008</v>
       </c>
       <c r="D753" s="0" t="n">
-        <v>0</v>
+        <v>1468104263</v>
       </c>
       <c r="E753" s="0" t="n">
         <v>494</v>
@@ -12963,7 +12964,7 @@
         <v>0.008</v>
       </c>
       <c r="D754" s="0" t="n">
-        <v>0</v>
+        <v>1468104264</v>
       </c>
       <c r="E754" s="0" t="n">
         <v>498</v>
@@ -12980,7 +12981,7 @@
         <v>0.008</v>
       </c>
       <c r="D755" s="0" t="n">
-        <v>0</v>
+        <v>1468104264</v>
       </c>
       <c r="E755" s="0" t="n">
         <v>501</v>
@@ -12997,7 +12998,7 @@
         <v>0.008</v>
       </c>
       <c r="D756" s="0" t="n">
-        <v>0</v>
+        <v>1468104265</v>
       </c>
       <c r="E756" s="0" t="n">
         <v>498</v>
@@ -13014,7 +13015,7 @@
         <v>0.008</v>
       </c>
       <c r="D757" s="0" t="n">
-        <v>0</v>
+        <v>1468104265</v>
       </c>
       <c r="E757" s="0" t="n">
         <v>501</v>
@@ -13031,7 +13032,7 @@
         <v>0.008</v>
       </c>
       <c r="D758" s="0" t="n">
-        <v>0</v>
+        <v>1468104266</v>
       </c>
       <c r="E758" s="0" t="n">
         <v>506</v>
@@ -13048,7 +13049,7 @@
         <v>0.008</v>
       </c>
       <c r="D759" s="0" t="n">
-        <v>0</v>
+        <v>1468104266</v>
       </c>
       <c r="E759" s="0" t="n">
         <v>497</v>
@@ -13065,7 +13066,7 @@
         <v>0.008</v>
       </c>
       <c r="D760" s="0" t="n">
-        <v>0</v>
+        <v>1468104267</v>
       </c>
       <c r="E760" s="0" t="n">
         <v>533</v>
@@ -13082,7 +13083,7 @@
         <v>0.008</v>
       </c>
       <c r="D761" s="0" t="n">
-        <v>0</v>
+        <v>1468104267</v>
       </c>
       <c r="E761" s="0" t="n">
         <v>460</v>
@@ -13099,7 +13100,7 @@
         <v>0.008</v>
       </c>
       <c r="D762" s="0" t="n">
-        <v>0</v>
+        <v>1468104268</v>
       </c>
       <c r="E762" s="0" t="n">
         <v>498</v>
@@ -13116,7 +13117,7 @@
         <v>0.008</v>
       </c>
       <c r="D763" s="0" t="n">
-        <v>0</v>
+        <v>1468104268</v>
       </c>
       <c r="E763" s="0" t="n">
         <v>501</v>
@@ -13133,7 +13134,7 @@
         <v>0.008</v>
       </c>
       <c r="D764" s="0" t="n">
-        <v>0</v>
+        <v>1468104269</v>
       </c>
       <c r="E764" s="0" t="n">
         <v>497</v>
@@ -13150,7 +13151,7 @@
         <v>0.008</v>
       </c>
       <c r="D765" s="0" t="n">
-        <v>0</v>
+        <v>1468104269</v>
       </c>
       <c r="E765" s="0" t="n">
         <v>492</v>
@@ -13167,7 +13168,7 @@
         <v>0.014</v>
       </c>
       <c r="D766" s="0" t="n">
-        <v>0</v>
+        <v>1468104270</v>
       </c>
       <c r="E766" s="0" t="n">
         <v>506</v>
@@ -13184,7 +13185,7 @@
         <v>0.008</v>
       </c>
       <c r="D767" s="0" t="n">
-        <v>0</v>
+        <v>1468104270</v>
       </c>
       <c r="E767" s="0" t="n">
         <v>500</v>
@@ -13201,7 +13202,7 @@
         <v>0.008</v>
       </c>
       <c r="D768" s="0" t="n">
-        <v>0</v>
+        <v>1468104271</v>
       </c>
       <c r="E768" s="0" t="n">
         <v>502</v>
@@ -13218,7 +13219,7 @@
         <v>0.008</v>
       </c>
       <c r="D769" s="0" t="n">
-        <v>0</v>
+        <v>1468104271</v>
       </c>
       <c r="E769" s="0" t="n">
         <v>508</v>
@@ -13235,7 +13236,7 @@
         <v>0.008</v>
       </c>
       <c r="D770" s="0" t="n">
-        <v>0</v>
+        <v>1468104272</v>
       </c>
       <c r="E770" s="0" t="n">
         <v>525</v>
@@ -13252,7 +13253,7 @@
         <v>0.008</v>
       </c>
       <c r="D771" s="0" t="n">
-        <v>0</v>
+        <v>1468104272</v>
       </c>
       <c r="E771" s="0" t="n">
         <v>464</v>
@@ -13269,7 +13270,7 @@
         <v>0.008</v>
       </c>
       <c r="D772" s="0" t="n">
-        <v>0</v>
+        <v>1468104273</v>
       </c>
       <c r="E772" s="0" t="n">
         <v>497</v>
@@ -13286,7 +13287,7 @@
         <v>0.008</v>
       </c>
       <c r="D773" s="0" t="n">
-        <v>0</v>
+        <v>1468104273</v>
       </c>
       <c r="E773" s="0" t="n">
         <v>500</v>
@@ -13303,7 +13304,7 @@
         <v>0.008</v>
       </c>
       <c r="D774" s="0" t="n">
-        <v>0</v>
+        <v>1468104274</v>
       </c>
       <c r="E774" s="0" t="n">
         <v>502</v>
@@ -13320,7 +13321,7 @@
         <v>0.008</v>
       </c>
       <c r="D775" s="0" t="n">
-        <v>0</v>
+        <v>1468104274</v>
       </c>
       <c r="E775" s="0" t="n">
         <v>544</v>
@@ -13337,7 +13338,7 @@
         <v>0.008</v>
       </c>
       <c r="D776" s="0" t="n">
-        <v>0</v>
+        <v>1468104275</v>
       </c>
       <c r="E776" s="0" t="n">
         <v>456</v>
@@ -13354,7 +13355,7 @@
         <v>0.008</v>
       </c>
       <c r="D777" s="0" t="n">
-        <v>0</v>
+        <v>1468104275</v>
       </c>
       <c r="E777" s="0" t="n">
         <v>498</v>
@@ -13371,7 +13372,7 @@
         <v>0.008</v>
       </c>
       <c r="D778" s="0" t="n">
-        <v>0</v>
+        <v>1468104276</v>
       </c>
       <c r="E778" s="0" t="n">
         <v>499</v>
@@ -13388,7 +13389,7 @@
         <v>0.008</v>
       </c>
       <c r="D779" s="0" t="n">
-        <v>0</v>
+        <v>1468104276</v>
       </c>
       <c r="E779" s="0" t="n">
         <v>500</v>
@@ -13405,7 +13406,7 @@
         <v>0.008</v>
       </c>
       <c r="D780" s="0" t="n">
-        <v>0</v>
+        <v>1468104277</v>
       </c>
       <c r="E780" s="0" t="n">
         <v>487</v>
@@ -13422,7 +13423,7 @@
         <v>0.008</v>
       </c>
       <c r="D781" s="0" t="n">
-        <v>0</v>
+        <v>1468104277</v>
       </c>
       <c r="E781" s="0" t="n">
         <v>509</v>
@@ -13439,7 +13440,7 @@
         <v>0.008</v>
       </c>
       <c r="D782" s="0" t="n">
-        <v>0</v>
+        <v>1468104278</v>
       </c>
       <c r="E782" s="0" t="n">
         <v>498</v>
@@ -13456,7 +13457,7 @@
         <v>0.008</v>
       </c>
       <c r="D783" s="0" t="n">
-        <v>0</v>
+        <v>1468104278</v>
       </c>
       <c r="E783" s="0" t="n">
         <v>501</v>
@@ -13473,7 +13474,7 @@
         <v>0.008</v>
       </c>
       <c r="D784" s="0" t="n">
-        <v>0</v>
+        <v>1468104279</v>
       </c>
       <c r="E784" s="0" t="n">
         <v>500</v>
@@ -13490,7 +13491,7 @@
         <v>0.008</v>
       </c>
       <c r="D785" s="0" t="n">
-        <v>0</v>
+        <v>1468104279</v>
       </c>
       <c r="E785" s="0" t="n">
         <v>525</v>
@@ -13507,7 +13508,7 @@
         <v>0.008</v>
       </c>
       <c r="D786" s="0" t="n">
-        <v>0</v>
+        <v>1468104280</v>
       </c>
       <c r="E786" s="0" t="n">
         <v>473</v>
@@ -13524,7 +13525,7 @@
         <v>0.008</v>
       </c>
       <c r="D787" s="0" t="n">
-        <v>0</v>
+        <v>1468104280</v>
       </c>
       <c r="E787" s="0" t="n">
         <v>501</v>
@@ -13541,7 +13542,7 @@
         <v>0.008</v>
       </c>
       <c r="D788" s="0" t="n">
-        <v>0</v>
+        <v>1468104281</v>
       </c>
       <c r="E788" s="0" t="n">
         <v>499</v>
@@ -13558,7 +13559,7 @@
         <v>0.008</v>
       </c>
       <c r="D789" s="0" t="n">
-        <v>0</v>
+        <v>1468104281</v>
       </c>
       <c r="E789" s="0" t="n">
         <v>497</v>
@@ -13575,7 +13576,7 @@
         <v>0.008</v>
       </c>
       <c r="D790" s="0" t="n">
-        <v>0</v>
+        <v>1468104282</v>
       </c>
       <c r="E790" s="0" t="n">
         <v>527</v>
@@ -13592,7 +13593,7 @@
         <v>0.008</v>
       </c>
       <c r="D791" s="0" t="n">
-        <v>0</v>
+        <v>1468104282</v>
       </c>
       <c r="E791" s="0" t="n">
         <v>475</v>
@@ -13609,7 +13610,7 @@
         <v>0.008</v>
       </c>
       <c r="D792" s="0" t="n">
-        <v>0</v>
+        <v>1468104283</v>
       </c>
       <c r="E792" s="0" t="n">
         <v>493</v>
@@ -13626,7 +13627,7 @@
         <v>0.008</v>
       </c>
       <c r="D793" s="0" t="n">
-        <v>0</v>
+        <v>1468104283</v>
       </c>
       <c r="E793" s="0" t="n">
         <v>502</v>
@@ -13643,7 +13644,7 @@
         <v>0.008</v>
       </c>
       <c r="D794" s="0" t="n">
-        <v>0</v>
+        <v>1468104284</v>
       </c>
       <c r="E794" s="0" t="n">
         <v>502</v>
@@ -13660,7 +13661,7 @@
         <v>0.008</v>
       </c>
       <c r="D795" s="0" t="n">
-        <v>0</v>
+        <v>1468104284</v>
       </c>
       <c r="E795" s="0" t="n">
         <v>531</v>
@@ -13677,7 +13678,7 @@
         <v>0.008</v>
       </c>
       <c r="D796" s="0" t="n">
-        <v>0</v>
+        <v>1468104285</v>
       </c>
       <c r="E796" s="0" t="n">
         <v>465</v>
@@ -13694,7 +13695,7 @@
         <v>0.008</v>
       </c>
       <c r="D797" s="0" t="n">
-        <v>0</v>
+        <v>1468104285</v>
       </c>
       <c r="E797" s="0" t="n">
         <v>502</v>
@@ -13711,7 +13712,7 @@
         <v>0.008</v>
       </c>
       <c r="D798" s="0" t="n">
-        <v>0</v>
+        <v>1468104286</v>
       </c>
       <c r="E798" s="0" t="n">
         <v>499</v>
@@ -13728,7 +13729,7 @@
         <v>0.008</v>
       </c>
       <c r="D799" s="0" t="n">
-        <v>0</v>
+        <v>1468104286</v>
       </c>
       <c r="E799" s="0" t="n">
         <v>500</v>
@@ -13745,7 +13746,7 @@
         <v>0.008</v>
       </c>
       <c r="D800" s="0" t="n">
-        <v>0</v>
+        <v>1468104287</v>
       </c>
       <c r="E800" s="0" t="n">
         <v>588</v>
@@ -13762,7 +13763,7 @@
         <v>0.008</v>
       </c>
       <c r="D801" s="0" t="n">
-        <v>0</v>
+        <v>1468104287</v>
       </c>
       <c r="E801" s="0" t="n">
         <v>411</v>
@@ -13779,7 +13780,7 @@
         <v>0.008</v>
       </c>
       <c r="D802" s="0" t="n">
-        <v>0</v>
+        <v>1468104288</v>
       </c>
       <c r="E802" s="0" t="n">
         <v>499</v>
@@ -13796,7 +13797,7 @@
         <v>0.008</v>
       </c>
       <c r="D803" s="0" t="n">
-        <v>0</v>
+        <v>1468104288</v>
       </c>
       <c r="E803" s="0" t="n">
         <v>499</v>
@@ -13813,7 +13814,7 @@
         <v>0.008</v>
       </c>
       <c r="D804" s="0" t="n">
-        <v>0</v>
+        <v>1468104289</v>
       </c>
       <c r="E804" s="0" t="n">
         <v>499</v>
@@ -13830,7 +13831,7 @@
         <v>0.008</v>
       </c>
       <c r="D805" s="0" t="n">
-        <v>0</v>
+        <v>1468104289</v>
       </c>
       <c r="E805" s="0" t="n">
         <v>537</v>
@@ -13847,7 +13848,7 @@
         <v>0.008</v>
       </c>
       <c r="D806" s="0" t="n">
-        <v>0</v>
+        <v>1468104290</v>
       </c>
       <c r="E806" s="0" t="n">
         <v>462</v>
@@ -13864,7 +13865,7 @@
         <v>0.008</v>
       </c>
       <c r="D807" s="0" t="n">
-        <v>0</v>
+        <v>1468104290</v>
       </c>
       <c r="E807" s="0" t="n">
         <v>499</v>
@@ -13881,7 +13882,7 @@
         <v>0.008</v>
       </c>
       <c r="D808" s="0" t="n">
-        <v>0</v>
+        <v>1468104291</v>
       </c>
       <c r="E808" s="0" t="n">
         <v>505</v>
@@ -13898,7 +13899,7 @@
         <v>0.008</v>
       </c>
       <c r="D809" s="0" t="n">
-        <v>0</v>
+        <v>1468104291</v>
       </c>
       <c r="E809" s="0" t="n">
         <v>494</v>
@@ -13915,7 +13916,7 @@
         <v>0.008</v>
       </c>
       <c r="D810" s="0" t="n">
-        <v>0</v>
+        <v>1468104292</v>
       </c>
       <c r="E810" s="0" t="n">
         <v>551</v>
@@ -13932,7 +13933,7 @@
         <v>0.008</v>
       </c>
       <c r="D811" s="0" t="n">
-        <v>0</v>
+        <v>1468104292</v>
       </c>
       <c r="E811" s="0" t="n">
         <v>447</v>
@@ -13949,7 +13950,7 @@
         <v>0.008</v>
       </c>
       <c r="D812" s="0" t="n">
-        <v>0</v>
+        <v>1468104293</v>
       </c>
       <c r="E812" s="0" t="n">
         <v>500</v>
@@ -13966,7 +13967,7 @@
         <v>0.008</v>
       </c>
       <c r="D813" s="0" t="n">
-        <v>0</v>
+        <v>1468104293</v>
       </c>
       <c r="E813" s="0" t="n">
         <v>500</v>
@@ -13983,7 +13984,7 @@
         <v>0.008</v>
       </c>
       <c r="D814" s="0" t="n">
-        <v>0</v>
+        <v>1468104294</v>
       </c>
       <c r="E814" s="0" t="n">
         <v>499</v>
@@ -14000,7 +14001,7 @@
         <v>0.008</v>
       </c>
       <c r="D815" s="0" t="n">
-        <v>0</v>
+        <v>1468104294</v>
       </c>
       <c r="E815" s="0" t="n">
         <v>537</v>
@@ -14017,7 +14018,7 @@
         <v>0.008</v>
       </c>
       <c r="D816" s="0" t="n">
-        <v>0</v>
+        <v>1468104295</v>
       </c>
       <c r="E816" s="0" t="n">
         <v>461</v>
@@ -14034,7 +14035,7 @@
         <v>0.008</v>
       </c>
       <c r="D817" s="0" t="n">
-        <v>0</v>
+        <v>1468104295</v>
       </c>
       <c r="E817" s="0" t="n">
         <v>497</v>
@@ -14051,7 +14052,7 @@
         <v>0.008</v>
       </c>
       <c r="D818" s="0" t="n">
-        <v>0</v>
+        <v>1468104296</v>
       </c>
       <c r="E818" s="0" t="n">
         <v>502</v>
@@ -14068,7 +14069,7 @@
         <v>0.008</v>
       </c>
       <c r="D819" s="0" t="n">
-        <v>0</v>
+        <v>1468104296</v>
       </c>
       <c r="E819" s="0" t="n">
         <v>500</v>
@@ -14085,7 +14086,7 @@
         <v>0.008</v>
       </c>
       <c r="D820" s="0" t="n">
-        <v>0</v>
+        <v>1468104297</v>
       </c>
       <c r="E820" s="0" t="n">
         <v>517</v>
@@ -14102,7 +14103,7 @@
         <v>0.008</v>
       </c>
       <c r="D821" s="0" t="n">
-        <v>0</v>
+        <v>1468104297</v>
       </c>
       <c r="E821" s="0" t="n">
         <v>481</v>
@@ -14119,7 +14120,7 @@
         <v>0.008</v>
       </c>
       <c r="D822" s="0" t="n">
-        <v>0</v>
+        <v>1468104298</v>
       </c>
       <c r="E822" s="0" t="n">
         <v>499</v>
@@ -14136,7 +14137,7 @@
         <v>0.008</v>
       </c>
       <c r="D823" s="0" t="n">
-        <v>0</v>
+        <v>1468104298</v>
       </c>
       <c r="E823" s="0" t="n">
         <v>498</v>
@@ -14153,7 +14154,7 @@
         <v>0.008</v>
       </c>
       <c r="D824" s="0" t="n">
-        <v>0</v>
+        <v>1468104299</v>
       </c>
       <c r="E824" s="0" t="n">
         <v>502</v>
@@ -14170,7 +14171,7 @@
         <v>0.008</v>
       </c>
       <c r="D825" s="0" t="n">
-        <v>0</v>
+        <v>1468104299</v>
       </c>
       <c r="E825" s="0" t="n">
         <v>538</v>
@@ -14187,7 +14188,7 @@
         <v>0.008</v>
       </c>
       <c r="D826" s="0" t="n">
-        <v>0</v>
+        <v>1468104300</v>
       </c>
       <c r="E826" s="0" t="n">
         <v>457</v>
@@ -14204,7 +14205,7 @@
         <v>0.008</v>
       </c>
       <c r="D827" s="0" t="n">
-        <v>0</v>
+        <v>1468104300</v>
       </c>
       <c r="E827" s="0" t="n">
         <v>502</v>
@@ -14221,7 +14222,7 @@
         <v>0.008</v>
       </c>
       <c r="D828" s="0" t="n">
-        <v>0</v>
+        <v>1468104301</v>
       </c>
       <c r="E828" s="0" t="n">
         <v>497</v>
@@ -14238,7 +14239,7 @@
         <v>0.008</v>
       </c>
       <c r="D829" s="0" t="n">
-        <v>0</v>
+        <v>1468104301</v>
       </c>
       <c r="E829" s="0" t="n">
         <v>509</v>
@@ -14255,7 +14256,7 @@
         <v>0.008</v>
       </c>
       <c r="D830" s="0" t="n">
-        <v>0</v>
+        <v>1468104302</v>
       </c>
       <c r="E830" s="0" t="n">
         <v>530</v>
@@ -14272,7 +14273,7 @@
         <v>0.008</v>
       </c>
       <c r="D831" s="0" t="n">
-        <v>0</v>
+        <v>1468104302</v>
       </c>
       <c r="E831" s="0" t="n">
         <v>466</v>
@@ -14289,7 +14290,7 @@
         <v>0.008</v>
       </c>
       <c r="D832" s="0" t="n">
-        <v>0</v>
+        <v>1468104303</v>
       </c>
       <c r="E832" s="0" t="n">
         <v>496</v>
@@ -14306,7 +14307,7 @@
         <v>0.008</v>
       </c>
       <c r="D833" s="0" t="n">
-        <v>0</v>
+        <v>1468104303</v>
       </c>
       <c r="E833" s="0" t="n">
         <v>498</v>
@@ -14323,7 +14324,7 @@
         <v>0.008</v>
       </c>
       <c r="D834" s="0" t="n">
-        <v>0</v>
+        <v>1468104304</v>
       </c>
       <c r="E834" s="0" t="n">
         <v>499</v>
@@ -14340,7 +14341,7 @@
         <v>0.008</v>
       </c>
       <c r="D835" s="0" t="n">
-        <v>0</v>
+        <v>1468104304</v>
       </c>
       <c r="E835" s="0" t="n">
         <v>517</v>
@@ -14357,7 +14358,7 @@
         <v>0.008</v>
       </c>
       <c r="D836" s="0" t="n">
-        <v>0</v>
+        <v>1468104305</v>
       </c>
       <c r="E836" s="0" t="n">
         <v>482</v>
@@ -14374,7 +14375,7 @@
         <v>0.008</v>
       </c>
       <c r="D837" s="0" t="n">
-        <v>0</v>
+        <v>1468104305</v>
       </c>
       <c r="E837" s="0" t="n">
         <v>500</v>
@@ -14391,7 +14392,7 @@
         <v>0.008</v>
       </c>
       <c r="D838" s="0" t="n">
-        <v>0</v>
+        <v>1468104306</v>
       </c>
       <c r="E838" s="0" t="n">
         <v>499</v>
@@ -14408,7 +14409,7 @@
         <v>0.008</v>
       </c>
       <c r="D839" s="0" t="n">
-        <v>0</v>
+        <v>1468104306</v>
       </c>
       <c r="E839" s="0" t="n">
         <v>499</v>
@@ -14425,7 +14426,7 @@
         <v>0.014</v>
       </c>
       <c r="D840" s="0" t="n">
-        <v>0</v>
+        <v>1468104307</v>
       </c>
       <c r="E840" s="0" t="n">
         <v>536</v>
@@ -14442,7 +14443,7 @@
         <v>0.008</v>
       </c>
       <c r="D841" s="0" t="n">
-        <v>0</v>
+        <v>1468104307</v>
       </c>
       <c r="E841" s="0" t="n">
         <v>457</v>
@@ -14459,7 +14460,7 @@
         <v>0.008</v>
       </c>
       <c r="D842" s="0" t="n">
-        <v>0</v>
+        <v>1468104308</v>
       </c>
       <c r="E842" s="0" t="n">
         <v>501</v>
@@ -14476,7 +14477,7 @@
         <v>0.008</v>
       </c>
       <c r="D843" s="0" t="n">
-        <v>0</v>
+        <v>1468104308</v>
       </c>
       <c r="E843" s="0" t="n">
         <v>500</v>
@@ -14493,7 +14494,7 @@
         <v>0.008</v>
       </c>
       <c r="D844" s="0" t="n">
-        <v>0</v>
+        <v>1468104309</v>
       </c>
       <c r="E844" s="0" t="n">
         <v>499</v>
@@ -14510,7 +14511,7 @@
         <v>0.008</v>
       </c>
       <c r="D845" s="0" t="n">
-        <v>0</v>
+        <v>1468104309</v>
       </c>
       <c r="E845" s="0" t="n">
         <v>531</v>
@@ -14527,7 +14528,7 @@
         <v>0.008</v>
       </c>
       <c r="D846" s="0" t="n">
-        <v>0</v>
+        <v>1468104310</v>
       </c>
       <c r="E846" s="0" t="n">
         <v>465</v>
@@ -14544,7 +14545,7 @@
         <v>0.008</v>
       </c>
       <c r="D847" s="0" t="n">
-        <v>0</v>
+        <v>1468104310</v>
       </c>
       <c r="E847" s="0" t="n">
         <v>505</v>
@@ -14561,7 +14562,7 @@
         <v>0.008</v>
       </c>
       <c r="D848" s="0" t="n">
-        <v>0</v>
+        <v>1468104311</v>
       </c>
       <c r="E848" s="0" t="n">
         <v>498</v>
@@ -14578,7 +14579,7 @@
         <v>0.008</v>
       </c>
       <c r="D849" s="0" t="n">
-        <v>0</v>
+        <v>1468104311</v>
       </c>
       <c r="E849" s="0" t="n">
         <v>498</v>
@@ -14595,7 +14596,7 @@
         <v>0.008</v>
       </c>
       <c r="D850" s="0" t="n">
-        <v>0</v>
+        <v>1468104312</v>
       </c>
       <c r="E850" s="0" t="n">
         <v>502</v>
@@ -14612,7 +14613,7 @@
         <v>0.008</v>
       </c>
       <c r="D851" s="0" t="n">
-        <v>0</v>
+        <v>1468104312</v>
       </c>
       <c r="E851" s="0" t="n">
         <v>509</v>
@@ -14629,7 +14630,7 @@
         <v>0.008</v>
       </c>
       <c r="D852" s="0" t="n">
-        <v>0</v>
+        <v>1468104313</v>
       </c>
       <c r="E852" s="0" t="n">
         <v>489</v>
@@ -14646,7 +14647,7 @@
         <v>0.008</v>
       </c>
       <c r="D853" s="0" t="n">
-        <v>0</v>
+        <v>1468104313</v>
       </c>
       <c r="E853" s="0" t="n">
         <v>501</v>
@@ -14663,7 +14664,7 @@
         <v>0.008</v>
       </c>
       <c r="D854" s="0" t="n">
-        <v>0</v>
+        <v>1468104314</v>
       </c>
       <c r="E854" s="0" t="n">
         <v>506</v>
@@ -14680,7 +14681,7 @@
         <v>0.008</v>
       </c>
       <c r="D855" s="0" t="n">
-        <v>0</v>
+        <v>1468104314</v>
       </c>
       <c r="E855" s="0" t="n">
         <v>532</v>
@@ -14697,7 +14698,7 @@
         <v>0.008</v>
       </c>
       <c r="D856" s="0" t="n">
-        <v>0</v>
+        <v>1468104315</v>
       </c>
       <c r="E856" s="0" t="n">
         <v>461</v>
@@ -14714,7 +14715,7 @@
         <v>0.008</v>
       </c>
       <c r="D857" s="0" t="n">
-        <v>0</v>
+        <v>1468104315</v>
       </c>
       <c r="E857" s="0" t="n">
         <v>509</v>
@@ -14731,7 +14732,7 @@
         <v>0.014</v>
       </c>
       <c r="D858" s="0" t="n">
-        <v>0</v>
+        <v>1468104316</v>
       </c>
       <c r="E858" s="0" t="n">
         <v>491</v>
@@ -14748,7 +14749,7 @@
         <v>0.014</v>
       </c>
       <c r="D859" s="0" t="n">
-        <v>0</v>
+        <v>1468104316</v>
       </c>
       <c r="E859" s="0" t="n">
         <v>501</v>
@@ -14765,7 +14766,7 @@
         <v>0.014</v>
       </c>
       <c r="D860" s="0" t="n">
-        <v>0</v>
+        <v>1468104317</v>
       </c>
       <c r="E860" s="0" t="n">
         <v>523</v>
@@ -14782,7 +14783,7 @@
         <v>0.014</v>
       </c>
       <c r="D861" s="0" t="n">
-        <v>0</v>
+        <v>1468104317</v>
       </c>
       <c r="E861" s="0" t="n">
         <v>488</v>
@@ -14799,7 +14800,7 @@
         <v>0.014</v>
       </c>
       <c r="D862" s="0" t="n">
-        <v>0</v>
+        <v>1468104318</v>
       </c>
       <c r="E862" s="0" t="n">
         <v>491</v>
@@ -14816,7 +14817,7 @@
         <v>0.014</v>
       </c>
       <c r="D863" s="0" t="n">
-        <v>0</v>
+        <v>1468104318</v>
       </c>
       <c r="E863" s="0" t="n">
         <v>501</v>
@@ -14833,7 +14834,7 @@
         <v>0.014</v>
       </c>
       <c r="D864" s="0" t="n">
-        <v>0</v>
+        <v>1468104319</v>
       </c>
       <c r="E864" s="0" t="n">
         <v>493</v>
@@ -14850,7 +14851,7 @@
         <v>0.014</v>
       </c>
       <c r="D865" s="0" t="n">
-        <v>0</v>
+        <v>1468104319</v>
       </c>
       <c r="E865" s="0" t="n">
         <v>534</v>
@@ -14867,7 +14868,7 @@
         <v>0.014</v>
       </c>
       <c r="D866" s="0" t="n">
-        <v>0</v>
+        <v>1468104320</v>
       </c>
       <c r="E866" s="0" t="n">
         <v>468</v>
@@ -14884,7 +14885,7 @@
         <v>0.014</v>
       </c>
       <c r="D867" s="0" t="n">
-        <v>0</v>
+        <v>1468104320</v>
       </c>
       <c r="E867" s="0" t="n">
         <v>501</v>
@@ -14901,7 +14902,7 @@
         <v>0.014</v>
       </c>
       <c r="D868" s="0" t="n">
-        <v>0</v>
+        <v>1468104321</v>
       </c>
       <c r="E868" s="0" t="n">
         <v>496</v>
@@ -14918,7 +14919,7 @@
         <v>0.014</v>
       </c>
       <c r="D869" s="0" t="n">
-        <v>0</v>
+        <v>1468104321</v>
       </c>
       <c r="E869" s="0" t="n">
         <v>498</v>
@@ -14935,7 +14936,7 @@
         <v>0.014</v>
       </c>
       <c r="D870" s="0" t="n">
-        <v>0</v>
+        <v>1468104322</v>
       </c>
       <c r="E870" s="0" t="n">
         <v>534</v>
@@ -14952,7 +14953,7 @@
         <v>0.014</v>
       </c>
       <c r="D871" s="0" t="n">
-        <v>0</v>
+        <v>1468104322</v>
       </c>
       <c r="E871" s="0" t="n">
         <v>461</v>
@@ -14969,7 +14970,7 @@
         <v>0.014</v>
       </c>
       <c r="D872" s="0" t="n">
-        <v>0</v>
+        <v>1468104323</v>
       </c>
       <c r="E872" s="0" t="n">
         <v>496</v>
@@ -14986,7 +14987,7 @@
         <v>0.014</v>
       </c>
       <c r="D873" s="0" t="n">
-        <v>0</v>
+        <v>1468104323</v>
       </c>
       <c r="E873" s="0" t="n">
         <v>500</v>
@@ -15003,7 +15004,7 @@
         <v>0.014</v>
       </c>
       <c r="D874" s="0" t="n">
-        <v>0</v>
+        <v>1468104324</v>
       </c>
       <c r="E874" s="0" t="n">
         <v>499</v>
@@ -15020,7 +15021,7 @@
         <v>0.014</v>
       </c>
       <c r="D875" s="0" t="n">
-        <v>0</v>
+        <v>1468104324</v>
       </c>
       <c r="E875" s="0" t="n">
         <v>540</v>
@@ -15037,7 +15038,7 @@
         <v>0.014</v>
       </c>
       <c r="D876" s="0" t="n">
-        <v>0</v>
+        <v>1468104325</v>
       </c>
       <c r="E876" s="0" t="n">
         <v>462</v>
@@ -15054,7 +15055,7 @@
         <v>0.014</v>
       </c>
       <c r="D877" s="0" t="n">
-        <v>0</v>
+        <v>1468104325</v>
       </c>
       <c r="E877" s="0" t="n">
         <v>502</v>
@@ -15071,7 +15072,7 @@
         <v>0.014</v>
       </c>
       <c r="D878" s="0" t="n">
-        <v>0</v>
+        <v>1468104326</v>
       </c>
       <c r="E878" s="0" t="n">
         <v>504</v>
@@ -15088,7 +15089,7 @@
         <v>0.014</v>
       </c>
       <c r="D879" s="0" t="n">
-        <v>0</v>
+        <v>1468104326</v>
       </c>
       <c r="E879" s="0" t="n">
         <v>499</v>
@@ -15105,7 +15106,7 @@
         <v>0.014</v>
       </c>
       <c r="D880" s="0" t="n">
-        <v>0</v>
+        <v>1468104327</v>
       </c>
       <c r="E880" s="0" t="n">
         <v>527</v>
@@ -15122,7 +15123,7 @@
         <v>0.014</v>
       </c>
       <c r="D881" s="0" t="n">
-        <v>0</v>
+        <v>1468104327</v>
       </c>
       <c r="E881" s="0" t="n">
         <v>466</v>
@@ -15139,7 +15140,7 @@
         <v>0.014</v>
       </c>
       <c r="D882" s="0" t="n">
-        <v>0</v>
+        <v>1468104328</v>
       </c>
       <c r="E882" s="0" t="n">
         <v>499</v>
@@ -15156,7 +15157,7 @@
         <v>0.008</v>
       </c>
       <c r="D883" s="0" t="n">
-        <v>0</v>
+        <v>1468104328</v>
       </c>
       <c r="E883" s="0" t="n">
         <v>505</v>
@@ -15173,7 +15174,7 @@
         <v>0.008</v>
       </c>
       <c r="D884" s="0" t="n">
-        <v>0</v>
+        <v>1468104329</v>
       </c>
       <c r="E884" s="0" t="n">
         <v>500</v>
@@ -15190,7 +15191,7 @@
         <v>0.008</v>
       </c>
       <c r="D885" s="0" t="n">
-        <v>0</v>
+        <v>1468104329</v>
       </c>
       <c r="E885" s="0" t="n">
         <v>510</v>
@@ -15207,7 +15208,7 @@
         <v>0.008</v>
       </c>
       <c r="D886" s="0" t="n">
-        <v>0</v>
+        <v>1468104330</v>
       </c>
       <c r="E886" s="0" t="n">
         <v>487</v>
@@ -15224,7 +15225,7 @@
         <v>0.008</v>
       </c>
       <c r="D887" s="0" t="n">
-        <v>0</v>
+        <v>1468104330</v>
       </c>
       <c r="E887" s="0" t="n">
         <v>491</v>
@@ -15241,7 +15242,7 @@
         <v>0.008</v>
       </c>
       <c r="D888" s="0" t="n">
-        <v>0</v>
+        <v>1468104331</v>
       </c>
       <c r="E888" s="0" t="n">
         <v>503</v>
@@ -15258,7 +15259,7 @@
         <v>0.008</v>
       </c>
       <c r="D889" s="0" t="n">
-        <v>0</v>
+        <v>1468104331</v>
       </c>
       <c r="E889" s="0" t="n">
         <v>496</v>
@@ -15275,7 +15276,7 @@
         <v>0.008</v>
       </c>
       <c r="D890" s="0" t="n">
-        <v>0</v>
+        <v>1468104332</v>
       </c>
       <c r="E890" s="0" t="n">
         <v>537</v>
@@ -15292,7 +15293,7 @@
         <v>0.008</v>
       </c>
       <c r="D891" s="0" t="n">
-        <v>0</v>
+        <v>1468104332</v>
       </c>
       <c r="E891" s="0" t="n">
         <v>461</v>
@@ -15309,7 +15310,7 @@
         <v>0.008</v>
       </c>
       <c r="D892" s="0" t="n">
-        <v>0</v>
+        <v>1468104333</v>
       </c>
       <c r="E892" s="0" t="n">
         <v>512</v>
@@ -15326,7 +15327,7 @@
         <v>0.008</v>
       </c>
       <c r="D893" s="0" t="n">
-        <v>0</v>
+        <v>1468104333</v>
       </c>
       <c r="E893" s="0" t="n">
         <v>487</v>
@@ -15343,7 +15344,7 @@
         <v>0.008</v>
       </c>
       <c r="D894" s="0" t="n">
-        <v>0</v>
+        <v>1468104334</v>
       </c>
       <c r="E894" s="0" t="n">
         <v>498</v>
@@ -15360,7 +15361,7 @@
         <v>0.008</v>
       </c>
       <c r="D895" s="0" t="n">
-        <v>0</v>
+        <v>1468104334</v>
       </c>
       <c r="E895" s="0" t="n">
         <v>540</v>
@@ -15377,7 +15378,7 @@
         <v>0.008</v>
       </c>
       <c r="D896" s="0" t="n">
-        <v>0</v>
+        <v>1468104335</v>
       </c>
       <c r="E896" s="0" t="n">
         <v>459</v>
@@ -15394,7 +15395,7 @@
         <v>0.008</v>
       </c>
       <c r="D897" s="0" t="n">
-        <v>0</v>
+        <v>1468104335</v>
       </c>
       <c r="E897" s="0" t="n">
         <v>500</v>
@@ -15411,7 +15412,7 @@
         <v>0.008</v>
       </c>
       <c r="D898" s="0" t="n">
-        <v>0</v>
+        <v>1468104336</v>
       </c>
       <c r="E898" s="0" t="n">
         <v>500</v>
@@ -15428,7 +15429,7 @@
         <v>0.008</v>
       </c>
       <c r="D899" s="0" t="n">
-        <v>0</v>
+        <v>1468104336</v>
       </c>
       <c r="E899" s="0" t="n">
         <v>498</v>
@@ -15445,7 +15446,7 @@
         <v>0.008</v>
       </c>
       <c r="D900" s="0" t="n">
-        <v>0</v>
+        <v>1468104337</v>
       </c>
       <c r="E900" s="0" t="n">
         <v>539</v>
@@ -15462,7 +15463,7 @@
         <v>0</v>
       </c>
       <c r="D901" s="0" t="n">
-        <v>0</v>
+        <v>1468104337</v>
       </c>
       <c r="E901" s="0" t="n">
         <v>467</v>
@@ -15479,7 +15480,7 @@
         <v>0</v>
       </c>
       <c r="D902" s="0" t="n">
-        <v>0</v>
+        <v>1468104338</v>
       </c>
       <c r="E902" s="0" t="n">
         <v>497</v>
@@ -15496,7 +15497,7 @@
         <v>0</v>
       </c>
       <c r="D903" s="0" t="n">
-        <v>0</v>
+        <v>1468104338</v>
       </c>
       <c r="E903" s="0" t="n">
         <v>450</v>
@@ -15513,7 +15514,7 @@
         <v>0</v>
       </c>
       <c r="D904" s="0" t="n">
-        <v>0</v>
+        <v>1468104339</v>
       </c>
       <c r="E904" s="0" t="n">
         <v>495</v>
@@ -15530,7 +15531,7 @@
         <v>0</v>
       </c>
       <c r="D905" s="0" t="n">
-        <v>0</v>
+        <v>1468104339</v>
       </c>
       <c r="E905" s="0" t="n">
         <v>502</v>
@@ -15547,7 +15548,7 @@
         <v>0</v>
       </c>
       <c r="D906" s="0" t="n">
-        <v>0</v>
+        <v>1468104340</v>
       </c>
       <c r="E906" s="0" t="n">
         <v>497</v>
@@ -15564,7 +15565,7 @@
         <v>0</v>
       </c>
       <c r="D907" s="0" t="n">
-        <v>0</v>
+        <v>1468104340</v>
       </c>
       <c r="E907" s="0" t="n">
         <v>500</v>
@@ -15581,7 +15582,7 @@
         <v>0</v>
       </c>
       <c r="D908" s="0" t="n">
-        <v>0</v>
+        <v>1468104341</v>
       </c>
       <c r="E908" s="0" t="n">
         <v>499</v>
@@ -15598,7 +15599,7 @@
         <v>0</v>
       </c>
       <c r="D909" s="0" t="n">
-        <v>0</v>
+        <v>1468104341</v>
       </c>
       <c r="E909" s="0" t="n">
         <v>499</v>
@@ -15615,7 +15616,7 @@
         <v>0</v>
       </c>
       <c r="D910" s="0" t="n">
-        <v>0</v>
+        <v>1468104342</v>
       </c>
       <c r="E910" s="0" t="n">
         <v>533</v>
@@ -15632,7 +15633,7 @@
         <v>0</v>
       </c>
       <c r="D911" s="0" t="n">
-        <v>0</v>
+        <v>1468104342</v>
       </c>
       <c r="E911" s="0" t="n">
         <v>463</v>
@@ -15649,7 +15650,7 @@
         <v>0</v>
       </c>
       <c r="D912" s="0" t="n">
-        <v>0</v>
+        <v>1468104343</v>
       </c>
       <c r="E912" s="0" t="n">
         <v>500</v>
@@ -15666,7 +15667,7 @@
         <v>0</v>
       </c>
       <c r="D913" s="0" t="n">
-        <v>0</v>
+        <v>1468104343</v>
       </c>
       <c r="E913" s="0" t="n">
         <v>496</v>
@@ -15683,7 +15684,7 @@
         <v>0</v>
       </c>
       <c r="D914" s="0" t="n">
-        <v>0</v>
+        <v>1468104344</v>
       </c>
       <c r="E914" s="0" t="n">
         <v>503</v>
@@ -15700,7 +15701,7 @@
         <v>0</v>
       </c>
       <c r="D915" s="0" t="n">
-        <v>0</v>
+        <v>1468104344</v>
       </c>
       <c r="E915" s="0" t="n">
         <v>520</v>
@@ -15717,7 +15718,7 @@
         <v>0</v>
       </c>
       <c r="D916" s="0" t="n">
-        <v>0</v>
+        <v>1468104345</v>
       </c>
       <c r="E916" s="0" t="n">
         <v>478</v>
@@ -15734,7 +15735,7 @@
         <v>0</v>
       </c>
       <c r="D917" s="0" t="n">
-        <v>0</v>
+        <v>1468104345</v>
       </c>
       <c r="E917" s="0" t="n">
         <v>501</v>
@@ -15751,7 +15752,7 @@
         <v>0</v>
       </c>
       <c r="D918" s="0" t="n">
-        <v>0</v>
+        <v>1468104346</v>
       </c>
       <c r="E918" s="0" t="n">
         <v>499</v>
@@ -15768,7 +15769,7 @@
         <v>0</v>
       </c>
       <c r="D919" s="0" t="n">
-        <v>0</v>
+        <v>1468104346</v>
       </c>
       <c r="E919" s="0" t="n">
         <v>500</v>
@@ -15785,7 +15786,7 @@
         <v>0</v>
       </c>
       <c r="D920" s="0" t="n">
-        <v>0</v>
+        <v>1468104347</v>
       </c>
       <c r="E920" s="0" t="n">
         <v>530</v>
@@ -15802,7 +15803,7 @@
         <v>0</v>
       </c>
       <c r="D921" s="0" t="n">
-        <v>0</v>
+        <v>1468104347</v>
       </c>
       <c r="E921" s="0" t="n">
         <v>466</v>
@@ -15819,7 +15820,7 @@
         <v>0</v>
       </c>
       <c r="D922" s="0" t="n">
-        <v>0</v>
+        <v>1468104348</v>
       </c>
       <c r="E922" s="0" t="n">
         <v>496</v>
@@ -15836,7 +15837,7 @@
         <v>0</v>
       </c>
       <c r="D923" s="0" t="n">
-        <v>0</v>
+        <v>1468104348</v>
       </c>
       <c r="E923" s="0" t="n">
         <v>507</v>
@@ -15853,7 +15854,7 @@
         <v>0</v>
       </c>
       <c r="D924" s="0" t="n">
-        <v>0</v>
+        <v>1468104349</v>
       </c>
       <c r="E924" s="0" t="n">
         <v>497</v>
@@ -15870,7 +15871,7 @@
         <v>0</v>
       </c>
       <c r="D925" s="0" t="n">
-        <v>0</v>
+        <v>1468104349</v>
       </c>
       <c r="E925" s="0" t="n">
         <v>540</v>
@@ -15887,7 +15888,7 @@
         <v>0</v>
       </c>
       <c r="D926" s="0" t="n">
-        <v>0</v>
+        <v>1468104350</v>
       </c>
       <c r="E926" s="0" t="n">
         <v>459</v>
@@ -15904,7 +15905,7 @@
         <v>0</v>
       </c>
       <c r="D927" s="0" t="n">
-        <v>0</v>
+        <v>1468104350</v>
       </c>
       <c r="E927" s="0" t="n">
         <v>495</v>
@@ -15921,7 +15922,7 @@
         <v>0</v>
       </c>
       <c r="D928" s="0" t="n">
-        <v>0</v>
+        <v>1468104351</v>
       </c>
       <c r="E928" s="0" t="n">
         <v>503</v>
@@ -15938,7 +15939,7 @@
         <v>0</v>
       </c>
       <c r="D929" s="0" t="n">
-        <v>0</v>
+        <v>1468104351</v>
       </c>
       <c r="E929" s="0" t="n">
         <v>500</v>
@@ -15955,7 +15956,7 @@
         <v>0</v>
       </c>
       <c r="D930" s="0" t="n">
-        <v>0</v>
+        <v>1468104352</v>
       </c>
       <c r="E930" s="0" t="n">
         <v>538</v>
@@ -15972,7 +15973,7 @@
         <v>0</v>
       </c>
       <c r="D931" s="0" t="n">
-        <v>0</v>
+        <v>1468104352</v>
       </c>
       <c r="E931" s="0" t="n">
         <v>462</v>
@@ -15989,7 +15990,7 @@
         <v>0</v>
       </c>
       <c r="D932" s="0" t="n">
-        <v>0</v>
+        <v>1468104353</v>
       </c>
       <c r="E932" s="0" t="n">
         <v>497</v>
@@ -16006,7 +16007,7 @@
         <v>0</v>
       </c>
       <c r="D933" s="0" t="n">
-        <v>0</v>
+        <v>1468104353</v>
       </c>
       <c r="E933" s="0" t="n">
         <v>511</v>
@@ -16023,7 +16024,7 @@
         <v>0</v>
       </c>
       <c r="D934" s="0" t="n">
-        <v>0</v>
+        <v>1468104354</v>
       </c>
       <c r="E934" s="0" t="n">
         <v>489</v>
@@ -16040,7 +16041,7 @@
         <v>0</v>
       </c>
       <c r="D935" s="0" t="n">
-        <v>0</v>
+        <v>1468104354</v>
       </c>
       <c r="E935" s="0" t="n">
         <v>500</v>
@@ -16057,7 +16058,7 @@
         <v>0</v>
       </c>
       <c r="D936" s="0" t="n">
-        <v>0</v>
+        <v>1468104355</v>
       </c>
       <c r="E936" s="0" t="n">
         <v>497</v>
@@ -16074,7 +16075,7 @@
         <v>0</v>
       </c>
       <c r="D937" s="0" t="n">
-        <v>0</v>
+        <v>1468104355</v>
       </c>
       <c r="E937" s="0" t="n">
         <v>502</v>
@@ -16091,7 +16092,7 @@
         <v>0</v>
       </c>
       <c r="D938" s="0" t="n">
-        <v>0</v>
+        <v>1468104356</v>
       </c>
       <c r="E938" s="0" t="n">
         <v>509</v>
@@ -16108,7 +16109,7 @@
         <v>0</v>
       </c>
       <c r="D939" s="0" t="n">
-        <v>0</v>
+        <v>1468104356</v>
       </c>
       <c r="E939" s="0" t="n">
         <v>490</v>
@@ -16125,7 +16126,7 @@
         <v>0</v>
       </c>
       <c r="D940" s="0" t="n">
-        <v>0</v>
+        <v>1468104357</v>
       </c>
       <c r="E940" s="0" t="n">
         <v>536</v>
@@ -16142,7 +16143,7 @@
         <v>0</v>
       </c>
       <c r="D941" s="0" t="n">
-        <v>0</v>
+        <v>1468104357</v>
       </c>
       <c r="E941" s="0" t="n">
         <v>463</v>
@@ -16159,7 +16160,7 @@
         <v>0</v>
       </c>
       <c r="D942" s="0" t="n">
-        <v>0</v>
+        <v>1468104358</v>
       </c>
       <c r="E942" s="0" t="n">
         <v>496</v>
@@ -16176,7 +16177,7 @@
         <v>0</v>
       </c>
       <c r="D943" s="0" t="n">
-        <v>0</v>
+        <v>1468104358</v>
       </c>
       <c r="E943" s="0" t="n">
         <v>501</v>
@@ -16193,7 +16194,7 @@
         <v>0</v>
       </c>
       <c r="D944" s="0" t="n">
-        <v>0</v>
+        <v>1468104359</v>
       </c>
       <c r="E944" s="0" t="n">
         <v>498</v>
@@ -16210,7 +16211,7 @@
         <v>0</v>
       </c>
       <c r="D945" s="0" t="n">
-        <v>0</v>
+        <v>1468104359</v>
       </c>
       <c r="E945" s="0" t="n">
         <v>539</v>
@@ -16227,7 +16228,7 @@
         <v>0</v>
       </c>
       <c r="D946" s="0" t="n">
-        <v>0</v>
+        <v>1468104360</v>
       </c>
       <c r="E946" s="0" t="n">
         <v>459</v>
@@ -16244,7 +16245,7 @@
         <v>0</v>
       </c>
       <c r="D947" s="0" t="n">
-        <v>0</v>
+        <v>1468104360</v>
       </c>
       <c r="E947" s="0" t="n">
         <v>498</v>
@@ -16261,7 +16262,7 @@
         <v>0</v>
       </c>
       <c r="D948" s="0" t="n">
-        <v>0</v>
+        <v>1468104361</v>
       </c>
       <c r="E948" s="0" t="n">
         <v>502</v>
@@ -16278,7 +16279,7 @@
         <v>0.01</v>
       </c>
       <c r="D949" s="0" t="n">
-        <v>0</v>
+        <v>1468104361</v>
       </c>
       <c r="E949" s="0" t="n">
         <v>500</v>
@@ -16295,7 +16296,7 @@
         <v>0.01</v>
       </c>
       <c r="D950" s="0" t="n">
-        <v>0</v>
+        <v>1468104362</v>
       </c>
       <c r="E950" s="0" t="n">
         <v>545</v>
@@ -16312,7 +16313,7 @@
         <v>0.01</v>
       </c>
       <c r="D951" s="0" t="n">
-        <v>0</v>
+        <v>1468104362</v>
       </c>
       <c r="E951" s="0" t="n">
         <v>454</v>
@@ -16329,7 +16330,7 @@
         <v>0.01</v>
       </c>
       <c r="D952" s="0" t="n">
-        <v>0</v>
+        <v>1468104363</v>
       </c>
       <c r="E952" s="0" t="n">
         <v>496</v>
@@ -16346,7 +16347,7 @@
         <v>0.01</v>
       </c>
       <c r="D953" s="0" t="n">
-        <v>0</v>
+        <v>1468104363</v>
       </c>
       <c r="E953" s="0" t="n">
         <v>501</v>
@@ -16363,7 +16364,7 @@
         <v>0.01</v>
       </c>
       <c r="D954" s="0" t="n">
-        <v>0</v>
+        <v>1468104364</v>
       </c>
       <c r="E954" s="0" t="n">
         <v>494</v>
@@ -16380,7 +16381,7 @@
         <v>0.01</v>
       </c>
       <c r="D955" s="0" t="n">
-        <v>0</v>
+        <v>1468104364</v>
       </c>
       <c r="E955" s="0" t="n">
         <v>545</v>
@@ -16397,7 +16398,7 @@
         <v>0.01</v>
       </c>
       <c r="D956" s="0" t="n">
-        <v>0</v>
+        <v>1468104365</v>
       </c>
       <c r="E956" s="0" t="n">
         <v>458</v>
@@ -16414,7 +16415,7 @@
         <v>0.01</v>
       </c>
       <c r="D957" s="0" t="n">
-        <v>0</v>
+        <v>1468104365</v>
       </c>
       <c r="E957" s="0" t="n">
         <v>499</v>
@@ -16431,7 +16432,7 @@
         <v>0.01</v>
       </c>
       <c r="D958" s="0" t="n">
-        <v>0</v>
+        <v>1468104366</v>
       </c>
       <c r="E958" s="0" t="n">
         <v>500</v>
@@ -16448,7 +16449,7 @@
         <v>0.01</v>
       </c>
       <c r="D959" s="0" t="n">
-        <v>0</v>
+        <v>1468104366</v>
       </c>
       <c r="E959" s="0" t="n">
         <v>497</v>
@@ -16465,7 +16466,7 @@
         <v>0.01</v>
       </c>
       <c r="D960" s="0" t="n">
-        <v>0</v>
+        <v>1468104367</v>
       </c>
       <c r="E960" s="0" t="n">
         <v>530</v>
@@ -16482,7 +16483,7 @@
         <v>0.01</v>
       </c>
       <c r="D961" s="0" t="n">
-        <v>0</v>
+        <v>1468104367</v>
       </c>
       <c r="E961" s="0" t="n">
         <v>472</v>
@@ -16499,7 +16500,7 @@
         <v>0.01</v>
       </c>
       <c r="D962" s="0" t="n">
-        <v>0</v>
+        <v>1468104368</v>
       </c>
       <c r="E962" s="0" t="n">
         <v>496</v>
@@ -16516,7 +16517,7 @@
         <v>0.041</v>
       </c>
       <c r="D963" s="0" t="n">
-        <v>0</v>
+        <v>1468104368</v>
       </c>
       <c r="E963" s="0" t="n">
         <v>500</v>
@@ -16533,7 +16534,7 @@
         <v>0.055</v>
       </c>
       <c r="D964" s="0" t="n">
-        <v>0</v>
+        <v>1468104369</v>
       </c>
       <c r="E964" s="0" t="n">
         <v>516</v>
@@ -16550,7 +16551,7 @@
         <v>0.1</v>
       </c>
       <c r="D965" s="0" t="n">
-        <v>0</v>
+        <v>1468104369</v>
       </c>
       <c r="E965" s="0" t="n">
         <v>529</v>
@@ -16567,7 +16568,7 @@
         <v>0.022</v>
       </c>
       <c r="D966" s="0" t="n">
-        <v>0</v>
+        <v>1468104370</v>
       </c>
       <c r="E966" s="0" t="n">
         <v>463</v>
@@ -16584,7 +16585,7 @@
         <v>0.306</v>
       </c>
       <c r="D967" s="0" t="n">
-        <v>0</v>
+        <v>1468104370</v>
       </c>
       <c r="E967" s="0" t="n">
         <v>499</v>
@@ -16601,7 +16602,7 @@
         <v>0.181</v>
       </c>
       <c r="D968" s="0" t="n">
-        <v>0</v>
+        <v>1468104371</v>
       </c>
       <c r="E968" s="0" t="n">
         <v>490</v>
@@ -16618,7 +16619,7 @@
         <v>0.124</v>
       </c>
       <c r="D969" s="0" t="n">
-        <v>0</v>
+        <v>1468104371</v>
       </c>
       <c r="E969" s="0" t="n">
         <v>503</v>
@@ -16635,7 +16636,7 @@
         <v>0.2</v>
       </c>
       <c r="D970" s="0" t="n">
-        <v>0</v>
+        <v>1468104372</v>
       </c>
       <c r="E970" s="0" t="n">
         <v>540</v>
@@ -16652,7 +16653,7 @@
         <v>0.147</v>
       </c>
       <c r="D971" s="0" t="n">
-        <v>0</v>
+        <v>1468104372</v>
       </c>
       <c r="E971" s="0" t="n">
         <v>423</v>
@@ -16669,7 +16670,7 @@
         <v>0.077</v>
       </c>
       <c r="D972" s="0" t="n">
-        <v>0</v>
+        <v>1468104373</v>
       </c>
       <c r="E972" s="0" t="n">
         <v>499</v>
@@ -16686,7 +16687,7 @@
         <v>0.175</v>
       </c>
       <c r="D973" s="0" t="n">
-        <v>0</v>
+        <v>1468104373</v>
       </c>
       <c r="E973" s="0" t="n">
         <v>499</v>
@@ -16703,7 +16704,7 @@
         <v>0.376</v>
       </c>
       <c r="D974" s="0" t="n">
-        <v>0</v>
+        <v>1468104374</v>
       </c>
       <c r="E974" s="0" t="n">
         <v>502</v>
@@ -16720,7 +16721,7 @@
         <v>0.382</v>
       </c>
       <c r="D975" s="0" t="n">
-        <v>0</v>
+        <v>1468104374</v>
       </c>
       <c r="E975" s="0" t="n">
         <v>546</v>
@@ -16737,7 +16738,7 @@
         <v>0.303</v>
       </c>
       <c r="D976" s="0" t="n">
-        <v>0</v>
+        <v>1468104375</v>
       </c>
       <c r="E976" s="0" t="n">
         <v>449</v>
@@ -16754,7 +16755,7 @@
         <v>0.064</v>
       </c>
       <c r="D977" s="0" t="n">
-        <v>0</v>
+        <v>1468104375</v>
       </c>
       <c r="E977" s="0" t="n">
         <v>501</v>
@@ -16771,7 +16772,7 @@
         <v>0.073</v>
       </c>
       <c r="D978" s="0" t="n">
-        <v>0</v>
+        <v>1468104376</v>
       </c>
       <c r="E978" s="0" t="n">
         <v>497</v>
@@ -16788,7 +16789,7 @@
         <v>0.124</v>
       </c>
       <c r="D979" s="0" t="n">
-        <v>0</v>
+        <v>1468104376</v>
       </c>
       <c r="E979" s="0" t="n">
         <v>500</v>
@@ -16805,7 +16806,7 @@
         <v>0.172</v>
       </c>
       <c r="D980" s="0" t="n">
-        <v>0</v>
+        <v>1468104377</v>
       </c>
       <c r="E980" s="0" t="n">
         <v>537</v>
@@ -16822,7 +16823,7 @@
         <v>0.456</v>
       </c>
       <c r="D981" s="0" t="n">
-        <v>0</v>
+        <v>1468104377</v>
       </c>
       <c r="E981" s="0" t="n">
         <v>461</v>
@@ -16839,7 +16840,7 @@
         <v>0.196</v>
       </c>
       <c r="D982" s="0" t="n">
-        <v>0</v>
+        <v>1468104378</v>
       </c>
       <c r="E982" s="0" t="n">
         <v>499</v>
@@ -16856,7 +16857,7 @@
         <v>0.1</v>
       </c>
       <c r="D983" s="0" t="n">
-        <v>0</v>
+        <v>1468104378</v>
       </c>
       <c r="E983" s="0" t="n">
         <v>500</v>
@@ -16873,7 +16874,7 @@
         <v>0.262</v>
       </c>
       <c r="D984" s="0" t="n">
-        <v>0</v>
+        <v>1468104379</v>
       </c>
       <c r="E984" s="0" t="n">
         <v>507</v>
@@ -16890,7 +16891,7 @@
         <v>0.2</v>
       </c>
       <c r="D985" s="0" t="n">
-        <v>0</v>
+        <v>1468104379</v>
       </c>
       <c r="E985" s="0" t="n">
         <v>544</v>
@@ -16907,7 +16908,7 @@
         <v>0.219</v>
       </c>
       <c r="D986" s="0" t="n">
-        <v>0</v>
+        <v>1468104380</v>
       </c>
       <c r="E986" s="0" t="n">
         <v>445</v>
@@ -16924,7 +16925,7 @@
         <v>0.345</v>
       </c>
       <c r="D987" s="0" t="n">
-        <v>0</v>
+        <v>1468104380</v>
       </c>
       <c r="E987" s="0" t="n">
         <v>502</v>
@@ -16941,7 +16942,7 @@
         <v>0.391</v>
       </c>
       <c r="D988" s="0" t="n">
-        <v>0</v>
+        <v>1468104381</v>
       </c>
       <c r="E988" s="0" t="n">
         <v>502</v>
@@ -16958,7 +16959,7 @@
         <v>0.305</v>
       </c>
       <c r="D989" s="0" t="n">
-        <v>0</v>
+        <v>1468104381</v>
       </c>
       <c r="E989" s="0" t="n">
         <v>496</v>
@@ -16975,7 +16976,7 @@
         <v>0.204</v>
       </c>
       <c r="D990" s="0" t="n">
-        <v>0</v>
+        <v>1468104382</v>
       </c>
       <c r="E990" s="0" t="n">
         <v>551</v>
@@ -16992,7 +16993,7 @@
         <v>0.124</v>
       </c>
       <c r="D991" s="0" t="n">
-        <v>0</v>
+        <v>1468104382</v>
       </c>
       <c r="E991" s="0" t="n">
         <v>449</v>
@@ -17009,7 +17010,7 @@
         <v>0.228</v>
       </c>
       <c r="D992" s="0" t="n">
-        <v>0</v>
+        <v>1468104383</v>
       </c>
       <c r="E992" s="0" t="n">
         <v>499</v>
@@ -17026,7 +17027,7 @@
         <v>0.252</v>
       </c>
       <c r="D993" s="0" t="n">
-        <v>0</v>
+        <v>1468104383</v>
       </c>
       <c r="E993" s="0" t="n">
         <v>501</v>
@@ -17043,7 +17044,7 @@
         <v>0.037</v>
       </c>
       <c r="D994" s="0" t="n">
-        <v>0</v>
+        <v>1468104384</v>
       </c>
       <c r="E994" s="0" t="n">
         <v>470</v>
@@ -17060,7 +17061,7 @@
         <v>0.11</v>
       </c>
       <c r="D995" s="0" t="n">
-        <v>0</v>
+        <v>1468104384</v>
       </c>
       <c r="E995" s="0" t="n">
         <v>517</v>
@@ -17077,7 +17078,7 @@
         <v>0.152</v>
       </c>
       <c r="D996" s="0" t="n">
-        <v>0</v>
+        <v>1468104385</v>
       </c>
       <c r="E996" s="0" t="n">
         <v>482</v>
@@ -17094,7 +17095,7 @@
         <v>0.278</v>
       </c>
       <c r="D997" s="0" t="n">
-        <v>0</v>
+        <v>1468104385</v>
       </c>
       <c r="E997" s="0" t="n">
         <v>496</v>
@@ -17111,7 +17112,7 @@
         <v>0.273</v>
       </c>
       <c r="D998" s="0" t="n">
-        <v>0</v>
+        <v>1468104386</v>
       </c>
       <c r="E998" s="0" t="n">
         <v>508</v>
@@ -17128,7 +17129,7 @@
         <v>0.33</v>
       </c>
       <c r="D999" s="0" t="n">
-        <v>0</v>
+        <v>1468104386</v>
       </c>
       <c r="E999" s="0" t="n">
         <v>494</v>
@@ -17145,7 +17146,7 @@
         <v>0.146</v>
       </c>
       <c r="D1000" s="0" t="n">
-        <v>0</v>
+        <v>1468104387</v>
       </c>
       <c r="E1000" s="0" t="n">
         <v>540</v>
@@ -17162,34 +17163,25 @@
         <v>0.136</v>
       </c>
       <c r="D1001" s="0" t="n">
-        <v>0</v>
+        <v>1468104387</v>
       </c>
       <c r="E1001" s="0" t="n">
         <v>427</v>
       </c>
     </row>
     <row r="1003" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D1003" s="0" t="s">
-        <v>5</v>
-      </c>
       <c r="E1003" s="0" t="n">
         <f aca="false">MIN(E2:E1001)</f>
         <v>389</v>
       </c>
     </row>
     <row r="1004" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D1004" s="0" t="s">
-        <v>6</v>
-      </c>
       <c r="E1004" s="0" t="n">
         <f aca="false">AVERAGE(E2:E1001)</f>
         <v>594.553</v>
       </c>
     </row>
     <row r="1005" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D1005" s="0" t="s">
-        <v>7</v>
-      </c>
       <c r="E1005" s="0" t="n">
         <f aca="false">MAX(E2:E1001)</f>
         <v>96280</v>
@@ -34274,7 +34266,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
